--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Documents\GitHub\mapservicedoc\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FAC50A4-8190-45DA-A570-1094234C5E69}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41854D4F-EEB1-45DD-B166-8175769BBC59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="60" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
   <si>
     <t>Date posted</t>
   </si>
@@ -73,6 +73,264 @@
   </si>
   <si>
     <t>https://s3.amazonaws.com/itos-humanitarian</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>COD_BEN_Admin0</t>
+  </si>
+  <si>
+    <t>COD_BEN_Admin1</t>
+  </si>
+  <si>
+    <t>COD_BEN_Admin2</t>
+  </si>
+  <si>
+    <t>COD_BOL_Admin0</t>
+  </si>
+  <si>
+    <t>COD_BOL_Admin1</t>
+  </si>
+  <si>
+    <t>COD_BOL_Admin2</t>
+  </si>
+  <si>
+    <t>COD_BOL_Admin3</t>
+  </si>
+  <si>
+    <t>COD_CMR_Admin0</t>
+  </si>
+  <si>
+    <t>COD_CMR_Admin1</t>
+  </si>
+  <si>
+    <t>COD_CMR_Admin2</t>
+  </si>
+  <si>
+    <t>COD_CMR_Admin3</t>
+  </si>
+  <si>
+    <t>COD_COD_Admin0</t>
+  </si>
+  <si>
+    <t>COD_COD_Admin1</t>
+  </si>
+  <si>
+    <t>COD_COD_Admin2</t>
+  </si>
+  <si>
+    <t>COD_COG_Admin0</t>
+  </si>
+  <si>
+    <t>COD_COG_Admin1</t>
+  </si>
+  <si>
+    <t>COD_COG_Admin2</t>
+  </si>
+  <si>
+    <t>COD_ECU_Admin0</t>
+  </si>
+  <si>
+    <t>COD_ECU_Admin1</t>
+  </si>
+  <si>
+    <t>COD_ECU_Admin2</t>
+  </si>
+  <si>
+    <t>COD_ECU_Admin3</t>
+  </si>
+  <si>
+    <t>COD_ETH_Admin0</t>
+  </si>
+  <si>
+    <t>COD_ETH_Admin1</t>
+  </si>
+  <si>
+    <t>COD_ETH_Admin2</t>
+  </si>
+  <si>
+    <t>COD_ETH_Admin3</t>
+  </si>
+  <si>
+    <t>COD_GTM_Admin0</t>
+  </si>
+  <si>
+    <t>COD_GTM_Admin1</t>
+  </si>
+  <si>
+    <t>COD_GTM_Admin2</t>
+  </si>
+  <si>
+    <t>COD_IRN_Admin0</t>
+  </si>
+  <si>
+    <t>COD_IRN_Admin1</t>
+  </si>
+  <si>
+    <t>COD_IRN_Admin2</t>
+  </si>
+  <si>
+    <t>COD_IRQ_Admin0</t>
+  </si>
+  <si>
+    <t>COD_IRQ_Admin1</t>
+  </si>
+  <si>
+    <t>COD_IRQ_Admin2</t>
+  </si>
+  <si>
+    <t>COD_IRQ_Admin3</t>
+  </si>
+  <si>
+    <t>COD_LKA_Admin0</t>
+  </si>
+  <si>
+    <t>COD_LKA_Admin1</t>
+  </si>
+  <si>
+    <t>COD_LKA_Admin2</t>
+  </si>
+  <si>
+    <t>COD_LKA_Admin3</t>
+  </si>
+  <si>
+    <t>COD_MLI_Admin0</t>
+  </si>
+  <si>
+    <t>COD_MLI_Admin1</t>
+  </si>
+  <si>
+    <t>COD_MLI_Admin2</t>
+  </si>
+  <si>
+    <t>COD_MLI_Admin3</t>
+  </si>
+  <si>
+    <t>COD_NGA_Admin0</t>
+  </si>
+  <si>
+    <t>COD_NGA_Admin1</t>
+  </si>
+  <si>
+    <t>COD_NGA_Admin2</t>
+  </si>
+  <si>
+    <t>COD_NGA_Admin3</t>
+  </si>
+  <si>
+    <t>COD_NPL_Admin0</t>
+  </si>
+  <si>
+    <t>COD_NPL_Admin1</t>
+  </si>
+  <si>
+    <t>COD_NPL_Admin2</t>
+  </si>
+  <si>
+    <t>COD_PNG_Admin0</t>
+  </si>
+  <si>
+    <t>COD_PNG_Admin1</t>
+  </si>
+  <si>
+    <t>COD_PNG_Admin2</t>
+  </si>
+  <si>
+    <t>COD_PNG_Admin3</t>
+  </si>
+  <si>
+    <t>COD_PRK_Admin0</t>
+  </si>
+  <si>
+    <t>COD_PRK_Admin1</t>
+  </si>
+  <si>
+    <t>COD_PRK_Admin2</t>
+  </si>
+  <si>
+    <t>COD_SEN_Admin0</t>
+  </si>
+  <si>
+    <t>COD_SEN_Admin1</t>
+  </si>
+  <si>
+    <t>COD_SEN_Admin2</t>
+  </si>
+  <si>
+    <t>COD_SEN_Admin3</t>
+  </si>
+  <si>
+    <t>COD_TGO_Admin0</t>
+  </si>
+  <si>
+    <t>COD_TGO_Admin1</t>
+  </si>
+  <si>
+    <t>COD_TGO_Admin2</t>
+  </si>
+  <si>
+    <t>COD_THA_Admin0</t>
+  </si>
+  <si>
+    <t>COD_THA_Admin1</t>
+  </si>
+  <si>
+    <t>COD_THA_Admin2</t>
+  </si>
+  <si>
+    <t>COD_THA_Admin3</t>
   </si>
 </sst>
 </file>
@@ -430,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,8 +752,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.topojson</v>
       </c>
       <c r="G2" t="str">
-        <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$G$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.kml</v>
+        <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$F$1</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.topojson</v>
       </c>
       <c r="H2" t="str">
         <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$H$1</f>
@@ -516,19 +774,19 @@
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$E$1</f>
+        <f t="shared" ref="E3:E66" si="0">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$E$1</f>
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.geojson</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F5" si="1">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$F$1</f>
+        <f t="shared" ref="F3:G66" si="1">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$F$1</f>
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.topojson</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G5" si="2">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$G$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.kml</v>
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.topojson</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H5" si="3">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$H$1</f>
+        <f t="shared" ref="H3:H66" si="2">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$H$1</f>
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
@@ -554,11 +812,11 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.topojson</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.kml</v>
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.topojson</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
@@ -584,12 +842,1848 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.topojson</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.kml</v>
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.topojson</v>
       </c>
       <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.geojson</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.topojson</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.topojson</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="str">
+        <f>$B7&amp;"/"&amp;$C7&amp;"/"&amp;$D7&amp;$E$1</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.geojson</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.topojson</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.topojson</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.geojson</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.topojson</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.topojson</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.geojson</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.topojson</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.topojson</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.geojson</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.topojson</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.topojson</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.geojson</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.topojson</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.topojson</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.geojson</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.topojson</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.topojson</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.geojson</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.topojson</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.topojson</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.geojson</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.topojson</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.topojson</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.geojson</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.topojson</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.topojson</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.geojson</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.topojson</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.topojson</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.geojson</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.topojson</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.topojson</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.geojson</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.topojson</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.topojson</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.geojson</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.topojson</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.topojson</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.geojson</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.topojson</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.topojson</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.geojson</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.topojson</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.topojson</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.geojson</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.topojson</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.topojson</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.geojson</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.topojson</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.topojson</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.geojson</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.topojson</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.topojson</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.geojson</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.topojson</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.topojson</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.geojson</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.topojson</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.topojson</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.geojson</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.topojson</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.topojson</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.geojson</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.topojson</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.topojson</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.geojson</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.topojson</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.topojson</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.geojson</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.topojson</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.topojson</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.geojson</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.topojson</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.topojson</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.geojson</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.topojson</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.topojson</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.geojson</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.topojson</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.topojson</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.geojson</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.topojson</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.topojson</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.geojson</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.topojson</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.topojson</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.geojson</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.topojson</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.topojson</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.geojson</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.topojson</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.topojson</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.geojson</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.topojson</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.topojson</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.geojson</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.topojson</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.topojson</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.geojson</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.topojson</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.topojson</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.geojson</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.topojson</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.topojson</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.geojson</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.topojson</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.topojson</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.geojson</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.topojson</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.topojson</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.geojson</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.topojson</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.topojson</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.geojson</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.topojson</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.topojson</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.geojson</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.topojson</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.topojson</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.geojson</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.topojson</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.topojson</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.geojson</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.topojson</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.topojson</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.geojson</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.topojson</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.topojson</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.geojson</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.topojson</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.topojson</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.geojson</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.topojson</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.topojson</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.geojson</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.topojson</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.topojson</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.geojson</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.topojson</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.topojson</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.geojson</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.topojson</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.topojson</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.geojson</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.topojson</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.topojson</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.geojson</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.topojson</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.topojson</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.geojson</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.topojson</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.topojson</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.geojson</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.topojson</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.topojson</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.geojson</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.topojson</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.topojson</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.geojson</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.topojson</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.topojson</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.geojson</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.topojson</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.topojson</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.geojson</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.topojson</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.topojson</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.geojson</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.topojson</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.topojson</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.geojson</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.topojson</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.topojson</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.geojson</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.topojson</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.topojson</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.geojson</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.topojson</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.topojson</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E73" si="3">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.geojson</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:G73" si="4">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$F$1</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.topojson</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.topojson</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H73" si="5">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$H$1</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" t="str">
         <f t="shared" si="3"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.csv</v>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.geojson</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.topojson</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.topojson</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="5"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.geojson</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.topojson</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.topojson</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="5"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.geojson</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.topojson</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.topojson</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="5"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.geojson</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.topojson</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.topojson</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="5"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.geojson</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.topojson</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.topojson</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="5"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.geojson</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.topojson</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="4"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.topojson</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="5"/>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.csv</v>
       </c>
     </row>
   </sheetData>
@@ -599,8 +2693,10 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{296414C8-D5E8-4393-A6FE-7F81211AFD64}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{5981A8C7-3724-48B5-90EB-8D6D48241C6B}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{5BB18EBD-E2D7-409F-B6DC-F069A7718656}"/>
+    <hyperlink ref="B6:B72" r:id="rId6" display="https://s3.amazonaws.com/itos-humanitarian/" xr:uid="{C509935A-0073-42C4-A195-973ECC5CEABD}"/>
+    <hyperlink ref="B73" r:id="rId7" display="https://s3.amazonaws.com/itos-humanitarian/" xr:uid="{5EE65176-E7F0-4AE8-9E45-EA47078E7289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41854D4F-EEB1-45DD-B166-8175769BBC59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D297E4-4FEF-40EA-AC8A-0115F9788A9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="60" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50280" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H73"/>
+    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,8 @@
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
     <col min="5" max="5" width="73.42578125" customWidth="1"/>
     <col min="6" max="6" width="75.28515625" customWidth="1"/>
-    <col min="7" max="8" width="72" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" customWidth="1"/>
+    <col min="8" max="8" width="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,8 +753,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.topojson</v>
       </c>
       <c r="G2" t="str">
-        <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$F$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.topojson</v>
+        <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.kml</v>
       </c>
       <c r="H2" t="str">
         <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$H$1</f>
@@ -782,8 +783,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.topojson</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.topojson</v>
+        <f>$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.kml</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="2">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$H$1</f>
@@ -812,8 +813,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.topojson</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.topojson</v>
+        <f>$B4&amp;"/"&amp;$C4&amp;"/"&amp;$D4&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.kml</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
@@ -842,8 +843,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.topojson</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.topojson</v>
+        <f>$B5&amp;"/"&amp;$C5&amp;"/"&amp;$D5&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.kml</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
@@ -851,6 +852,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43753</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -869,8 +873,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.topojson</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.topojson</v>
+        <f>$B6&amp;"/"&amp;$C6&amp;"/"&amp;$D6&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.kml</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
@@ -878,6 +882,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43753</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -896,8 +903,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.topojson</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.topojson</v>
+        <f>$B7&amp;"/"&amp;$C7&amp;"/"&amp;$D7&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.kml</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -905,6 +912,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43753</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -923,8 +933,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.topojson</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.topojson</v>
+        <f>$B8&amp;"/"&amp;$C8&amp;"/"&amp;$D8&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.kml</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
@@ -932,6 +942,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43753</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -950,8 +963,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.topojson</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.topojson</v>
+        <f>$B9&amp;"/"&amp;$C9&amp;"/"&amp;$D9&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.kml</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
@@ -959,6 +972,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43753</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,8 +993,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.topojson</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.topojson</v>
+        <f>$B10&amp;"/"&amp;$C10&amp;"/"&amp;$D10&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.kml</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
@@ -986,6 +1002,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43753</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,8 +1023,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.topojson</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.topojson</v>
+        <f>$B11&amp;"/"&amp;$C11&amp;"/"&amp;$D11&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.kml</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -1013,6 +1032,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43753</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1031,8 +1053,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.topojson</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.topojson</v>
+        <f>$B12&amp;"/"&amp;$C12&amp;"/"&amp;$D12&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.kml</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="2"/>
@@ -1040,6 +1062,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43753</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1058,8 +1083,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.topojson</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.topojson</v>
+        <f>$B13&amp;"/"&amp;$C13&amp;"/"&amp;$D13&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.kml</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
@@ -1067,6 +1092,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43753</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,8 +1113,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.topojson</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.topojson</v>
+        <f>$B14&amp;"/"&amp;$C14&amp;"/"&amp;$D14&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.kml</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
@@ -1094,6 +1122,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43753</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,8 +1143,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.topojson</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.topojson</v>
+        <f>$B15&amp;"/"&amp;$C15&amp;"/"&amp;$D15&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.kml</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
@@ -1121,6 +1152,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43753</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1139,15 +1173,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.topojson</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.topojson</v>
+        <f>$B16&amp;"/"&amp;$C16&amp;"/"&amp;$D16&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.kml</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43753</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1166,15 +1203,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.topojson</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.topojson</v>
+        <f>$B17&amp;"/"&amp;$C17&amp;"/"&amp;$D17&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.kml</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.csv</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43753</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,15 +1233,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.topojson</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.topojson</v>
+        <f>$B18&amp;"/"&amp;$C18&amp;"/"&amp;$D18&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.kml</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.csv</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43753</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1220,15 +1263,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.topojson</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.topojson</v>
+        <f>$B19&amp;"/"&amp;$C19&amp;"/"&amp;$D19&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.kml</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.csv</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43753</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,15 +1293,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.topojson</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.topojson</v>
+        <f>$B20&amp;"/"&amp;$C20&amp;"/"&amp;$D20&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.kml</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43753</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,15 +1323,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.topojson</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.topojson</v>
+        <f>$B21&amp;"/"&amp;$C21&amp;"/"&amp;$D21&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.kml</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43753</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,15 +1353,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.topojson</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.topojson</v>
+        <f>$B22&amp;"/"&amp;$C22&amp;"/"&amp;$D22&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.kml</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43753</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1328,15 +1383,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.topojson</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.topojson</v>
+        <f>$B23&amp;"/"&amp;$C23&amp;"/"&amp;$D23&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.kml</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43753</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1355,15 +1413,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.topojson</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.topojson</v>
+        <f>$B24&amp;"/"&amp;$C24&amp;"/"&amp;$D24&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.kml</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43753</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1382,15 +1443,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.topojson</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.topojson</v>
+        <f>$B25&amp;"/"&amp;$C25&amp;"/"&amp;$D25&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.kml</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43753</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1409,15 +1473,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.topojson</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.topojson</v>
+        <f>$B26&amp;"/"&amp;$C26&amp;"/"&amp;$D26&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.kml</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43753</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1436,15 +1503,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.topojson</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.topojson</v>
+        <f>$B27&amp;"/"&amp;$C27&amp;"/"&amp;$D27&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.kml</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.csv</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43753</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1463,15 +1533,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.topojson</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.topojson</v>
+        <f>$B28&amp;"/"&amp;$C28&amp;"/"&amp;$D28&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.kml</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.csv</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43753</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1490,15 +1563,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.topojson</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.topojson</v>
+        <f>$B29&amp;"/"&amp;$C29&amp;"/"&amp;$D29&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.kml</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.csv</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43753</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1517,15 +1593,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.topojson</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.topojson</v>
+        <f>$B30&amp;"/"&amp;$C30&amp;"/"&amp;$D30&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.kml</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.csv</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43753</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1544,15 +1623,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.topojson</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.topojson</v>
+        <f>$B31&amp;"/"&amp;$C31&amp;"/"&amp;$D31&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.kml</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43753</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,15 +1653,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.topojson</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.topojson</v>
+        <f>$B32&amp;"/"&amp;$C32&amp;"/"&amp;$D32&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.kml</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.csv</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43753</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1598,15 +1683,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.topojson</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.topojson</v>
+        <f>$B33&amp;"/"&amp;$C33&amp;"/"&amp;$D33&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.kml</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.csv</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43753</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1625,15 +1713,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.topojson</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.topojson</v>
+        <f>$B34&amp;"/"&amp;$C34&amp;"/"&amp;$D34&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.kml</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.csv</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43753</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1652,15 +1743,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.topojson</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.topojson</v>
+        <f>$B35&amp;"/"&amp;$C35&amp;"/"&amp;$D35&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.kml</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.csv</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43753</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1679,15 +1773,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.topojson</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.topojson</v>
+        <f>$B36&amp;"/"&amp;$C36&amp;"/"&amp;$D36&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.kml</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.csv</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43753</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1706,15 +1803,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.topojson</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.topojson</v>
+        <f>$B37&amp;"/"&amp;$C37&amp;"/"&amp;$D37&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.kml</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.csv</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43753</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1733,15 +1833,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.topojson</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.topojson</v>
+        <f>$B38&amp;"/"&amp;$C38&amp;"/"&amp;$D38&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.kml</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.csv</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>43753</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1760,15 +1863,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.topojson</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.topojson</v>
+        <f>$B39&amp;"/"&amp;$C39&amp;"/"&amp;$D39&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.kml</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.csv</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>43753</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1787,15 +1893,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.topojson</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.topojson</v>
+        <f>$B40&amp;"/"&amp;$C40&amp;"/"&amp;$D40&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.kml</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.csv</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43753</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1814,15 +1923,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.topojson</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.topojson</v>
+        <f>$B41&amp;"/"&amp;$C41&amp;"/"&amp;$D41&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.kml</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43753</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1841,15 +1953,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.topojson</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.topojson</v>
+        <f>$B42&amp;"/"&amp;$C42&amp;"/"&amp;$D42&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.kml</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43753</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1868,15 +1983,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.topojson</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.topojson</v>
+        <f>$B43&amp;"/"&amp;$C43&amp;"/"&amp;$D43&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.kml</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43753</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1895,15 +2013,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.topojson</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.topojson</v>
+        <f>$B44&amp;"/"&amp;$C44&amp;"/"&amp;$D44&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.kml</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43753</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
@@ -1922,15 +2043,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.topojson</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.topojson</v>
+        <f>$B45&amp;"/"&amp;$C45&amp;"/"&amp;$D45&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.kml</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.csv</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43753</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>13</v>
       </c>
@@ -1949,15 +2073,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.topojson</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.topojson</v>
+        <f>$B46&amp;"/"&amp;$C46&amp;"/"&amp;$D46&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.kml</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.csv</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43753</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
@@ -1976,15 +2103,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.topojson</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.topojson</v>
+        <f>$B47&amp;"/"&amp;$C47&amp;"/"&amp;$D47&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.kml</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.csv</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43753</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
@@ -2003,15 +2133,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.topojson</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.topojson</v>
+        <f>$B48&amp;"/"&amp;$C48&amp;"/"&amp;$D48&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.kml</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.csv</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43753</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>13</v>
       </c>
@@ -2030,15 +2163,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.topojson</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.topojson</v>
+        <f>$B49&amp;"/"&amp;$C49&amp;"/"&amp;$D49&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.kml</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.csv</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43753</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
       </c>
@@ -2057,15 +2193,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.topojson</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.topojson</v>
+        <f>$B50&amp;"/"&amp;$C50&amp;"/"&amp;$D50&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.kml</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.csv</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43753</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>13</v>
       </c>
@@ -2084,15 +2223,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.topojson</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.topojson</v>
+        <f>$B51&amp;"/"&amp;$C51&amp;"/"&amp;$D51&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.kml</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.csv</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43753</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>13</v>
       </c>
@@ -2111,15 +2253,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.topojson</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.topojson</v>
+        <f>$B52&amp;"/"&amp;$C52&amp;"/"&amp;$D52&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.kml</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.csv</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43753</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>13</v>
       </c>
@@ -2138,15 +2283,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.topojson</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.topojson</v>
+        <f>$B53&amp;"/"&amp;$C53&amp;"/"&amp;$D53&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.kml</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.csv</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43753</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>13</v>
       </c>
@@ -2165,15 +2313,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.topojson</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.topojson</v>
+        <f>$B54&amp;"/"&amp;$C54&amp;"/"&amp;$D54&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.kml</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.csv</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43753</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>13</v>
       </c>
@@ -2192,15 +2343,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.topojson</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.topojson</v>
+        <f>$B55&amp;"/"&amp;$C55&amp;"/"&amp;$D55&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.kml</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.csv</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43753</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
@@ -2219,15 +2373,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.topojson</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.topojson</v>
+        <f>$B56&amp;"/"&amp;$C56&amp;"/"&amp;$D56&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.kml</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.csv</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43753</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
       </c>
@@ -2246,15 +2403,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.topojson</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.topojson</v>
+        <f>$B57&amp;"/"&amp;$C57&amp;"/"&amp;$D57&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.kml</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.csv</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43753</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>13</v>
       </c>
@@ -2273,15 +2433,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.topojson</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.topojson</v>
+        <f>$B58&amp;"/"&amp;$C58&amp;"/"&amp;$D58&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.kml</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.csv</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43753</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>13</v>
       </c>
@@ -2300,15 +2463,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.topojson</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.topojson</v>
+        <f>$B59&amp;"/"&amp;$C59&amp;"/"&amp;$D59&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.kml</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.csv</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43753</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
@@ -2327,15 +2493,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.topojson</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.topojson</v>
+        <f>$B60&amp;"/"&amp;$C60&amp;"/"&amp;$D60&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.kml</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.csv</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43753</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
@@ -2354,15 +2523,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.topojson</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.topojson</v>
+        <f>$B61&amp;"/"&amp;$C61&amp;"/"&amp;$D61&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.kml</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.csv</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43753</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
@@ -2381,15 +2553,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.topojson</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.topojson</v>
+        <f>$B62&amp;"/"&amp;$C62&amp;"/"&amp;$D62&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.kml</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.csv</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43753</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
@@ -2408,15 +2583,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.topojson</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.topojson</v>
+        <f>$B63&amp;"/"&amp;$C63&amp;"/"&amp;$D63&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.kml</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43753</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>13</v>
       </c>
@@ -2435,15 +2613,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.topojson</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.topojson</v>
+        <f>$B64&amp;"/"&amp;$C64&amp;"/"&amp;$D64&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.kml</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>43753</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
@@ -2462,15 +2643,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.topojson</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.topojson</v>
+        <f>$B65&amp;"/"&amp;$C65&amp;"/"&amp;$D65&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.kml</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>43753</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>13</v>
       </c>
@@ -2489,15 +2673,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.topojson</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.topojson</v>
+        <f>$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.kml</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.csv</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>43753</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>13</v>
       </c>
@@ -2516,15 +2703,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.topojson</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.topojson</v>
+        <f>$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.kml</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H73" si="5">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$H$1</f>
         <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>43753</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>13</v>
       </c>
@@ -2543,15 +2733,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.topojson</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.topojson</v>
+        <f>$B68&amp;"/"&amp;$C68&amp;"/"&amp;$D68&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.kml</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="5"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.csv</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>43753</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>13</v>
       </c>
@@ -2570,15 +2763,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.topojson</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.topojson</v>
+        <f>$B69&amp;"/"&amp;$C69&amp;"/"&amp;$D69&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.kml</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="5"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.csv</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>43753</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>13</v>
       </c>
@@ -2597,15 +2793,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.topojson</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.topojson</v>
+        <f>$B70&amp;"/"&amp;$C70&amp;"/"&amp;$D70&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.kml</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="5"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.csv</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43753</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>13</v>
       </c>
@@ -2624,15 +2823,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.topojson</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.topojson</v>
+        <f>$B71&amp;"/"&amp;$C71&amp;"/"&amp;$D71&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.kml</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="5"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.csv</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>43753</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>13</v>
       </c>
@@ -2651,15 +2853,18 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.topojson</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.topojson</v>
+        <f>$B72&amp;"/"&amp;$C72&amp;"/"&amp;$D72&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.kml</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="5"/>
         <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.csv</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>43753</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>13</v>
       </c>
@@ -2678,8 +2883,8 @@
         <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.topojson</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.topojson</v>
+        <f>$B73&amp;"/"&amp;$C73&amp;"/"&amp;$D73&amp;".kml"</f>
+        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.kml</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="5"/>

--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D297E4-4FEF-40EA-AC8A-0115F9788A9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88268F-3CEB-4BAC-ACC0-C54F057BC7D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50280" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294961360" uniqueCount="100">
   <si>
     <t>Date posted</t>
   </si>
@@ -72,9 +72,6 @@
     <t>.csv</t>
   </si>
   <si>
-    <t>https://s3.amazonaws.com/itos-humanitarian</t>
-  </si>
-  <si>
     <t>BEN</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>COD_THA_Admin3</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +736,7 @@
         <v>43727</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -746,19 +746,19 @@
       </c>
       <c r="E2" t="str">
         <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$E$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.geojson</v>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.geojson</v>
       </c>
       <c r="F2" t="str">
         <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$F$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.topojson</v>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.topojson</v>
       </c>
       <c r="G2" t="str">
-        <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.kml</v>
+        <f t="shared" ref="G2:G33" si="0">$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;".kml"</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.kml</v>
       </c>
       <c r="H2" t="str">
         <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$H$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin0.csv</v>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>43727</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -775,20 +775,20 @@
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$E$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.geojson</v>
+        <f t="shared" ref="E3:E66" si="1">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$E$1</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.geojson</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:G66" si="1">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$F$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.topojson</v>
+        <f t="shared" ref="F3:F66" si="2">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$F$1</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.topojson</v>
       </c>
       <c r="G3" t="str">
-        <f>$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.kml</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="2">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$H$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin1.csv</v>
+        <f t="shared" ref="H3:H66" si="3">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$H$1</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>43727</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -805,20 +805,20 @@
         <v>7</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.geojson</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.topojson</v>
       </c>
       <c r="G4" t="str">
-        <f>$B4&amp;"/"&amp;$C4&amp;"/"&amp;$D4&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.kml</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>43728</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -835,20 +835,20 @@
         <v>8</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.geojson</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.topojson</v>
       </c>
       <c r="G5" t="str">
-        <f>$B5&amp;"/"&amp;$C5&amp;"/"&amp;$D5&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.kml</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MOZ/COD_MOZ_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,29 +856,29 @@
         <v>43753</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.geojson</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.topojson</v>
       </c>
       <c r="G6" t="str">
-        <f>$B6&amp;"/"&amp;$C6&amp;"/"&amp;$D6&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.kml</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,29 +886,29 @@
         <v>43753</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="str">
         <f>$B7&amp;"/"&amp;$C7&amp;"/"&amp;$D7&amp;$E$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.geojson</v>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.geojson</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.topojson</v>
       </c>
       <c r="G7" t="str">
-        <f>$B7&amp;"/"&amp;$C7&amp;"/"&amp;$D7&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.kml</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,29 +916,29 @@
         <v>43753</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.geojson</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.topojson</v>
       </c>
       <c r="G8" t="str">
-        <f>$B8&amp;"/"&amp;$C8&amp;"/"&amp;$D8&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.kml</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BEN/COD_BEN_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,29 +946,29 @@
         <v>43753</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.geojson</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.topojson</v>
       </c>
       <c r="G9" t="str">
-        <f>$B9&amp;"/"&amp;$C9&amp;"/"&amp;$D9&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.kml</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,29 +976,29 @@
         <v>43753</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.geojson</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.topojson</v>
       </c>
       <c r="G10" t="str">
-        <f>$B10&amp;"/"&amp;$C10&amp;"/"&amp;$D10&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.kml</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,29 +1006,29 @@
         <v>43753</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.geojson</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.topojson</v>
       </c>
       <c r="G11" t="str">
-        <f>$B11&amp;"/"&amp;$C11&amp;"/"&amp;$D11&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.kml</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,29 +1036,29 @@
         <v>43753</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.geojson</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.topojson</v>
       </c>
       <c r="G12" t="str">
-        <f>$B12&amp;"/"&amp;$C12&amp;"/"&amp;$D12&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.kml</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/BOL/COD_BOL_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,29 +1066,29 @@
         <v>43753</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.geojson</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.topojson</v>
       </c>
       <c r="G13" t="str">
-        <f>$B13&amp;"/"&amp;$C13&amp;"/"&amp;$D13&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.kml</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,29 +1096,29 @@
         <v>43753</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.geojson</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.topojson</v>
       </c>
       <c r="G14" t="str">
-        <f>$B14&amp;"/"&amp;$C14&amp;"/"&amp;$D14&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.kml</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,29 +1126,29 @@
         <v>43753</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.geojson</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.topojson</v>
       </c>
       <c r="G15" t="str">
-        <f>$B15&amp;"/"&amp;$C15&amp;"/"&amp;$D15&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.kml</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,29 +1156,29 @@
         <v>43753</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.geojson</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.topojson</v>
       </c>
       <c r="G16" t="str">
-        <f>$B16&amp;"/"&amp;$C16&amp;"/"&amp;$D16&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.kml</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/CMR/COD_CMR_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,29 +1186,29 @@
         <v>43753</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.geojson</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.topojson</v>
       </c>
       <c r="G17" t="str">
-        <f>$B17&amp;"/"&amp;$C17&amp;"/"&amp;$D17&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.kml</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.csv</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1216,29 +1216,29 @@
         <v>43753</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.geojson</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.topojson</v>
       </c>
       <c r="G18" t="str">
-        <f>$B18&amp;"/"&amp;$C18&amp;"/"&amp;$D18&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.kml</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.csv</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,29 +1246,29 @@
         <v>43753</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.geojson</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.topojson</v>
       </c>
       <c r="G19" t="str">
-        <f>$B19&amp;"/"&amp;$C19&amp;"/"&amp;$D19&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.kml</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COD/COD_COD_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.csv</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1276,29 +1276,29 @@
         <v>43753</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.geojson</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.topojson</v>
       </c>
       <c r="G20" t="str">
-        <f>$B20&amp;"/"&amp;$C20&amp;"/"&amp;$D20&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.kml</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1306,29 +1306,29 @@
         <v>43753</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.geojson</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.topojson</v>
       </c>
       <c r="G21" t="str">
-        <f>$B21&amp;"/"&amp;$C21&amp;"/"&amp;$D21&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.kml</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,29 +1336,29 @@
         <v>43753</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.geojson</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.topojson</v>
       </c>
       <c r="G22" t="str">
-        <f>$B22&amp;"/"&amp;$C22&amp;"/"&amp;$D22&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.kml</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/COG/COD_COG_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,29 +1366,29 @@
         <v>43753</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.geojson</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.topojson</v>
       </c>
       <c r="G23" t="str">
-        <f>$B23&amp;"/"&amp;$C23&amp;"/"&amp;$D23&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.kml</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,29 +1396,29 @@
         <v>43753</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.geojson</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.topojson</v>
       </c>
       <c r="G24" t="str">
-        <f>$B24&amp;"/"&amp;$C24&amp;"/"&amp;$D24&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.kml</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1426,29 +1426,29 @@
         <v>43753</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.geojson</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.topojson</v>
       </c>
       <c r="G25" t="str">
-        <f>$B25&amp;"/"&amp;$C25&amp;"/"&amp;$D25&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.kml</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,29 +1456,29 @@
         <v>43753</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.geojson</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.topojson</v>
       </c>
       <c r="G26" t="str">
-        <f>$B26&amp;"/"&amp;$C26&amp;"/"&amp;$D26&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.kml</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ECU/COD_ECU_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,29 +1486,29 @@
         <v>43753</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin0.geojson</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin0.topojson</v>
       </c>
       <c r="G27" t="str">
-        <f>$B27&amp;"/"&amp;$C27&amp;"/"&amp;$D27&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin0.kml</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin0.csv</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,29 +1516,29 @@
         <v>43753</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin1.geojson</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin1.topojson</v>
       </c>
       <c r="G28" t="str">
-        <f>$B28&amp;"/"&amp;$C28&amp;"/"&amp;$D28&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin1.kml</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin1.csv</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1546,29 +1546,29 @@
         <v>43753</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.geojson</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.topojson</v>
       </c>
       <c r="G29" t="str">
-        <f>$B29&amp;"/"&amp;$C29&amp;"/"&amp;$D29&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.kml</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.csv</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,29 +1576,29 @@
         <v>43753</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.geojson</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.topojson</v>
       </c>
       <c r="G30" t="str">
-        <f>$B30&amp;"/"&amp;$C30&amp;"/"&amp;$D30&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.kml</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/ETH/COD_ETH_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.csv</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1606,29 +1606,29 @@
         <v>43753</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.geojson</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.topojson</v>
       </c>
       <c r="G31" t="str">
-        <f>$B31&amp;"/"&amp;$C31&amp;"/"&amp;$D31&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.kml</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,29 +1636,29 @@
         <v>43753</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.geojson</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.topojson</v>
       </c>
       <c r="G32" t="str">
-        <f>$B32&amp;"/"&amp;$C32&amp;"/"&amp;$D32&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.kml</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.csv</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1666,29 +1666,29 @@
         <v>43753</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.geojson</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.topojson</v>
       </c>
       <c r="G33" t="str">
-        <f>$B33&amp;"/"&amp;$C33&amp;"/"&amp;$D33&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.kml</v>
+        <f t="shared" si="0"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.kml</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/GTM/COD_GTM_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.csv</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1696,29 +1696,29 @@
         <v>43753</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.geojson</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.topojson</v>
       </c>
       <c r="G34" t="str">
-        <f>$B34&amp;"/"&amp;$C34&amp;"/"&amp;$D34&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.kml</v>
+        <f t="shared" ref="G34:G65" si="4">$B34&amp;"/"&amp;$C34&amp;"/"&amp;$D34&amp;".kml"</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.kml</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.csv</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1726,29 +1726,29 @@
         <v>43753</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.geojson</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.topojson</v>
       </c>
       <c r="G35" t="str">
-        <f>$B35&amp;"/"&amp;$C35&amp;"/"&amp;$D35&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.kml</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.csv</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,29 +1756,29 @@
         <v>43753</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.geojson</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.topojson</v>
       </c>
       <c r="G36" t="str">
-        <f>$B36&amp;"/"&amp;$C36&amp;"/"&amp;$D36&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.kml</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRN/COD_IRN_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.csv</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1786,29 +1786,29 @@
         <v>43753</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.geojson</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.topojson</v>
       </c>
       <c r="G37" t="str">
-        <f>$B37&amp;"/"&amp;$C37&amp;"/"&amp;$D37&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.kml</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.csv</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1816,29 +1816,29 @@
         <v>43753</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.geojson</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.topojson</v>
       </c>
       <c r="G38" t="str">
-        <f>$B38&amp;"/"&amp;$C38&amp;"/"&amp;$D38&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.kml</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.csv</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1846,29 +1846,29 @@
         <v>43753</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.geojson</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.topojson</v>
       </c>
       <c r="G39" t="str">
-        <f>$B39&amp;"/"&amp;$C39&amp;"/"&amp;$D39&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.kml</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.csv</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1876,29 +1876,29 @@
         <v>43753</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.geojson</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.topojson</v>
       </c>
       <c r="G40" t="str">
-        <f>$B40&amp;"/"&amp;$C40&amp;"/"&amp;$D40&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.kml</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/IRQ/COD_IRQ_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.csv</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1906,29 +1906,29 @@
         <v>43753</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.geojson</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.topojson</v>
       </c>
       <c r="G41" t="str">
-        <f>$B41&amp;"/"&amp;$C41&amp;"/"&amp;$D41&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.kml</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1936,29 +1936,29 @@
         <v>43753</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.geojson</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.topojson</v>
       </c>
       <c r="G42" t="str">
-        <f>$B42&amp;"/"&amp;$C42&amp;"/"&amp;$D42&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.kml</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,29 +1966,29 @@
         <v>43753</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.geojson</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.topojson</v>
       </c>
       <c r="G43" t="str">
-        <f>$B43&amp;"/"&amp;$C43&amp;"/"&amp;$D43&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.kml</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1996,29 +1996,29 @@
         <v>43753</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.geojson</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.topojson</v>
       </c>
       <c r="G44" t="str">
-        <f>$B44&amp;"/"&amp;$C44&amp;"/"&amp;$D44&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.kml</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/LKA/COD_LKA_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2026,29 +2026,29 @@
         <v>43753</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.geojson</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.topojson</v>
       </c>
       <c r="G45" t="str">
-        <f>$B45&amp;"/"&amp;$C45&amp;"/"&amp;$D45&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.kml</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.csv</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2056,29 +2056,29 @@
         <v>43753</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.geojson</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.topojson</v>
       </c>
       <c r="G46" t="str">
-        <f>$B46&amp;"/"&amp;$C46&amp;"/"&amp;$D46&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.kml</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.csv</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2086,29 +2086,29 @@
         <v>43753</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.geojson</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.topojson</v>
       </c>
       <c r="G47" t="str">
-        <f>$B47&amp;"/"&amp;$C47&amp;"/"&amp;$D47&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.kml</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.csv</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,29 +2116,29 @@
         <v>43753</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin3.geojson</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin3.topojson</v>
       </c>
       <c r="G48" t="str">
-        <f>$B48&amp;"/"&amp;$C48&amp;"/"&amp;$D48&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin3.kml</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/MLI/COD_MLI_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin3.csv</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,29 +2146,29 @@
         <v>43753</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin0.geojson</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin0.topojson</v>
       </c>
       <c r="G49" t="str">
-        <f>$B49&amp;"/"&amp;$C49&amp;"/"&amp;$D49&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin0.kml</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin0.csv</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2176,29 +2176,29 @@
         <v>43753</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin1.geojson</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin1.topojson</v>
       </c>
       <c r="G50" t="str">
-        <f>$B50&amp;"/"&amp;$C50&amp;"/"&amp;$D50&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin1.kml</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin1.csv</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2206,29 +2206,29 @@
         <v>43753</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin2.geojson</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin2.topojson</v>
       </c>
       <c r="G51" t="str">
-        <f>$B51&amp;"/"&amp;$C51&amp;"/"&amp;$D51&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin2.kml</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin2.csv</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,29 +2236,29 @@
         <v>43753</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin3.geojson</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin3.topojson</v>
       </c>
       <c r="G52" t="str">
-        <f>$B52&amp;"/"&amp;$C52&amp;"/"&amp;$D52&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin3.kml</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NGA/COD_NGA_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin3.csv</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2266,29 +2266,29 @@
         <v>43753</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin0.geojson</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin0.topojson</v>
       </c>
       <c r="G53" t="str">
-        <f>$B53&amp;"/"&amp;$C53&amp;"/"&amp;$D53&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin0.kml</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin0.csv</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2296,29 +2296,29 @@
         <v>43753</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin1.geojson</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin1.topojson</v>
       </c>
       <c r="G54" t="str">
-        <f>$B54&amp;"/"&amp;$C54&amp;"/"&amp;$D54&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin1.kml</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin1.csv</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,29 +2326,29 @@
         <v>43753</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin2.geojson</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin2.topojson</v>
       </c>
       <c r="G55" t="str">
-        <f>$B55&amp;"/"&amp;$C55&amp;"/"&amp;$D55&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin2.kml</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/NPL/COD_NPL_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin2.csv</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2356,29 +2356,29 @@
         <v>43753</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin0.geojson</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin0.topojson</v>
       </c>
       <c r="G56" t="str">
-        <f>$B56&amp;"/"&amp;$C56&amp;"/"&amp;$D56&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin0.kml</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin0.csv</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2386,29 +2386,29 @@
         <v>43753</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin1.geojson</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin1.topojson</v>
       </c>
       <c r="G57" t="str">
-        <f>$B57&amp;"/"&amp;$C57&amp;"/"&amp;$D57&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin1.kml</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin1.csv</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2416,29 +2416,29 @@
         <v>43753</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin2.geojson</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin2.topojson</v>
       </c>
       <c r="G58" t="str">
-        <f>$B58&amp;"/"&amp;$C58&amp;"/"&amp;$D58&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin2.kml</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin2.csv</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2446,29 +2446,29 @@
         <v>43753</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin3.geojson</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin3.topojson</v>
       </c>
       <c r="G59" t="str">
-        <f>$B59&amp;"/"&amp;$C59&amp;"/"&amp;$D59&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin3.kml</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PNG/COD_PNG_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin3.csv</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,29 +2476,29 @@
         <v>43753</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin0.geojson</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin0.topojson</v>
       </c>
       <c r="G60" t="str">
-        <f>$B60&amp;"/"&amp;$C60&amp;"/"&amp;$D60&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin0.kml</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin0.csv</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2506,29 +2506,29 @@
         <v>43753</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin1.geojson</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin1.topojson</v>
       </c>
       <c r="G61" t="str">
-        <f>$B61&amp;"/"&amp;$C61&amp;"/"&amp;$D61&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin1.kml</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin1.csv</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2536,29 +2536,29 @@
         <v>43753</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin2.geojson</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin2.topojson</v>
       </c>
       <c r="G62" t="str">
-        <f>$B62&amp;"/"&amp;$C62&amp;"/"&amp;$D62&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin2.kml</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/PRK/COD_PRK_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin2.csv</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,29 +2566,29 @@
         <v>43753</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin0.geojson</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin0.topojson</v>
       </c>
       <c r="G63" t="str">
-        <f>$B63&amp;"/"&amp;$C63&amp;"/"&amp;$D63&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin0.kml</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin0.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin0.csv</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2596,29 +2596,29 @@
         <v>43753</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.geojson</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.topojson</v>
       </c>
       <c r="G64" t="str">
-        <f>$B64&amp;"/"&amp;$C64&amp;"/"&amp;$D64&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.kml</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin1.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.csv</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2626,29 +2626,29 @@
         <v>43753</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.geojson</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.topojson</v>
       </c>
       <c r="G65" t="str">
-        <f>$B65&amp;"/"&amp;$C65&amp;"/"&amp;$D65&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.kml</v>
+        <f t="shared" si="4"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.kml</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin2.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.csv</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2656,29 +2656,29 @@
         <v>43753</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.geojson</v>
+        <f t="shared" si="1"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.geojson</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="1"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.topojson</v>
+        <f t="shared" si="2"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.topojson</v>
       </c>
       <c r="G66" t="str">
-        <f>$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.kml</v>
+        <f t="shared" ref="G66:G73" si="5">$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.kml</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="2"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/SEN/COD_SEN_Admin3.csv</v>
+        <f t="shared" si="3"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.csv</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,29 +2686,29 @@
         <v>43753</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E73" si="3">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.geojson</v>
+        <f t="shared" ref="E67:E73" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.geojson</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:G73" si="4">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$F$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.topojson</v>
+        <f t="shared" ref="F67:F73" si="7">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$F$1</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.topojson</v>
       </c>
       <c r="G67" t="str">
-        <f>$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.kml</v>
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.kml</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H73" si="5">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$H$1</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin0.csv</v>
+        <f t="shared" ref="H67:H73" si="8">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$H$1</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2716,29 +2716,29 @@
         <v>43753</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="3"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.geojson</v>
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.geojson</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.topojson</v>
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.topojson</v>
       </c>
       <c r="G68" t="str">
-        <f>$B68&amp;"/"&amp;$C68&amp;"/"&amp;$D68&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.kml</v>
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.kml</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="5"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin1.csv</v>
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.csv</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2746,29 +2746,29 @@
         <v>43753</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="3"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.geojson</v>
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.geojson</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.topojson</v>
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.topojson</v>
       </c>
       <c r="G69" t="str">
-        <f>$B69&amp;"/"&amp;$C69&amp;"/"&amp;$D69&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.kml</v>
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.kml</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="5"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/TGO/COD_TGO_Admin2.csv</v>
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.csv</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2776,29 +2776,29 @@
         <v>43753</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="3"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.geojson</v>
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.geojson</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.topojson</v>
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.topojson</v>
       </c>
       <c r="G70" t="str">
-        <f>$B70&amp;"/"&amp;$C70&amp;"/"&amp;$D70&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.kml</v>
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.kml</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="5"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin0.csv</v>
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.csv</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2806,29 +2806,29 @@
         <v>43753</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="3"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.geojson</v>
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.geojson</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.topojson</v>
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.topojson</v>
       </c>
       <c r="G71" t="str">
-        <f>$B71&amp;"/"&amp;$C71&amp;"/"&amp;$D71&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.kml</v>
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.kml</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="5"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin1.csv</v>
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.csv</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,29 +2836,29 @@
         <v>43753</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="3"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.geojson</v>
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.geojson</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.topojson</v>
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.topojson</v>
       </c>
       <c r="G72" t="str">
-        <f>$B72&amp;"/"&amp;$C72&amp;"/"&amp;$D72&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.kml</v>
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.kml</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="5"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin2.csv</v>
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.csv</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2866,42 +2866,37 @@
         <v>43753</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="3"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.geojson</v>
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.geojson</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="4"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.topojson</v>
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.topojson</v>
       </c>
       <c r="G73" t="str">
-        <f>$B73&amp;"/"&amp;$C73&amp;"/"&amp;$D73&amp;".kml"</f>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.kml</v>
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.kml</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="5"/>
-        <v>https://s3.amazonaws.com/itos-humanitarian/THA/COD_THA_Admin3.csv</v>
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.csv</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5AA76886-496D-4DB0-ACC6-16612C9EB1F6}"/>
-    <hyperlink ref="B3:B5" r:id="rId2" display="https://s3.amazonaws.com/itos-humanitarian/" xr:uid="{F628FEA7-01B4-42C2-8EDA-8C4226DFBCDD}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{296414C8-D5E8-4393-A6FE-7F81211AFD64}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{5981A8C7-3724-48B5-90EB-8D6D48241C6B}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{5BB18EBD-E2D7-409F-B6DC-F069A7718656}"/>
-    <hyperlink ref="B6:B72" r:id="rId6" display="https://s3.amazonaws.com/itos-humanitarian/" xr:uid="{C509935A-0073-42C4-A195-973ECC5CEABD}"/>
-    <hyperlink ref="B73" r:id="rId7" display="https://s3.amazonaws.com/itos-humanitarian/" xr:uid="{5EE65176-E7F0-4AE8-9E45-EA47078E7289}"/>
+    <hyperlink ref="B3:B73" r:id="rId2" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{9F1A1F50-E7F1-4EA0-BF42-D8BD04E5E494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88268F-3CEB-4BAC-ACC0-C54F057BC7D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E031EF24-502E-4FFD-A43C-B42E7D474487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294961360" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
   <si>
     <t>Date posted</t>
   </si>
@@ -331,6 +331,42 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com</t>
+  </si>
+  <si>
+    <t>COD_GEO_Admin0</t>
+  </si>
+  <si>
+    <t>COD_GEO_Admin1</t>
+  </si>
+  <si>
+    <t>COD_GEO_Admin2</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>COD_LAO_Admin0</t>
+  </si>
+  <si>
+    <t>COD_LAO_Admin1</t>
+  </si>
+  <si>
+    <t>COD_LAO_Admin2</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>COD_LBR_Admin0</t>
+  </si>
+  <si>
+    <t>COD_LBR_Admin1</t>
+  </si>
+  <si>
+    <t>COD_LBR_Admin2</t>
   </si>
 </sst>
 </file>
@@ -688,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,7 +2709,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.topojson</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G73" si="5">$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
+        <f t="shared" ref="G66:G82" si="5">$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.kml</v>
       </c>
       <c r="H66" t="str">
@@ -2683,7 +2719,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43753</v>
+        <v>43805</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>99</v>
@@ -2695,11 +2731,11 @@
         <v>92</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E73" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
+        <f t="shared" ref="E67:E82" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.geojson</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F73" si="7">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$F$1</f>
+        <f t="shared" ref="F67:F82" si="7">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$F$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.topojson</v>
       </c>
       <c r="G67" t="str">
@@ -2707,13 +2743,13 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.kml</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H73" si="8">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$H$1</f>
+        <f t="shared" ref="H67:H82" si="8">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$H$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43753</v>
+        <v>43805</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>99</v>
@@ -2743,7 +2779,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43753</v>
+        <v>43805</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>99</v>
@@ -2773,7 +2809,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43753</v>
+        <v>43805</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>99</v>
@@ -2803,7 +2839,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43753</v>
+        <v>43805</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>99</v>
@@ -2833,7 +2869,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43753</v>
+        <v>43805</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>99</v>
@@ -2863,7 +2899,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43753</v>
+        <v>43805</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>99</v>
@@ -2889,14 +2925,263 @@
       <c r="H73" t="str">
         <f t="shared" si="8"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.geojson</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.topojson</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.kml</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.geojson</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.topojson</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.kml</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.geojson</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.topojson</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.kml</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.geojson</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.topojson</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.kml</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.geojson</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.topojson</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.kml</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.geojson</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.topojson</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.kml</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.geojson</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.topojson</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.kml</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.geojson</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.topojson</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.kml</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.geojson</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.topojson</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.kml</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="8"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.csv</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5AA76886-496D-4DB0-ACC6-16612C9EB1F6}"/>
     <hyperlink ref="B3:B73" r:id="rId2" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{9F1A1F50-E7F1-4EA0-BF42-D8BD04E5E494}"/>
+    <hyperlink ref="B74:B76" r:id="rId3" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{680CBFC4-D211-478B-9DD3-33875C3E8E07}"/>
+    <hyperlink ref="B77:B79" r:id="rId4" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{126175F8-CA85-4A5B-82A7-28344D7CB8DF}"/>
+    <hyperlink ref="B80:B82" r:id="rId5" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{BBD200AF-BDB0-4071-9DF0-4B53E7EC9AF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E031EF24-502E-4FFD-A43C-B42E7D474487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9B630-8E2F-4325-944F-B6474B44D9FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="60" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
   <si>
     <t>Date posted</t>
   </si>
@@ -724,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A82"/>
+    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2709,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.topojson</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G82" si="5">$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
+        <f t="shared" ref="G66:H86" si="5">$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.kml</v>
       </c>
       <c r="H66" t="str">
@@ -2731,11 +2731,11 @@
         <v>92</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E82" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
+        <f t="shared" ref="E67:E98" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.geojson</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F82" si="7">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$F$1</f>
+        <f t="shared" ref="F67:F86" si="7">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$F$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.topojson</v>
       </c>
       <c r="G67" t="str">
@@ -3172,6 +3172,174 @@
         <f t="shared" si="8"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.csv</v>
       </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.geojson</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.topojson</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.kml</v>
+      </c>
+      <c r="H83" t="str">
+        <f>$B83&amp;"/"&amp;$C83&amp;"/"&amp;$D83&amp;".csv"</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.geojson</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.topojson</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.kml</v>
+      </c>
+      <c r="H84" t="str">
+        <f>$B84&amp;"/"&amp;$C84&amp;"/"&amp;$D84&amp;".csv"</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.geojson</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.topojson</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.kml</v>
+      </c>
+      <c r="H85" t="str">
+        <f>$B85&amp;"/"&amp;$C85&amp;"/"&amp;$D85&amp;".csv"</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="6"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.geojson</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="7"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.topojson</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="5"/>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.kml</v>
+      </c>
+      <c r="H86" t="str">
+        <f>$B86&amp;"/"&amp;$C86&amp;"/"&amp;$D86&amp;".csv"</f>
+        <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3180,8 +3348,12 @@
     <hyperlink ref="B74:B76" r:id="rId3" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{680CBFC4-D211-478B-9DD3-33875C3E8E07}"/>
     <hyperlink ref="B77:B79" r:id="rId4" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{126175F8-CA85-4A5B-82A7-28344D7CB8DF}"/>
     <hyperlink ref="B80:B82" r:id="rId5" display="https://itos-humanitarian.s3.amazonaws.com" xr:uid="{BBD200AF-BDB0-4071-9DF0-4B53E7EC9AF4}"/>
+    <hyperlink ref="B83" r:id="rId6" xr:uid="{21D047E0-4830-4A17-9C35-2027C0A782D7}"/>
+    <hyperlink ref="B84" r:id="rId7" xr:uid="{D59D5EF5-1DB1-4D8F-834F-583D60613154}"/>
+    <hyperlink ref="B85" r:id="rId8" xr:uid="{37B62042-A5CF-4557-B060-523DCB4197A1}"/>
+    <hyperlink ref="B86" r:id="rId9" xr:uid="{E47AA050-0EED-4FD9-A781-FAC39635A3D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9B630-8E2F-4325-944F-B6474B44D9FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117F3ABE-35FD-41A0-8810-7C7EB817EEE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="60" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="128">
   <si>
     <t>Date posted</t>
   </si>
@@ -367,6 +367,54 @@
   </si>
   <si>
     <t>COD_LBR_Admin2</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.geojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.topojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.kml</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.geojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.topojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.kml</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.geojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.topojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.kml</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.kml</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.geojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.topojson</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</t>
   </si>
 </sst>
 </file>
@@ -411,10 +459,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2763,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.topojson</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:H86" si="5">$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
+        <f t="shared" ref="G66:G86" si="5">$B66&amp;"/"&amp;$C66&amp;"/"&amp;$D66&amp;".kml"</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.kml</v>
       </c>
       <c r="H66" t="str">
@@ -2731,7 +2785,7 @@
         <v>92</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E98" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
+        <f t="shared" ref="E67:E86" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.geojson</v>
       </c>
       <c r="F67" t="str">
@@ -3294,24 +3348,114 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
+      <c r="A90" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
@@ -3352,8 +3496,24 @@
     <hyperlink ref="B84" r:id="rId7" xr:uid="{D59D5EF5-1DB1-4D8F-834F-583D60613154}"/>
     <hyperlink ref="B85" r:id="rId8" xr:uid="{37B62042-A5CF-4557-B060-523DCB4197A1}"/>
     <hyperlink ref="B86" r:id="rId9" xr:uid="{E47AA050-0EED-4FD9-A781-FAC39635A3D3}"/>
+    <hyperlink ref="E87" r:id="rId10" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.geojson" xr:uid="{310BEB6F-3636-4AA8-B626-7B772A90BE20}"/>
+    <hyperlink ref="F87" r:id="rId11" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.topojson" xr:uid="{AB041C73-41AA-425F-AD92-177F6DB38170}"/>
+    <hyperlink ref="G87" r:id="rId12" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.kml" xr:uid="{76C730E8-840C-4A6A-9AC2-D90278B62265}"/>
+    <hyperlink ref="H87" r:id="rId13" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv" xr:uid="{260F23CB-0292-4D16-BD7A-3324DFF35DDD}"/>
+    <hyperlink ref="E88" r:id="rId14" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.geojson" xr:uid="{96E49D99-A7C9-4B84-80F7-4AE19A5C061B}"/>
+    <hyperlink ref="F88" r:id="rId15" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.topojson" xr:uid="{EFD450B4-4FDB-4F2B-B226-77220AEED683}"/>
+    <hyperlink ref="G88" r:id="rId16" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.kml" xr:uid="{4A4C4CED-2240-4CC7-B6FD-96C3DFEBDD55}"/>
+    <hyperlink ref="H88" r:id="rId17" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv" xr:uid="{5F568AAF-878C-4D11-AC06-9D579309286D}"/>
+    <hyperlink ref="E89" r:id="rId18" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.geojson" xr:uid="{3EDAE9D2-CB85-4B9A-AD1C-8C195DA00FA3}"/>
+    <hyperlink ref="F89" r:id="rId19" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.topojson" xr:uid="{E19336B7-2666-4B91-AD4F-9433D016590D}"/>
+    <hyperlink ref="G89" r:id="rId20" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.kml" xr:uid="{BA22687D-2B9A-4F9F-BCD2-0C96BB81CCEE}"/>
+    <hyperlink ref="G90" r:id="rId21" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.kml" xr:uid="{E70CDC57-9148-46F8-B0FD-E9977F51CE83}"/>
+    <hyperlink ref="H89" r:id="rId22" xr:uid="{6E671B0C-6484-47FA-9CD0-DC136B822D9A}"/>
+    <hyperlink ref="H90" r:id="rId23" xr:uid="{77882D5D-4C83-4492-9FA4-BE2629EB5769}"/>
+    <hyperlink ref="E90" r:id="rId24" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.geojson" xr:uid="{5E0CCCC5-A13F-448D-814E-CF4CF81A73F0}"/>
+    <hyperlink ref="F90" r:id="rId25" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.topojson" xr:uid="{A484E4CD-F1DF-4C35-B7B4-96CE8BBDCAF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117F3ABE-35FD-41A0-8810-7C7EB817EEE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17089BF-F59E-4F69-A847-27452CC67C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
   <si>
     <t>Date posted</t>
   </si>
@@ -415,6 +418,36 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_BFA/Admin3/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_BFA/Admin2/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_BFA/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>VectorTile (MVT uncompressed/unsimplified Directory - replace metadata.json with {z}/{x}/{y}.pbf for file pattern in apps)</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>COD_BFA_Admin1</t>
+  </si>
+  <si>
+    <t>COD_BFA_Admin2</t>
+  </si>
+  <si>
+    <t>COD_BFA_Admin3</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin0/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin1/metadata.json</t>
   </si>
 </sst>
 </file>
@@ -778,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,9 +826,10 @@
     <col min="6" max="6" width="75.28515625" customWidth="1"/>
     <col min="7" max="7" width="91.5703125" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
+    <col min="9" max="9" width="115.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,8 +854,11 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43727</v>
       </c>
@@ -851,7 +888,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43727</v>
       </c>
@@ -881,7 +918,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43727</v>
       </c>
@@ -911,7 +948,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43728</v>
       </c>
@@ -941,7 +978,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43753</v>
       </c>
@@ -971,7 +1008,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43753</v>
       </c>
@@ -1001,7 +1038,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43753</v>
       </c>
@@ -1031,7 +1068,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43753</v>
       </c>
@@ -1061,7 +1098,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43753</v>
       </c>
@@ -1091,7 +1128,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43753</v>
       </c>
@@ -1121,7 +1158,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43753</v>
       </c>
@@ -1151,7 +1188,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43753</v>
       </c>
@@ -1181,7 +1218,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43753</v>
       </c>
@@ -1211,7 +1248,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43753</v>
       </c>
@@ -1241,7 +1278,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43753</v>
       </c>
@@ -1271,7 +1308,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43753</v>
       </c>
@@ -1301,7 +1338,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43753</v>
       </c>
@@ -1331,7 +1368,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43753</v>
       </c>
@@ -1361,7 +1398,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43753</v>
       </c>
@@ -1391,7 +1428,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43753</v>
       </c>
@@ -1421,7 +1458,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43753</v>
       </c>
@@ -1451,7 +1488,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43753</v>
       </c>
@@ -1481,7 +1518,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43753</v>
       </c>
@@ -1511,7 +1548,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43753</v>
       </c>
@@ -1541,7 +1578,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43753</v>
       </c>
@@ -1571,7 +1608,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43753</v>
       </c>
@@ -1600,8 +1637,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin0.csv</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43753</v>
       </c>
@@ -1630,8 +1670,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin1.csv</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
@@ -1661,7 +1704,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43753</v>
       </c>
@@ -1691,7 +1734,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.csv</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43753</v>
       </c>
@@ -1721,7 +1764,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43753</v>
       </c>
@@ -3167,7 +3210,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.csv</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43805</v>
       </c>
@@ -3197,7 +3240,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.csv</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43805</v>
       </c>
@@ -3227,7 +3270,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.csv</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43901</v>
       </c>
@@ -3257,7 +3300,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43901</v>
       </c>
@@ -3287,7 +3330,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43901</v>
       </c>
@@ -3317,7 +3360,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43901</v>
       </c>
@@ -3347,7 +3390,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43980</v>
       </c>
@@ -3373,7 +3416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43980</v>
       </c>
@@ -3399,7 +3442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43980</v>
       </c>
@@ -3425,7 +3468,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43980</v>
       </c>
@@ -3451,29 +3494,68 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" t="s">
+        <v>133</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" t="s">
+        <v>134</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
     </row>
@@ -3512,8 +3594,14 @@
     <hyperlink ref="H90" r:id="rId23" xr:uid="{77882D5D-4C83-4492-9FA4-BE2629EB5769}"/>
     <hyperlink ref="E90" r:id="rId24" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.geojson" xr:uid="{5E0CCCC5-A13F-448D-814E-CF4CF81A73F0}"/>
     <hyperlink ref="F90" r:id="rId25" display="https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.topojson" xr:uid="{A484E4CD-F1DF-4C35-B7B4-96CE8BBDCAF2}"/>
+    <hyperlink ref="I93" r:id="rId26" xr:uid="{B6B3A7DD-D45B-415C-8E9A-138C63B9807F}"/>
+    <hyperlink ref="I92" r:id="rId27" xr:uid="{B43A61E5-3F48-4F5A-B7B7-F6B35B451CF2}"/>
+    <hyperlink ref="I91" r:id="rId28" xr:uid="{AF2ECE96-B3B4-45F9-A902-3465DD0069D9}"/>
+    <hyperlink ref="B90" r:id="rId29" xr:uid="{4A7BC4CD-D50D-4F04-86D3-AC690806B8AF}"/>
+    <hyperlink ref="I27" r:id="rId30" xr:uid="{4627520F-D5D5-4BE6-A0FF-807A2CD79B7E}"/>
+    <hyperlink ref="I28" r:id="rId31" xr:uid="{1E751616-1FB6-4543-985F-690628E80023}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso\Documents\GitHub\mapservicedoc\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17089BF-F59E-4F69-A847-27452CC67C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCDE07C-1F12-4A2D-A0AC-B7D22C3637B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4370" yWindow="1390" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
   <si>
     <t>Date posted</t>
   </si>
@@ -448,6 +449,12 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin2/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NGA/Admin0/metadata.json</t>
   </si>
 </sst>
 </file>
@@ -813,23 +820,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" customWidth="1"/>
-    <col min="6" max="6" width="75.28515625" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="5" max="5" width="73.453125" customWidth="1"/>
+    <col min="6" max="6" width="75.26953125" customWidth="1"/>
+    <col min="7" max="7" width="91.54296875" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
-    <col min="9" max="9" width="115.85546875" customWidth="1"/>
+    <col min="9" max="9" width="115.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +865,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43727</v>
       </c>
@@ -888,7 +895,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43727</v>
       </c>
@@ -918,7 +925,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43727</v>
       </c>
@@ -948,7 +955,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43728</v>
       </c>
@@ -978,7 +985,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43753</v>
       </c>
@@ -1008,7 +1015,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43753</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43753</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43753</v>
       </c>
@@ -1098,7 +1105,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43753</v>
       </c>
@@ -1128,7 +1135,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43753</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43753</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43753</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43753</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43753</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43753</v>
       </c>
@@ -1308,7 +1315,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43753</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43753</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43753</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43753</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43753</v>
       </c>
@@ -1458,7 +1465,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43753</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43753</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43753</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43753</v>
       </c>
@@ -1578,7 +1585,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43753</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43753</v>
       </c>
@@ -1641,7 +1648,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43753</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
@@ -1703,8 +1710,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.csv</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43753</v>
       </c>
@@ -1734,7 +1744,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.csv</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43753</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43753</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43753</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43753</v>
       </c>
@@ -1854,7 +1864,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43753</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43753</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43753</v>
       </c>
@@ -1944,7 +1954,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.csv</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43753</v>
       </c>
@@ -1974,7 +1984,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.csv</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43753</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.csv</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43753</v>
       </c>
@@ -2034,7 +2044,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.csv</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43753</v>
       </c>
@@ -2064,7 +2074,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43753</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43753</v>
       </c>
@@ -2124,7 +2134,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43753</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43753</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.csv</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43753</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.csv</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43753</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43753</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin3.csv</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43753</v>
       </c>
@@ -2303,8 +2313,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin0.csv</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43753</v>
       </c>
@@ -2334,7 +2347,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin1.csv</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43753</v>
       </c>
@@ -2364,7 +2377,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin2.csv</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43753</v>
       </c>
@@ -2394,7 +2407,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin3.csv</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43753</v>
       </c>
@@ -2424,7 +2437,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin0.csv</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43753</v>
       </c>
@@ -2454,7 +2467,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin1.csv</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43753</v>
       </c>
@@ -2484,7 +2497,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin2.csv</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43753</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin0.csv</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43753</v>
       </c>
@@ -2544,7 +2557,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin1.csv</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43753</v>
       </c>
@@ -2574,7 +2587,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin2.csv</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43753</v>
       </c>
@@ -2604,7 +2617,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin3.csv</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43753</v>
       </c>
@@ -2634,7 +2647,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin0.csv</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43753</v>
       </c>
@@ -2664,7 +2677,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin1.csv</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43753</v>
       </c>
@@ -2694,7 +2707,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin2.csv</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43753</v>
       </c>
@@ -2724,7 +2737,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>43753</v>
       </c>
@@ -2754,7 +2767,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43753</v>
       </c>
@@ -2784,7 +2797,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43753</v>
       </c>
@@ -2814,7 +2827,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.csv</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43805</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43805</v>
       </c>
@@ -2874,7 +2887,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.csv</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43805</v>
       </c>
@@ -2904,7 +2917,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.csv</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43805</v>
       </c>
@@ -2934,7 +2947,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.csv</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>43805</v>
       </c>
@@ -2964,7 +2977,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.csv</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43805</v>
       </c>
@@ -2994,7 +3007,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.csv</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43805</v>
       </c>
@@ -3024,7 +3037,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.csv</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43805</v>
       </c>
@@ -3050,7 +3063,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.kml</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43805</v>
       </c>
@@ -3076,7 +3089,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.kml</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43805</v>
       </c>
@@ -3102,7 +3115,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.kml</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43805</v>
       </c>
@@ -3128,7 +3141,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.kml</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43805</v>
       </c>
@@ -3154,7 +3167,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.kml</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43805</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.kml</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43805</v>
       </c>
@@ -3210,7 +3223,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.csv</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43805</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.csv</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43805</v>
       </c>
@@ -3270,7 +3283,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.csv</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43901</v>
       </c>
@@ -3300,7 +3313,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43901</v>
       </c>
@@ -3330,7 +3343,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43901</v>
       </c>
@@ -3360,7 +3373,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43901</v>
       </c>
@@ -3390,7 +3403,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43980</v>
       </c>
@@ -3416,7 +3429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43980</v>
       </c>
@@ -3442,7 +3455,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43980</v>
       </c>
@@ -3468,7 +3481,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43980</v>
       </c>
@@ -3494,7 +3507,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43955</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43955</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43955</v>
       </c>
@@ -3547,23 +3560,23 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
     </row>
@@ -3600,8 +3613,10 @@
     <hyperlink ref="B90" r:id="rId29" xr:uid="{4A7BC4CD-D50D-4F04-86D3-AC690806B8AF}"/>
     <hyperlink ref="I27" r:id="rId30" xr:uid="{4627520F-D5D5-4BE6-A0FF-807A2CD79B7E}"/>
     <hyperlink ref="I28" r:id="rId31" xr:uid="{1E751616-1FB6-4543-985F-690628E80023}"/>
+    <hyperlink ref="I29" r:id="rId32" xr:uid="{26024899-26E0-49AC-8AD4-861A071FB11B}"/>
+    <hyperlink ref="I49" r:id="rId33" xr:uid="{E3C966E0-9D80-450E-9600-5B4DCBA34E2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCDE07C-1F12-4A2D-A0AC-B7D22C3637B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CE1E9-52A4-4CC2-880A-347793F34678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4370" yWindow="1390" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="143">
   <si>
     <t>Date posted</t>
   </si>
@@ -455,6 +454,15 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NGA/Admin0/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin0/metadata.json</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>COD_SYR_Admin0</t>
   </si>
 </sst>
 </file>
@@ -820,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3561,12 +3569,24 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" t="s">
+        <v>142</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
@@ -3615,8 +3635,9 @@
     <hyperlink ref="I28" r:id="rId31" xr:uid="{1E751616-1FB6-4543-985F-690628E80023}"/>
     <hyperlink ref="I29" r:id="rId32" xr:uid="{26024899-26E0-49AC-8AD4-861A071FB11B}"/>
     <hyperlink ref="I49" r:id="rId33" xr:uid="{E3C966E0-9D80-450E-9600-5B4DCBA34E2D}"/>
+    <hyperlink ref="I94" r:id="rId34" xr:uid="{77A8E34B-99A0-4D0D-BA26-EA7CE1EDCBA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CE1E9-52A4-4CC2-880A-347793F34678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715CE9A-132A-4C3F-8C43-55FC267A5708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42270" yWindow="2790" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="144">
   <si>
     <t>Date posted</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>COD_SYR_Admin0</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin3-MBT/admin3.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1750,6 +1753,9 @@
       <c r="H30" t="str">
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.csv</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -3636,8 +3642,9 @@
     <hyperlink ref="I29" r:id="rId32" xr:uid="{26024899-26E0-49AC-8AD4-861A071FB11B}"/>
     <hyperlink ref="I49" r:id="rId33" xr:uid="{E3C966E0-9D80-450E-9600-5B4DCBA34E2D}"/>
     <hyperlink ref="I94" r:id="rId34" xr:uid="{77A8E34B-99A0-4D0D-BA26-EA7CE1EDCBA5}"/>
+    <hyperlink ref="I30" r:id="rId35" xr:uid="{DBA734F0-9303-40FB-A4B9-600EA9D576ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715CE9A-132A-4C3F-8C43-55FC267A5708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EA67C5-93BF-4A8E-B98D-A01324473921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42270" yWindow="2790" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="144">
-  <si>
-    <t>Date posted</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="150">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -466,6 +463,27 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin3-MBT/admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>COD_YEM_Admin1</t>
+  </si>
+  <si>
+    <t>COD_YEM_Admin0</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin0/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin3/metadata.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date originally posted (dates are for baseline tracking and need to be updated for each version). </t>
   </si>
 </sst>
 </file>
@@ -829,11 +847,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -849,31 +865,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -881,13 +897,13 @@
         <v>43727</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="str">
         <f>$B2&amp;"/"&amp;$C2&amp;"/"&amp;$D2&amp;$E$1</f>
@@ -911,13 +927,13 @@
         <v>43727</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="1">$B3&amp;"/"&amp;$C3&amp;"/"&amp;$D3&amp;$E$1</f>
@@ -941,13 +957,13 @@
         <v>43727</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -971,13 +987,13 @@
         <v>43728</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -1001,13 +1017,13 @@
         <v>43753</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -1031,13 +1047,13 @@
         <v>43753</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="str">
         <f>$B7&amp;"/"&amp;$C7&amp;"/"&amp;$D7&amp;$E$1</f>
@@ -1061,13 +1077,13 @@
         <v>43753</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -1091,13 +1107,13 @@
         <v>43753</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -1121,13 +1137,13 @@
         <v>43753</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -1151,13 +1167,13 @@
         <v>43753</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -1181,13 +1197,13 @@
         <v>43753</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -1211,13 +1227,13 @@
         <v>43753</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
@@ -1241,13 +1257,13 @@
         <v>43753</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -1271,13 +1287,13 @@
         <v>43753</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -1301,13 +1317,13 @@
         <v>43753</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
@@ -1326,18 +1342,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43753</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
@@ -1356,18 +1372,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43753</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
@@ -1386,18 +1402,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43753</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
@@ -1416,18 +1432,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43753</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -1446,18 +1462,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43753</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
@@ -1476,18 +1492,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43753</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
@@ -1506,18 +1522,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43753</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
@@ -1536,18 +1552,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43753</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
@@ -1566,18 +1582,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43753</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -1596,18 +1612,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43753</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
@@ -1626,18 +1642,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43753</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
@@ -1656,21 +1672,21 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin0.csv</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43753</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
@@ -1689,21 +1705,21 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin1.csv</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
@@ -1722,21 +1738,21 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.csv</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43753</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
@@ -1755,21 +1771,24 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.csv</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43753</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
@@ -1788,18 +1807,18 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43753</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
@@ -1823,13 +1842,13 @@
         <v>43753</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
@@ -1853,13 +1872,13 @@
         <v>43753</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
@@ -1883,13 +1902,13 @@
         <v>43753</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
@@ -1913,13 +1932,13 @@
         <v>43753</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
@@ -1943,13 +1962,13 @@
         <v>43753</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
@@ -1973,13 +1992,13 @@
         <v>43753</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
@@ -2003,13 +2022,13 @@
         <v>43753</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
@@ -2033,13 +2052,13 @@
         <v>43753</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
@@ -2063,13 +2082,13 @@
         <v>43753</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
@@ -2093,13 +2112,13 @@
         <v>43753</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
@@ -2123,13 +2142,13 @@
         <v>43753</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
@@ -2153,13 +2172,13 @@
         <v>43753</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
@@ -2183,13 +2202,13 @@
         <v>43753</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
@@ -2213,13 +2232,13 @@
         <v>43753</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
@@ -2243,13 +2262,13 @@
         <v>43753</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
@@ -2273,13 +2292,13 @@
         <v>43753</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
@@ -2303,13 +2322,13 @@
         <v>43753</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
@@ -2328,7 +2347,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin0.csv</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2336,13 +2355,13 @@
         <v>43753</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
@@ -2366,13 +2385,13 @@
         <v>43753</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
@@ -2396,13 +2415,13 @@
         <v>43753</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
@@ -2426,13 +2445,13 @@
         <v>43753</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
@@ -2456,13 +2475,13 @@
         <v>43753</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
@@ -2486,13 +2505,13 @@
         <v>43753</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
@@ -2516,13 +2535,13 @@
         <v>43753</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
@@ -2546,13 +2565,13 @@
         <v>43753</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
@@ -2576,13 +2595,13 @@
         <v>43753</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
@@ -2606,13 +2625,13 @@
         <v>43753</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
@@ -2636,13 +2655,13 @@
         <v>43753</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -2666,13 +2685,13 @@
         <v>43753</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2696,13 +2715,13 @@
         <v>43753</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -2726,13 +2745,13 @@
         <v>43753</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -2756,13 +2775,13 @@
         <v>43753</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -2786,13 +2805,13 @@
         <v>43753</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
@@ -2816,13 +2835,13 @@
         <v>43753</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
@@ -2846,13 +2865,13 @@
         <v>43805</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E86" si="6">$B67&amp;"/"&amp;$C67&amp;"/"&amp;$D67&amp;$E$1</f>
@@ -2876,13 +2895,13 @@
         <v>43805</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="6"/>
@@ -2906,13 +2925,13 @@
         <v>43805</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="6"/>
@@ -2936,13 +2955,13 @@
         <v>43805</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="6"/>
@@ -2966,13 +2985,13 @@
         <v>43805</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="6"/>
@@ -2996,13 +3015,13 @@
         <v>43805</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="6"/>
@@ -3026,13 +3045,13 @@
         <v>43805</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="6"/>
@@ -3056,13 +3075,13 @@
         <v>43805</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
         <v>99</v>
-      </c>
-      <c r="C74" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="6"/>
@@ -3082,13 +3101,13 @@
         <v>43805</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="6"/>
@@ -3108,13 +3127,13 @@
         <v>43805</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="6"/>
@@ -3134,13 +3153,13 @@
         <v>43805</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
         <v>104</v>
-      </c>
-      <c r="D77" t="s">
-        <v>105</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="6"/>
@@ -3160,13 +3179,13 @@
         <v>43805</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="6"/>
@@ -3186,13 +3205,13 @@
         <v>43805</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="6"/>
@@ -3212,13 +3231,13 @@
         <v>43805</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
         <v>108</v>
-      </c>
-      <c r="D80" t="s">
-        <v>109</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="6"/>
@@ -3242,13 +3261,13 @@
         <v>43805</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="6"/>
@@ -3272,13 +3291,13 @@
         <v>43805</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="6"/>
@@ -3302,13 +3321,13 @@
         <v>43901</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="6"/>
@@ -3332,13 +3351,13 @@
         <v>43901</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="6"/>
@@ -3362,13 +3381,13 @@
         <v>43901</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="6"/>
@@ -3392,13 +3411,13 @@
         <v>43901</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="6"/>
@@ -3422,25 +3441,25 @@
         <v>43980</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3448,25 +3467,25 @@
         <v>43980</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3474,25 +3493,25 @@
         <v>43980</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3500,25 +3519,25 @@
         <v>43980</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3526,18 +3545,18 @@
         <v>43955</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" t="s">
         <v>132</v>
-      </c>
-      <c r="D91" t="s">
-        <v>133</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3545,16 +3564,16 @@
         <v>43955</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3562,16 +3581,16 @@
         <v>43955</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3579,24 +3598,51 @@
         <v>44225</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
         <v>141</v>
       </c>
-      <c r="D94" t="s">
-        <v>142</v>
-      </c>
       <c r="I94" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" t="s">
+        <v>145</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
@@ -3642,9 +3688,12 @@
     <hyperlink ref="I29" r:id="rId32" xr:uid="{26024899-26E0-49AC-8AD4-861A071FB11B}"/>
     <hyperlink ref="I49" r:id="rId33" xr:uid="{E3C966E0-9D80-450E-9600-5B4DCBA34E2D}"/>
     <hyperlink ref="I94" r:id="rId34" xr:uid="{77A8E34B-99A0-4D0D-BA26-EA7CE1EDCBA5}"/>
-    <hyperlink ref="I30" r:id="rId35" xr:uid="{DBA734F0-9303-40FB-A4B9-600EA9D576ED}"/>
+    <hyperlink ref="J30" r:id="rId35" xr:uid="{DBA734F0-9303-40FB-A4B9-600EA9D576ED}"/>
+    <hyperlink ref="I95" r:id="rId36" xr:uid="{6B7CC321-23E7-4F66-B27D-6C52D0DA8062}"/>
+    <hyperlink ref="I96" r:id="rId37" xr:uid="{F5971386-55A4-4874-AFC1-CE6BFE3BE0D2}"/>
+    <hyperlink ref="I30" r:id="rId38" xr:uid="{120A8934-1C1C-4C23-A36A-F97DC157A69E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EA67C5-93BF-4A8E-B98D-A01324473921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB388529-1383-4084-BBBE-D1D274E96000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -484,6 +484,30 @@
   </si>
   <si>
     <t xml:space="preserve">Date originally posted (dates are for baseline tracking and need to be updated for each version). </t>
+  </si>
+  <si>
+    <t>Vector Tiles .mbtiles</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>COD_SOM_Admin0</t>
+  </si>
+  <si>
+    <t>COD_SOM_Admin1</t>
+  </si>
+  <si>
+    <t>COD_SOM_Admin2</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SOM/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SOM/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SOM/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -847,9 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -861,9 +887,10 @@
     <col min="7" max="7" width="91.54296875" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
     <col min="9" max="9" width="115.81640625" customWidth="1"/>
+    <col min="10" max="10" width="95.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -891,8 +918,11 @@
       <c r="I1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43727</v>
       </c>
@@ -922,7 +952,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43727</v>
       </c>
@@ -952,7 +982,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43727</v>
       </c>
@@ -982,7 +1012,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43728</v>
       </c>
@@ -1012,7 +1042,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43753</v>
       </c>
@@ -1042,7 +1072,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43753</v>
       </c>
@@ -1072,7 +1102,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43753</v>
       </c>
@@ -1102,7 +1132,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43753</v>
       </c>
@@ -1132,7 +1162,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43753</v>
       </c>
@@ -1162,7 +1192,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43753</v>
       </c>
@@ -1192,7 +1222,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43753</v>
       </c>
@@ -1222,7 +1252,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43753</v>
       </c>
@@ -1252,7 +1282,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43753</v>
       </c>
@@ -1282,7 +1312,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43753</v>
       </c>
@@ -1312,7 +1342,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43753</v>
       </c>
@@ -3644,13 +3674,56 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" t="s">
+        <v>152</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" t="s">
+        <v>153</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3692,8 +3765,11 @@
     <hyperlink ref="I95" r:id="rId36" xr:uid="{6B7CC321-23E7-4F66-B27D-6C52D0DA8062}"/>
     <hyperlink ref="I96" r:id="rId37" xr:uid="{F5971386-55A4-4874-AFC1-CE6BFE3BE0D2}"/>
     <hyperlink ref="I30" r:id="rId38" xr:uid="{120A8934-1C1C-4C23-A36A-F97DC157A69E}"/>
+    <hyperlink ref="J97" r:id="rId39" xr:uid="{513A3AA9-AA1F-4C03-AF2E-F14DED3ECC65}"/>
+    <hyperlink ref="J98" r:id="rId40" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin1-mbt/admin1.mbtiles" xr:uid="{18AC7F18-9EE7-4581-BFBE-5CF57CD695FE}"/>
+    <hyperlink ref="J99" r:id="rId41" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin2-mbt/admin2.mbtiles" xr:uid="{A45ACDC1-45DB-444C-B428-BCA24C29B86B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB388529-1383-4084-BBBE-D1D274E96000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF558100-9861-4A5D-A4B0-424464F7C197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2670" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="163">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -508,6 +508,21 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SOM/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>COD_SYR_Admin2</t>
+  </si>
+  <si>
+    <t>COD_SYR_Admin1</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin2/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>http://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_LBR/Admin1-MBT/Admin1.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -871,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="I73" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3286,7 +3301,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.csv</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43805</v>
       </c>
@@ -3315,8 +3330,11 @@
         <f t="shared" si="8"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.csv</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43805</v>
       </c>
@@ -3346,7 +3364,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.csv</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43901</v>
       </c>
@@ -3376,7 +3394,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43901</v>
       </c>
@@ -3406,7 +3424,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43901</v>
       </c>
@@ -3436,7 +3454,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43901</v>
       </c>
@@ -3466,7 +3484,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43980</v>
       </c>
@@ -3492,7 +3510,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43980</v>
       </c>
@@ -3518,7 +3536,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43980</v>
       </c>
@@ -3544,7 +3562,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43980</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43955</v>
       </c>
@@ -3589,7 +3607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43955</v>
       </c>
@@ -3606,7 +3624,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43955</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44225</v>
       </c>
@@ -3640,38 +3658,38 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -3682,13 +3700,13 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -3699,13 +3717,13 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -3719,9 +3737,43 @@
         <v>151</v>
       </c>
       <c r="D99" t="s">
+        <v>152</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" t="s">
+        <v>153</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" t="s">
         <v>154</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3762,14 +3814,17 @@
     <hyperlink ref="I49" r:id="rId33" xr:uid="{E3C966E0-9D80-450E-9600-5B4DCBA34E2D}"/>
     <hyperlink ref="I94" r:id="rId34" xr:uid="{77A8E34B-99A0-4D0D-BA26-EA7CE1EDCBA5}"/>
     <hyperlink ref="J30" r:id="rId35" xr:uid="{DBA734F0-9303-40FB-A4B9-600EA9D576ED}"/>
-    <hyperlink ref="I95" r:id="rId36" xr:uid="{6B7CC321-23E7-4F66-B27D-6C52D0DA8062}"/>
-    <hyperlink ref="I96" r:id="rId37" xr:uid="{F5971386-55A4-4874-AFC1-CE6BFE3BE0D2}"/>
+    <hyperlink ref="I97" r:id="rId36" xr:uid="{6B7CC321-23E7-4F66-B27D-6C52D0DA8062}"/>
+    <hyperlink ref="I98" r:id="rId37" xr:uid="{F5971386-55A4-4874-AFC1-CE6BFE3BE0D2}"/>
     <hyperlink ref="I30" r:id="rId38" xr:uid="{120A8934-1C1C-4C23-A36A-F97DC157A69E}"/>
-    <hyperlink ref="J97" r:id="rId39" xr:uid="{513A3AA9-AA1F-4C03-AF2E-F14DED3ECC65}"/>
-    <hyperlink ref="J98" r:id="rId40" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin1-mbt/admin1.mbtiles" xr:uid="{18AC7F18-9EE7-4581-BFBE-5CF57CD695FE}"/>
-    <hyperlink ref="J99" r:id="rId41" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin2-mbt/admin2.mbtiles" xr:uid="{A45ACDC1-45DB-444C-B428-BCA24C29B86B}"/>
+    <hyperlink ref="J99" r:id="rId39" xr:uid="{513A3AA9-AA1F-4C03-AF2E-F14DED3ECC65}"/>
+    <hyperlink ref="J100" r:id="rId40" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin1-mbt/admin1.mbtiles" xr:uid="{18AC7F18-9EE7-4581-BFBE-5CF57CD695FE}"/>
+    <hyperlink ref="J101" r:id="rId41" xr:uid="{A45ACDC1-45DB-444C-B428-BCA24C29B86B}"/>
+    <hyperlink ref="I96" r:id="rId42" xr:uid="{F90BA69E-6C14-4D26-ABFD-EF20878AEB9C}"/>
+    <hyperlink ref="I95" r:id="rId43" xr:uid="{5A82F339-6264-4F39-AE15-FA7FFBAC907C}"/>
+    <hyperlink ref="J81" r:id="rId44" xr:uid="{D4BBC823-40A4-4A73-847A-8D1873BC0B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF558100-9861-4A5D-A4B0-424464F7C197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7BB58-057D-45BF-91AE-8424C0D322A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="2670" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="181">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -523,6 +523,60 @@
   </si>
   <si>
     <t>http://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_LBR/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>http://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_LBR/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>COD_UKR_Admin1</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_UKR/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>http://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_LBR/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_UKR/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_UKR/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin-MBT/Admin0</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MNG/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MNG/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MNG/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin1-MBT/Admin1.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -886,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I73" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1882,7 +1936,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43753</v>
       </c>
@@ -1912,7 +1966,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43753</v>
       </c>
@@ -1942,7 +1996,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43753</v>
       </c>
@@ -1972,7 +2026,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43753</v>
       </c>
@@ -2002,7 +2056,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43753</v>
       </c>
@@ -2031,8 +2085,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.csv</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J37" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43753</v>
       </c>
@@ -2061,8 +2118,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.csv</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J38" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43753</v>
       </c>
@@ -2091,8 +2151,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.csv</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J39" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43753</v>
       </c>
@@ -2121,8 +2184,11 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.csv</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J40" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43753</v>
       </c>
@@ -2152,7 +2218,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43753</v>
       </c>
@@ -2182,7 +2248,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43753</v>
       </c>
@@ -2212,7 +2278,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43753</v>
       </c>
@@ -2242,7 +2308,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43753</v>
       </c>
@@ -2272,7 +2338,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.csv</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43753</v>
       </c>
@@ -2302,7 +2368,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.csv</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43753</v>
       </c>
@@ -2332,7 +2398,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43753</v>
       </c>
@@ -2845,7 +2911,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43753</v>
       </c>
@@ -2875,7 +2941,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43753</v>
       </c>
@@ -2905,7 +2971,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.csv</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43805</v>
       </c>
@@ -2935,7 +3001,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43805</v>
       </c>
@@ -2965,7 +3031,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.csv</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43805</v>
       </c>
@@ -2995,7 +3061,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.csv</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43805</v>
       </c>
@@ -3025,7 +3091,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.csv</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>43805</v>
       </c>
@@ -3055,7 +3121,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.csv</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43805</v>
       </c>
@@ -3085,7 +3151,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.csv</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43805</v>
       </c>
@@ -3115,7 +3181,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.csv</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43805</v>
       </c>
@@ -3141,7 +3207,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.kml</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43805</v>
       </c>
@@ -3167,7 +3233,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.kml</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43805</v>
       </c>
@@ -3193,7 +3259,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.kml</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43805</v>
       </c>
@@ -3219,7 +3285,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.kml</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43805</v>
       </c>
@@ -3245,7 +3311,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.kml</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43805</v>
       </c>
@@ -3271,7 +3337,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.kml</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43805</v>
       </c>
@@ -3300,6 +3366,9 @@
         <f t="shared" si="8"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.csv</v>
       </c>
+      <c r="J80" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
@@ -3362,6 +3431,9 @@
       <c r="H82" t="str">
         <f t="shared" si="8"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.csv</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
@@ -3775,6 +3847,102 @@
       </c>
       <c r="J101" s="4" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" t="s">
+        <v>164</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" t="s">
+        <v>165</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>164</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" t="s">
+        <v>171</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" t="s">
+        <v>171</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3823,8 +3991,24 @@
     <hyperlink ref="I96" r:id="rId42" xr:uid="{F90BA69E-6C14-4D26-ABFD-EF20878AEB9C}"/>
     <hyperlink ref="I95" r:id="rId43" xr:uid="{5A82F339-6264-4F39-AE15-FA7FFBAC907C}"/>
     <hyperlink ref="J81" r:id="rId44" xr:uid="{D4BBC823-40A4-4A73-847A-8D1873BC0B92}"/>
+    <hyperlink ref="J80" r:id="rId45" xr:uid="{965B8E54-763E-4E9D-AAC2-BCE642A6A878}"/>
+    <hyperlink ref="B101" r:id="rId46" xr:uid="{599F6CD0-C69D-4ABB-8567-23ED1DB59E20}"/>
+    <hyperlink ref="J103" r:id="rId47" xr:uid="{AD49923C-F910-41D6-86C9-0DC254E12C8A}"/>
+    <hyperlink ref="J82" r:id="rId48" xr:uid="{D87C3A18-70DF-4606-97E2-B2F84C02ED9F}"/>
+    <hyperlink ref="J104" r:id="rId49" xr:uid="{CFA0D774-2FE5-4305-926F-8E09628FE3AB}"/>
+    <hyperlink ref="J102" r:id="rId50" xr:uid="{CDB03A79-7D3C-460D-A2AB-90C30CBA57E4}"/>
+    <hyperlink ref="J37" r:id="rId51" xr:uid="{0493E14A-1B2B-4424-A430-2117071E4EC7}"/>
+    <hyperlink ref="I105" r:id="rId52" xr:uid="{E944D18E-847B-423F-BF9F-F8BB93AF3D07}"/>
+    <hyperlink ref="I106" r:id="rId53" xr:uid="{37715D9F-84DF-4D5D-9848-1818386C4379}"/>
+    <hyperlink ref="I107" r:id="rId54" xr:uid="{EB6CF0CF-51AF-4E9A-B37C-0490B18EADBD}"/>
+    <hyperlink ref="J106" r:id="rId55" xr:uid="{88678C73-F4A8-4A69-9B41-80D0CE7F2AD9}"/>
+    <hyperlink ref="J107" r:id="rId56" xr:uid="{945F77D1-3F7C-4D0C-A976-5FC4F71A87B0}"/>
+    <hyperlink ref="J105" r:id="rId57" xr:uid="{06C799C9-20ED-4E72-9639-43493D084840}"/>
+    <hyperlink ref="J40" r:id="rId58" xr:uid="{40779BF6-9C1D-41BA-A286-46998783A915}"/>
+    <hyperlink ref="J39" r:id="rId59" xr:uid="{BF2D05A4-3F4F-45C4-8C8B-F1F89D96F9D9}"/>
+    <hyperlink ref="J38" r:id="rId60" xr:uid="{94B0A1C4-289A-4C81-8374-35A0C20C89C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId61"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7BB58-057D-45BF-91AE-8424C0D322A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF35A91F-ABC5-4F3B-950D-A006CC7D975C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2670" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42340" yWindow="710" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anita Russo</author>
+  </authors>
+  <commentList>
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{0BBA8789-B73E-47C7-8D83-02A26DD1DAFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anita Russo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="183">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -432,15 +466,6 @@
     <t>BFA</t>
   </si>
   <si>
-    <t>COD_BFA_Admin1</t>
-  </si>
-  <si>
-    <t>COD_BFA_Admin2</t>
-  </si>
-  <si>
-    <t>COD_BFA_Admin3</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin0/metadata.json</t>
   </si>
   <si>
@@ -459,21 +484,12 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>COD_SYR_Admin0</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ETH/Admin3-MBT/admin3.mbtiles</t>
   </si>
   <si>
     <t>YEM</t>
   </si>
   <si>
-    <t>COD_YEM_Admin1</t>
-  </si>
-  <si>
-    <t>COD_YEM_Admin0</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin0/metadata.json</t>
   </si>
   <si>
@@ -492,15 +508,6 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>COD_SOM_Admin0</t>
-  </si>
-  <si>
-    <t>COD_SOM_Admin1</t>
-  </si>
-  <si>
-    <t>COD_SOM_Admin2</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SOM/Admin0-MBT/Admin0.mbtiles</t>
   </si>
   <si>
@@ -510,12 +517,6 @@
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SOM/Admin2-MBT/Admin2.mbtiles</t>
   </si>
   <si>
-    <t>COD_SYR_Admin2</t>
-  </si>
-  <si>
-    <t>COD_SYR_Admin1</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin2/metadata.json</t>
   </si>
   <si>
@@ -531,9 +532,6 @@
     <t>UKR</t>
   </si>
   <si>
-    <t>COD_UKR_Admin1</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_UKR/Admin1-MBT/Admin1.mbtiles</t>
   </si>
   <si>
@@ -577,13 +575,55 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin2/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KGZ/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KGZ/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KGZ/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin3/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HND/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HND/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HND/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KGZ/Admin3-MBT/Admin3.mbtiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +638,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -939,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -988,7 +1041,7 @@
         <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1771,7 +1824,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin0.csv</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1804,7 +1857,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin1.csv</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1837,7 +1890,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin2.csv</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1870,10 +1923,10 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ETH/COD_ETH_Admin3.csv</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -2086,7 +2139,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.csv</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2119,7 +2172,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.csv</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2152,7 +2205,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.csv</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2185,7 +2238,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.csv</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2458,7 +2511,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin0.csv</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -3367,7 +3420,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin0.csv</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3400,7 +3453,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin1.csv</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -3433,7 +3486,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LBR/COD_LBR_Admin2.csv</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
@@ -3669,9 +3722,6 @@
       </c>
       <c r="C91" t="s">
         <v>131</v>
-      </c>
-      <c r="D91" t="s">
-        <v>132</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -3689,9 +3739,6 @@
       <c r="C92" t="s">
         <v>131</v>
       </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
       <c r="I92" s="1" t="s">
         <v>128</v>
       </c>
@@ -3706,9 +3753,6 @@
       <c r="C93" t="s">
         <v>131</v>
       </c>
-      <c r="D93" t="s">
-        <v>134</v>
-      </c>
       <c r="I93" s="1" t="s">
         <v>127</v>
       </c>
@@ -3721,13 +3765,10 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
-      </c>
-      <c r="D94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -3738,13 +3779,10 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
@@ -3755,13 +3793,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -3772,13 +3807,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -3789,13 +3821,10 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -3806,13 +3835,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99" t="s">
-        <v>152</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -3823,13 +3849,10 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
-      </c>
-      <c r="D100" t="s">
-        <v>153</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
@@ -3840,92 +3863,80 @@
         <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" t="s">
-        <v>154</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>44270</v>
-      </c>
-      <c r="B102" t="s">
+        <v>44252</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>44270</v>
-      </c>
-      <c r="B103" t="s">
+        <v>44252</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" t="s">
-        <v>165</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>44277</v>
+        <v>44270</v>
       </c>
       <c r="B104" t="s">
         <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>44263</v>
+        <v>44270</v>
       </c>
       <c r="B105" t="s">
         <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>44263</v>
+        <v>44277</v>
       </c>
       <c r="B106" t="s">
         <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
@@ -3936,13 +3947,173 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
+        <v>159</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" t="s">
+        <v>159</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" t="s">
+        <v>159</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I107" s="1" t="s">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J107" s="1" t="s">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" t="s">
+        <v>169</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B114" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" t="s">
+        <v>174</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B116" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" t="s">
+        <v>174</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B117" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" t="s">
+        <v>175</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" t="s">
+        <v>175</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3982,33 +4153,49 @@
     <hyperlink ref="I49" r:id="rId33" xr:uid="{E3C966E0-9D80-450E-9600-5B4DCBA34E2D}"/>
     <hyperlink ref="I94" r:id="rId34" xr:uid="{77A8E34B-99A0-4D0D-BA26-EA7CE1EDCBA5}"/>
     <hyperlink ref="J30" r:id="rId35" xr:uid="{DBA734F0-9303-40FB-A4B9-600EA9D576ED}"/>
-    <hyperlink ref="I97" r:id="rId36" xr:uid="{6B7CC321-23E7-4F66-B27D-6C52D0DA8062}"/>
-    <hyperlink ref="I98" r:id="rId37" xr:uid="{F5971386-55A4-4874-AFC1-CE6BFE3BE0D2}"/>
+    <hyperlink ref="I98" r:id="rId36" xr:uid="{6B7CC321-23E7-4F66-B27D-6C52D0DA8062}"/>
+    <hyperlink ref="I99" r:id="rId37" xr:uid="{F5971386-55A4-4874-AFC1-CE6BFE3BE0D2}"/>
     <hyperlink ref="I30" r:id="rId38" xr:uid="{120A8934-1C1C-4C23-A36A-F97DC157A69E}"/>
-    <hyperlink ref="J99" r:id="rId39" xr:uid="{513A3AA9-AA1F-4C03-AF2E-F14DED3ECC65}"/>
-    <hyperlink ref="J100" r:id="rId40" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin1-mbt/admin1.mbtiles" xr:uid="{18AC7F18-9EE7-4581-BFBE-5CF57CD695FE}"/>
-    <hyperlink ref="J101" r:id="rId41" xr:uid="{A45ACDC1-45DB-444C-B428-BCA24C29B86B}"/>
+    <hyperlink ref="J101" r:id="rId39" xr:uid="{513A3AA9-AA1F-4C03-AF2E-F14DED3ECC65}"/>
+    <hyperlink ref="J102" r:id="rId40" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin1-mbt/admin1.mbtiles" xr:uid="{18AC7F18-9EE7-4581-BFBE-5CF57CD695FE}"/>
+    <hyperlink ref="J103" r:id="rId41" xr:uid="{A45ACDC1-45DB-444C-B428-BCA24C29B86B}"/>
     <hyperlink ref="I96" r:id="rId42" xr:uid="{F90BA69E-6C14-4D26-ABFD-EF20878AEB9C}"/>
     <hyperlink ref="I95" r:id="rId43" xr:uid="{5A82F339-6264-4F39-AE15-FA7FFBAC907C}"/>
     <hyperlink ref="J81" r:id="rId44" xr:uid="{D4BBC823-40A4-4A73-847A-8D1873BC0B92}"/>
     <hyperlink ref="J80" r:id="rId45" xr:uid="{965B8E54-763E-4E9D-AAC2-BCE642A6A878}"/>
-    <hyperlink ref="B101" r:id="rId46" xr:uid="{599F6CD0-C69D-4ABB-8567-23ED1DB59E20}"/>
-    <hyperlink ref="J103" r:id="rId47" xr:uid="{AD49923C-F910-41D6-86C9-0DC254E12C8A}"/>
+    <hyperlink ref="B103" r:id="rId46" xr:uid="{599F6CD0-C69D-4ABB-8567-23ED1DB59E20}"/>
+    <hyperlink ref="J105" r:id="rId47" xr:uid="{AD49923C-F910-41D6-86C9-0DC254E12C8A}"/>
     <hyperlink ref="J82" r:id="rId48" xr:uid="{D87C3A18-70DF-4606-97E2-B2F84C02ED9F}"/>
-    <hyperlink ref="J104" r:id="rId49" xr:uid="{CFA0D774-2FE5-4305-926F-8E09628FE3AB}"/>
-    <hyperlink ref="J102" r:id="rId50" xr:uid="{CDB03A79-7D3C-460D-A2AB-90C30CBA57E4}"/>
+    <hyperlink ref="J106" r:id="rId49" xr:uid="{CFA0D774-2FE5-4305-926F-8E09628FE3AB}"/>
+    <hyperlink ref="J104" r:id="rId50" xr:uid="{CDB03A79-7D3C-460D-A2AB-90C30CBA57E4}"/>
     <hyperlink ref="J37" r:id="rId51" xr:uid="{0493E14A-1B2B-4424-A430-2117071E4EC7}"/>
-    <hyperlink ref="I105" r:id="rId52" xr:uid="{E944D18E-847B-423F-BF9F-F8BB93AF3D07}"/>
-    <hyperlink ref="I106" r:id="rId53" xr:uid="{37715D9F-84DF-4D5D-9848-1818386C4379}"/>
-    <hyperlink ref="I107" r:id="rId54" xr:uid="{EB6CF0CF-51AF-4E9A-B37C-0490B18EADBD}"/>
-    <hyperlink ref="J106" r:id="rId55" xr:uid="{88678C73-F4A8-4A69-9B41-80D0CE7F2AD9}"/>
-    <hyperlink ref="J107" r:id="rId56" xr:uid="{945F77D1-3F7C-4D0C-A976-5FC4F71A87B0}"/>
-    <hyperlink ref="J105" r:id="rId57" xr:uid="{06C799C9-20ED-4E72-9639-43493D084840}"/>
+    <hyperlink ref="I107" r:id="rId52" xr:uid="{E944D18E-847B-423F-BF9F-F8BB93AF3D07}"/>
+    <hyperlink ref="I108" r:id="rId53" xr:uid="{37715D9F-84DF-4D5D-9848-1818386C4379}"/>
+    <hyperlink ref="I109" r:id="rId54" xr:uid="{EB6CF0CF-51AF-4E9A-B37C-0490B18EADBD}"/>
+    <hyperlink ref="J108" r:id="rId55" xr:uid="{88678C73-F4A8-4A69-9B41-80D0CE7F2AD9}"/>
+    <hyperlink ref="J109" r:id="rId56" xr:uid="{945F77D1-3F7C-4D0C-A976-5FC4F71A87B0}"/>
+    <hyperlink ref="J107" r:id="rId57" xr:uid="{06C799C9-20ED-4E72-9639-43493D084840}"/>
     <hyperlink ref="J40" r:id="rId58" xr:uid="{40779BF6-9C1D-41BA-A286-46998783A915}"/>
     <hyperlink ref="J39" r:id="rId59" xr:uid="{BF2D05A4-3F4F-45C4-8C8B-F1F89D96F9D9}"/>
     <hyperlink ref="J38" r:id="rId60" xr:uid="{94B0A1C4-289A-4C81-8374-35A0C20C89C1}"/>
+    <hyperlink ref="I100" r:id="rId61" xr:uid="{150A8A27-BF6D-423F-85BB-13E5077C5669}"/>
+    <hyperlink ref="J111" r:id="rId62" xr:uid="{2CF0A001-E23E-47BD-AC0A-8A0DF5F20E25}"/>
+    <hyperlink ref="J112" r:id="rId63" xr:uid="{49C1B1B7-9259-4D04-8CE9-BED123DD8267}"/>
+    <hyperlink ref="J110" r:id="rId64" xr:uid="{FA9E234F-A985-4C99-91CB-F77A1F656912}"/>
+    <hyperlink ref="J113" r:id="rId65" xr:uid="{B85F5A08-4D4A-483A-9FC0-820A6F26E8A5}"/>
+    <hyperlink ref="B99" r:id="rId66" xr:uid="{5FC00C0B-D7E7-41D7-9F83-0CDE5FB769AC}"/>
+    <hyperlink ref="B92" r:id="rId67" xr:uid="{B497D3E8-D6F7-4CEF-B4A1-BAA1152AA073}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{74161493-D573-4EA1-A921-896E9E1329E0}"/>
+    <hyperlink ref="B96" r:id="rId69" xr:uid="{DC486FEF-6B6A-4C14-9F35-2FA42329A085}"/>
+    <hyperlink ref="I97" r:id="rId70" xr:uid="{D0257088-2312-4F11-9A19-0BC54A3ED99B}"/>
+    <hyperlink ref="J115" r:id="rId71" xr:uid="{FCCDFC19-142E-4ACF-8557-4D84C8E55905}"/>
+    <hyperlink ref="J117" r:id="rId72" xr:uid="{253AFA37-5C18-45EC-A081-08CD046E209F}"/>
+    <hyperlink ref="J114" r:id="rId73" xr:uid="{FFB1EB30-35D8-40FC-AC28-120E9D4EA50B}"/>
+    <hyperlink ref="J118" r:id="rId74" xr:uid="{6E287DD5-4B61-4A5A-A23C-B0061E2B7385}"/>
+    <hyperlink ref="J116" r:id="rId75" xr:uid="{18F2C76A-3AB8-4254-BF75-F4E008674394}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId61"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId76"/>
+  <legacyDrawing r:id="rId77"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF35A91F-ABC5-4F3B-950D-A006CC7D975C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5783A6C5-4791-4031-A9CD-D2228C45CF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42340" yWindow="710" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="2570" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,9 +607,6 @@
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HND/Admin1-MBT/Admin1.mbtiles</t>
   </si>
   <si>
-    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin0-MBT/Admin0.mbtiles</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin1-MBT/Admin1.mbtiles</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KGZ/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="I97" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4043,7 +4043,7 @@
         <v>169</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
@@ -4085,7 +4085,7 @@
         <v>174</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
@@ -4099,7 +4099,7 @@
         <v>175</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
@@ -4113,7 +4113,7 @@
         <v>175</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5783A6C5-4791-4031-A9CD-D2228C45CF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5E41B6-2960-45F3-83F0-CF7F2CAA4FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2570" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294961103" uniqueCount="222">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -544,9 +544,6 @@
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_UKR/Admin0-MBT/Admin0.mbtiles</t>
   </si>
   <si>
-    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin-MBT/Admin0</t>
-  </si>
-  <si>
     <t>MNG</t>
   </si>
   <si>
@@ -617,13 +614,133 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>Dynamic Vectortiles (ocha-dap/gisrestapi or PGRestAPI)</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin3/metadata.json</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin0-MBT/Admin0.mbtiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +769,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -674,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -683,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -993,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I97" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" topLeftCell="J88" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,42 +1136,46 @@
     <col min="7" max="7" width="91.54296875" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
     <col min="9" max="9" width="115.81640625" customWidth="1"/>
-    <col min="10" max="10" width="95.90625" customWidth="1"/>
+    <col min="10" max="10" width="90.08984375" customWidth="1"/>
+    <col min="11" max="11" width="99.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43727</v>
       </c>
@@ -1074,7 +1205,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43727</v>
       </c>
@@ -1104,7 +1235,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43727</v>
       </c>
@@ -1134,7 +1265,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43728</v>
       </c>
@@ -1164,7 +1295,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43753</v>
       </c>
@@ -1194,7 +1325,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43753</v>
       </c>
@@ -1224,7 +1355,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43753</v>
       </c>
@@ -1254,7 +1385,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43753</v>
       </c>
@@ -1284,7 +1415,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43753</v>
       </c>
@@ -1314,7 +1445,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43753</v>
       </c>
@@ -1344,7 +1475,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43753</v>
       </c>
@@ -1374,7 +1505,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43753</v>
       </c>
@@ -1404,7 +1535,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43753</v>
       </c>
@@ -1434,7 +1565,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43753</v>
       </c>
@@ -1464,7 +1595,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43753</v>
       </c>
@@ -1494,7 +1625,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43753</v>
       </c>
@@ -1524,7 +1655,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43753</v>
       </c>
@@ -1554,7 +1685,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43753</v>
       </c>
@@ -1584,7 +1715,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43753</v>
       </c>
@@ -1614,7 +1745,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43753</v>
       </c>
@@ -1644,7 +1775,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43753</v>
       </c>
@@ -1674,7 +1805,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43753</v>
       </c>
@@ -1704,7 +1835,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43753</v>
       </c>
@@ -1734,7 +1865,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43753</v>
       </c>
@@ -1764,7 +1895,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43753</v>
       </c>
@@ -1794,7 +1925,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43753</v>
       </c>
@@ -1826,8 +1957,11 @@
       <c r="I27" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43753</v>
       </c>
@@ -1859,8 +1993,11 @@
       <c r="I28" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
@@ -1892,8 +2029,11 @@
       <c r="I29" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43753</v>
       </c>
@@ -1928,8 +2068,11 @@
       <c r="J30" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43753</v>
       </c>
@@ -1959,7 +2102,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43753</v>
       </c>
@@ -1989,7 +2132,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43753</v>
       </c>
@@ -2019,7 +2162,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43753</v>
       </c>
@@ -2049,7 +2192,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43753</v>
       </c>
@@ -2079,7 +2222,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43753</v>
       </c>
@@ -2109,7 +2252,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43753</v>
       </c>
@@ -2139,10 +2282,13 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.csv</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43753</v>
       </c>
@@ -2172,10 +2318,13 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.csv</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43753</v>
       </c>
@@ -2205,10 +2354,13 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.csv</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43753</v>
       </c>
@@ -2238,10 +2390,13 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.csv</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43753</v>
       </c>
@@ -2271,7 +2426,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43753</v>
       </c>
@@ -2301,7 +2456,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43753</v>
       </c>
@@ -2331,7 +2486,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43753</v>
       </c>
@@ -2361,7 +2516,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43753</v>
       </c>
@@ -2391,7 +2546,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.csv</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43753</v>
       </c>
@@ -2421,7 +2576,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.csv</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43753</v>
       </c>
@@ -2451,7 +2606,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43753</v>
       </c>
@@ -2964,7 +3119,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43753</v>
       </c>
@@ -2994,7 +3149,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43753</v>
       </c>
@@ -3024,7 +3179,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.csv</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43805</v>
       </c>
@@ -3054,7 +3209,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43805</v>
       </c>
@@ -3084,7 +3239,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.csv</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43805</v>
       </c>
@@ -3114,7 +3269,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.csv</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43805</v>
       </c>
@@ -3144,7 +3299,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.csv</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>43805</v>
       </c>
@@ -3174,7 +3329,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.csv</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43805</v>
       </c>
@@ -3204,7 +3359,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.csv</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43805</v>
       </c>
@@ -3234,7 +3389,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.csv</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43805</v>
       </c>
@@ -3260,7 +3415,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.kml</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43805</v>
       </c>
@@ -3286,7 +3441,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.kml</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43805</v>
       </c>
@@ -3312,7 +3467,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.kml</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43805</v>
       </c>
@@ -3338,7 +3493,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.kml</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43805</v>
       </c>
@@ -3364,7 +3519,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.kml</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43805</v>
       </c>
@@ -3390,7 +3545,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.kml</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43805</v>
       </c>
@@ -3422,8 +3577,11 @@
       <c r="J80" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43805</v>
       </c>
@@ -3455,8 +3613,11 @@
       <c r="J81" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43805</v>
       </c>
@@ -3488,8 +3649,11 @@
       <c r="J82" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43901</v>
       </c>
@@ -3519,7 +3683,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43901</v>
       </c>
@@ -3549,7 +3713,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43901</v>
       </c>
@@ -3579,7 +3743,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43901</v>
       </c>
@@ -3609,7 +3773,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43980</v>
       </c>
@@ -3635,7 +3799,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43980</v>
       </c>
@@ -3661,7 +3825,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43980</v>
       </c>
@@ -3687,7 +3851,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43980</v>
       </c>
@@ -3713,7 +3877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43955</v>
       </c>
@@ -3729,7 +3893,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43955</v>
       </c>
@@ -3743,7 +3907,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43955</v>
       </c>
@@ -3757,7 +3921,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44225</v>
       </c>
@@ -3770,8 +3934,11 @@
       <c r="I94" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K94" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>44266</v>
       </c>
@@ -3784,8 +3951,11 @@
       <c r="I95" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K95" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44266</v>
       </c>
@@ -3798,8 +3968,11 @@
       <c r="I96" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K96" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44252</v>
       </c>
@@ -3810,10 +3983,16 @@
         <v>137</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44252</v>
       </c>
@@ -3826,8 +4005,11 @@
       <c r="I98" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K98" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44252</v>
       </c>
@@ -3840,8 +4022,11 @@
       <c r="I99" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K99" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44252</v>
       </c>
@@ -3852,24 +4037,30 @@
         <v>139</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>44252</v>
+        <v>44298</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44252</v>
       </c>
@@ -3879,11 +4070,14 @@
       <c r="C102" t="s">
         <v>145</v>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44252</v>
       </c>
@@ -3894,24 +4088,30 @@
         <v>145</v>
       </c>
       <c r="J103" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>145</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
-        <v>44270</v>
-      </c>
-      <c r="B104" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" t="s">
-        <v>153</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44270</v>
       </c>
@@ -3922,12 +4122,12 @@
         <v>153</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>44277</v>
+        <v>44270</v>
       </c>
       <c r="B106" t="s">
         <v>98</v>
@@ -3936,27 +4136,24 @@
         <v>153</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" t="s">
+        <v>153</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
-        <v>44263</v>
-      </c>
-      <c r="B107" t="s">
-        <v>98</v>
-      </c>
-      <c r="C107" t="s">
-        <v>159</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44263</v>
       </c>
@@ -3964,16 +4161,17 @@
         <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
-      </c>
-      <c r="I108" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K108" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44263</v>
       </c>
@@ -3981,30 +4179,35 @@
         <v>98</v>
       </c>
       <c r="C109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" t="s">
+        <v>158</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
-        <v>44279</v>
-      </c>
-      <c r="B110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" t="s">
-        <v>169</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44279</v>
       </c>
@@ -4012,13 +4215,16 @@
         <v>98</v>
       </c>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44279</v>
       </c>
@@ -4026,13 +4232,16 @@
         <v>98</v>
       </c>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44279</v>
       </c>
@@ -4040,27 +4249,33 @@
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>44286</v>
+        <v>44279</v>
       </c>
       <c r="B114" t="s">
         <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44286</v>
       </c>
@@ -4068,13 +4283,13 @@
         <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44286</v>
       </c>
@@ -4082,13 +4297,13 @@
         <v>98</v>
       </c>
       <c r="C116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -4096,13 +4311,13 @@
         <v>98</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44286</v>
       </c>
@@ -4110,10 +4325,87 @@
         <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B119" t="s">
+        <v>98</v>
+      </c>
+      <c r="C119" t="s">
+        <v>174</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B120" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" t="s">
+        <v>174</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B121" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" t="s">
+        <v>187</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J123" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" t="s">
+        <v>197</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K125" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K126" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4156,46 +4448,83 @@
     <hyperlink ref="I98" r:id="rId36" xr:uid="{6B7CC321-23E7-4F66-B27D-6C52D0DA8062}"/>
     <hyperlink ref="I99" r:id="rId37" xr:uid="{F5971386-55A4-4874-AFC1-CE6BFE3BE0D2}"/>
     <hyperlink ref="I30" r:id="rId38" xr:uid="{120A8934-1C1C-4C23-A36A-F97DC157A69E}"/>
-    <hyperlink ref="J101" r:id="rId39" xr:uid="{513A3AA9-AA1F-4C03-AF2E-F14DED3ECC65}"/>
-    <hyperlink ref="J102" r:id="rId40" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin1-mbt/admin1.mbtiles" xr:uid="{18AC7F18-9EE7-4581-BFBE-5CF57CD695FE}"/>
-    <hyperlink ref="J103" r:id="rId41" xr:uid="{A45ACDC1-45DB-444C-B428-BCA24C29B86B}"/>
+    <hyperlink ref="J102" r:id="rId39" xr:uid="{513A3AA9-AA1F-4C03-AF2E-F14DED3ECC65}"/>
+    <hyperlink ref="J103" r:id="rId40" tooltip="https://itos-humanitarian.s3.amazonaws.com/v1/vectortile/cod_som/admin1-mbt/admin1.mbtiles" xr:uid="{18AC7F18-9EE7-4581-BFBE-5CF57CD695FE}"/>
+    <hyperlink ref="J104" r:id="rId41" xr:uid="{A45ACDC1-45DB-444C-B428-BCA24C29B86B}"/>
     <hyperlink ref="I96" r:id="rId42" xr:uid="{F90BA69E-6C14-4D26-ABFD-EF20878AEB9C}"/>
     <hyperlink ref="I95" r:id="rId43" xr:uid="{5A82F339-6264-4F39-AE15-FA7FFBAC907C}"/>
     <hyperlink ref="J81" r:id="rId44" xr:uid="{D4BBC823-40A4-4A73-847A-8D1873BC0B92}"/>
     <hyperlink ref="J80" r:id="rId45" xr:uid="{965B8E54-763E-4E9D-AAC2-BCE642A6A878}"/>
-    <hyperlink ref="B103" r:id="rId46" xr:uid="{599F6CD0-C69D-4ABB-8567-23ED1DB59E20}"/>
-    <hyperlink ref="J105" r:id="rId47" xr:uid="{AD49923C-F910-41D6-86C9-0DC254E12C8A}"/>
+    <hyperlink ref="B104" r:id="rId46" xr:uid="{599F6CD0-C69D-4ABB-8567-23ED1DB59E20}"/>
+    <hyperlink ref="J106" r:id="rId47" xr:uid="{AD49923C-F910-41D6-86C9-0DC254E12C8A}"/>
     <hyperlink ref="J82" r:id="rId48" xr:uid="{D87C3A18-70DF-4606-97E2-B2F84C02ED9F}"/>
-    <hyperlink ref="J106" r:id="rId49" xr:uid="{CFA0D774-2FE5-4305-926F-8E09628FE3AB}"/>
-    <hyperlink ref="J104" r:id="rId50" xr:uid="{CDB03A79-7D3C-460D-A2AB-90C30CBA57E4}"/>
+    <hyperlink ref="J107" r:id="rId49" xr:uid="{CFA0D774-2FE5-4305-926F-8E09628FE3AB}"/>
+    <hyperlink ref="J105" r:id="rId50" xr:uid="{CDB03A79-7D3C-460D-A2AB-90C30CBA57E4}"/>
     <hyperlink ref="J37" r:id="rId51" xr:uid="{0493E14A-1B2B-4424-A430-2117071E4EC7}"/>
-    <hyperlink ref="I107" r:id="rId52" xr:uid="{E944D18E-847B-423F-BF9F-F8BB93AF3D07}"/>
-    <hyperlink ref="I108" r:id="rId53" xr:uid="{37715D9F-84DF-4D5D-9848-1818386C4379}"/>
-    <hyperlink ref="I109" r:id="rId54" xr:uid="{EB6CF0CF-51AF-4E9A-B37C-0490B18EADBD}"/>
-    <hyperlink ref="J108" r:id="rId55" xr:uid="{88678C73-F4A8-4A69-9B41-80D0CE7F2AD9}"/>
-    <hyperlink ref="J109" r:id="rId56" xr:uid="{945F77D1-3F7C-4D0C-A976-5FC4F71A87B0}"/>
-    <hyperlink ref="J107" r:id="rId57" xr:uid="{06C799C9-20ED-4E72-9639-43493D084840}"/>
-    <hyperlink ref="J40" r:id="rId58" xr:uid="{40779BF6-9C1D-41BA-A286-46998783A915}"/>
-    <hyperlink ref="J39" r:id="rId59" xr:uid="{BF2D05A4-3F4F-45C4-8C8B-F1F89D96F9D9}"/>
-    <hyperlink ref="J38" r:id="rId60" xr:uid="{94B0A1C4-289A-4C81-8374-35A0C20C89C1}"/>
-    <hyperlink ref="I100" r:id="rId61" xr:uid="{150A8A27-BF6D-423F-85BB-13E5077C5669}"/>
-    <hyperlink ref="J111" r:id="rId62" xr:uid="{2CF0A001-E23E-47BD-AC0A-8A0DF5F20E25}"/>
-    <hyperlink ref="J112" r:id="rId63" xr:uid="{49C1B1B7-9259-4D04-8CE9-BED123DD8267}"/>
-    <hyperlink ref="J110" r:id="rId64" xr:uid="{FA9E234F-A985-4C99-91CB-F77A1F656912}"/>
-    <hyperlink ref="J113" r:id="rId65" xr:uid="{B85F5A08-4D4A-483A-9FC0-820A6F26E8A5}"/>
-    <hyperlink ref="B99" r:id="rId66" xr:uid="{5FC00C0B-D7E7-41D7-9F83-0CDE5FB769AC}"/>
-    <hyperlink ref="B92" r:id="rId67" xr:uid="{B497D3E8-D6F7-4CEF-B4A1-BAA1152AA073}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{74161493-D573-4EA1-A921-896E9E1329E0}"/>
-    <hyperlink ref="B96" r:id="rId69" xr:uid="{DC486FEF-6B6A-4C14-9F35-2FA42329A085}"/>
-    <hyperlink ref="I97" r:id="rId70" xr:uid="{D0257088-2312-4F11-9A19-0BC54A3ED99B}"/>
-    <hyperlink ref="J115" r:id="rId71" xr:uid="{FCCDFC19-142E-4ACF-8557-4D84C8E55905}"/>
-    <hyperlink ref="J117" r:id="rId72" xr:uid="{253AFA37-5C18-45EC-A081-08CD046E209F}"/>
-    <hyperlink ref="J114" r:id="rId73" xr:uid="{FFB1EB30-35D8-40FC-AC28-120E9D4EA50B}"/>
-    <hyperlink ref="J118" r:id="rId74" xr:uid="{6E287DD5-4B61-4A5A-A23C-B0061E2B7385}"/>
-    <hyperlink ref="J116" r:id="rId75" xr:uid="{18F2C76A-3AB8-4254-BF75-F4E008674394}"/>
+    <hyperlink ref="J109" r:id="rId52" xr:uid="{88678C73-F4A8-4A69-9B41-80D0CE7F2AD9}"/>
+    <hyperlink ref="J110" r:id="rId53" xr:uid="{945F77D1-3F7C-4D0C-A976-5FC4F71A87B0}"/>
+    <hyperlink ref="J108" r:id="rId54" xr:uid="{06C799C9-20ED-4E72-9639-43493D084840}"/>
+    <hyperlink ref="J40" r:id="rId55" xr:uid="{40779BF6-9C1D-41BA-A286-46998783A915}"/>
+    <hyperlink ref="J39" r:id="rId56" xr:uid="{BF2D05A4-3F4F-45C4-8C8B-F1F89D96F9D9}"/>
+    <hyperlink ref="J38" r:id="rId57" xr:uid="{94B0A1C4-289A-4C81-8374-35A0C20C89C1}"/>
+    <hyperlink ref="I100" r:id="rId58" xr:uid="{150A8A27-BF6D-423F-85BB-13E5077C5669}"/>
+    <hyperlink ref="J112" r:id="rId59" xr:uid="{2CF0A001-E23E-47BD-AC0A-8A0DF5F20E25}"/>
+    <hyperlink ref="J113" r:id="rId60" xr:uid="{49C1B1B7-9259-4D04-8CE9-BED123DD8267}"/>
+    <hyperlink ref="J111" r:id="rId61" xr:uid="{FA9E234F-A985-4C99-91CB-F77A1F656912}"/>
+    <hyperlink ref="J114" r:id="rId62" xr:uid="{B85F5A08-4D4A-483A-9FC0-820A6F26E8A5}"/>
+    <hyperlink ref="B99" r:id="rId63" xr:uid="{5FC00C0B-D7E7-41D7-9F83-0CDE5FB769AC}"/>
+    <hyperlink ref="B92" r:id="rId64" xr:uid="{B497D3E8-D6F7-4CEF-B4A1-BAA1152AA073}"/>
+    <hyperlink ref="B100" r:id="rId65" xr:uid="{74161493-D573-4EA1-A921-896E9E1329E0}"/>
+    <hyperlink ref="B96" r:id="rId66" xr:uid="{DC486FEF-6B6A-4C14-9F35-2FA42329A085}"/>
+    <hyperlink ref="I97" r:id="rId67" xr:uid="{D0257088-2312-4F11-9A19-0BC54A3ED99B}"/>
+    <hyperlink ref="J116" r:id="rId68" xr:uid="{FCCDFC19-142E-4ACF-8557-4D84C8E55905}"/>
+    <hyperlink ref="J120" r:id="rId69" xr:uid="{253AFA37-5C18-45EC-A081-08CD046E209F}"/>
+    <hyperlink ref="J115" r:id="rId70" xr:uid="{FFB1EB30-35D8-40FC-AC28-120E9D4EA50B}"/>
+    <hyperlink ref="J119" r:id="rId71" xr:uid="{6E287DD5-4B61-4A5A-A23C-B0061E2B7385}"/>
+    <hyperlink ref="J117" r:id="rId72" xr:uid="{18F2C76A-3AB8-4254-BF75-F4E008674394}"/>
+    <hyperlink ref="K108" r:id="rId73" xr:uid="{402CCA51-7F98-47D9-8829-B454DF1B89F7}"/>
+    <hyperlink ref="K109" r:id="rId74" xr:uid="{34F4E5E7-F503-4CA1-A494-6E942959B187}"/>
+    <hyperlink ref="K110" r:id="rId75" xr:uid="{8D267C7F-8E49-47A6-A308-CFF5CBF170C4}"/>
+    <hyperlink ref="K111" r:id="rId76" xr:uid="{3BD53969-2D37-4AF7-BF4D-05FEA5618AC8}"/>
+    <hyperlink ref="K112" r:id="rId77" xr:uid="{AD15FE32-7D55-40A9-A807-6406B928E011}"/>
+    <hyperlink ref="K113" r:id="rId78" xr:uid="{0CA86BB3-FA30-457C-85BC-6C4886A2D471}"/>
+    <hyperlink ref="K114" r:id="rId79" xr:uid="{7628FEFC-BC4F-4A27-8106-AE7DE93FEC84}"/>
+    <hyperlink ref="K119" r:id="rId80" xr:uid="{13FAF3D8-E262-4D69-950F-6EF92DD0DC73}"/>
+    <hyperlink ref="K120" r:id="rId81" xr:uid="{04536EB6-44A4-4E1B-B6FC-2A247BC2AF82}"/>
+    <hyperlink ref="B101" r:id="rId82" xr:uid="{2EC1E14B-E486-42A0-AF48-8011901A29EA}"/>
+    <hyperlink ref="I101" r:id="rId83" xr:uid="{99C2E917-1857-4F83-BD67-59B87C58482D}"/>
+    <hyperlink ref="K118" r:id="rId84" xr:uid="{93138F79-06FD-4F5C-94D6-142702BB72FF}"/>
+    <hyperlink ref="K27" r:id="rId85" xr:uid="{E337C9D7-016E-4D71-BE8D-384A8065FC13}"/>
+    <hyperlink ref="K28" r:id="rId86" xr:uid="{4E72D00A-4777-44EC-9AB7-E22DCDA85AA0}"/>
+    <hyperlink ref="K29" r:id="rId87" xr:uid="{A8C3F93F-2DB0-4D0A-9BD5-DC5F53E5D8CD}"/>
+    <hyperlink ref="K30" r:id="rId88" xr:uid="{426D28A6-A079-4817-8499-108EE733B7CA}"/>
+    <hyperlink ref="K125" r:id="rId89" xr:uid="{46C1E08E-6D9F-48DD-B267-6AD650890F54}"/>
+    <hyperlink ref="K126" r:id="rId90" xr:uid="{41905F37-9E79-4D28-9060-2B1DF1D1A7A6}"/>
+    <hyperlink ref="K124" r:id="rId91" xr:uid="{2ECDCAFC-0BA7-44A4-BC9C-A5412CEFB0B3}"/>
+    <hyperlink ref="K37" r:id="rId92" xr:uid="{773640F8-59E2-4CDC-A289-181E6CB1485A}"/>
+    <hyperlink ref="K38" r:id="rId93" xr:uid="{4FA22D46-F40C-4209-AD0E-2C29DB9E62B9}"/>
+    <hyperlink ref="K39" r:id="rId94" xr:uid="{0E936E58-B2FB-49E6-BAB4-77A8C880F1BD}"/>
+    <hyperlink ref="K40" r:id="rId95" xr:uid="{570A943D-3EDD-483D-A84A-1D06463044DF}"/>
+    <hyperlink ref="K80" r:id="rId96" xr:uid="{D2FDEFCA-1DA7-4F34-9CA9-AF1873AB81E0}"/>
+    <hyperlink ref="K81" r:id="rId97" xr:uid="{31177326-FA16-4819-AA76-2B8CA9E4489B}"/>
+    <hyperlink ref="K82" r:id="rId98" xr:uid="{676BA508-DF52-4E7A-822D-3F987C4CEA17}"/>
+    <hyperlink ref="K102" r:id="rId99" xr:uid="{7E7374A2-8F51-4023-BC0B-89218B35AB29}"/>
+    <hyperlink ref="K103" r:id="rId100" xr:uid="{6622811A-2E06-4F98-A93B-E126E4B41484}"/>
+    <hyperlink ref="K104" r:id="rId101" xr:uid="{B11ED906-3994-4C9C-A14A-7C0157AFF582}"/>
+    <hyperlink ref="K94" r:id="rId102" xr:uid="{9FF1B1BC-9C9D-4E19-B5A8-B5C1F2BA8782}"/>
+    <hyperlink ref="K95" r:id="rId103" xr:uid="{6D89302F-387C-4643-8AB5-158C91B068AB}"/>
+    <hyperlink ref="K96" r:id="rId104" xr:uid="{C3976E67-798E-4846-9730-9214C80D929F}"/>
+    <hyperlink ref="K97" r:id="rId105" xr:uid="{539127CF-D395-499F-9665-8766742FFAB2}"/>
+    <hyperlink ref="K98" r:id="rId106" xr:uid="{3334DDD0-5A3E-4445-9E05-5CC58345D6B7}"/>
+    <hyperlink ref="K99" r:id="rId107" xr:uid="{CCF9E870-A156-414E-A854-6B634357C424}"/>
+    <hyperlink ref="K100" r:id="rId108" xr:uid="{0E3D8422-7852-46C7-80B2-679C00ED4DC5}"/>
+    <hyperlink ref="K101" r:id="rId109" xr:uid="{90900B07-2349-47D8-A137-4A9A168BEF8E}"/>
+    <hyperlink ref="J97" r:id="rId110" xr:uid="{9F8F9CD0-E481-4585-B5C1-56D66B537054}"/>
+    <hyperlink ref="J123" r:id="rId111" xr:uid="{9DF99CEA-FA5A-4A14-8718-DFF4AFC71F72}"/>
+    <hyperlink ref="J121" r:id="rId112" xr:uid="{1747AE8D-31CB-4FAA-ADB0-DB3C420CFD8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId76"/>
-  <legacyDrawing r:id="rId77"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId113"/>
+  <legacyDrawing r:id="rId114"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5E41B6-2960-45F3-83F0-CF7F2CAA4FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710443EC-A5FA-4892-8B96-9D4B9F93DA0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44360" yWindow="2250" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294961103" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294938430" uniqueCount="225">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -733,7 +733,16 @@
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin2-MBT/Admin2.mbtiles</t>
   </si>
   <si>
-    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin0-MBT/Admin0.mbtiles</t>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin0-MBT/Admin0.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J88" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="I97" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3951,6 +3960,9 @@
       <c r="I95" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="J95" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="K95" s="1" t="s">
         <v>212</v>
       </c>
@@ -4375,11 +4387,32 @@
       <c r="C121" t="s">
         <v>187</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B122" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" t="s">
+        <v>187</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" t="s">
+        <v>187</v>
+      </c>
       <c r="J123" s="1" t="s">
         <v>220</v>
       </c>
@@ -4399,14 +4432,49 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" t="s">
+        <v>197</v>
+      </c>
       <c r="K125" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" t="s">
+        <v>197</v>
+      </c>
       <c r="K126" s="1" t="s">
         <v>200</v>
       </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B127" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" t="s">
+        <v>223</v>
+      </c>
+      <c r="J127" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J128" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4521,10 +4589,11 @@
     <hyperlink ref="K101" r:id="rId109" xr:uid="{90900B07-2349-47D8-A137-4A9A168BEF8E}"/>
     <hyperlink ref="J97" r:id="rId110" xr:uid="{9F8F9CD0-E481-4585-B5C1-56D66B537054}"/>
     <hyperlink ref="J123" r:id="rId111" xr:uid="{9DF99CEA-FA5A-4A14-8718-DFF4AFC71F72}"/>
-    <hyperlink ref="J121" r:id="rId112" xr:uid="{1747AE8D-31CB-4FAA-ADB0-DB3C420CFD8B}"/>
+    <hyperlink ref="J122" r:id="rId112" xr:uid="{9FD0A0C6-8B1F-4661-B51C-FEB9AE37B405}"/>
+    <hyperlink ref="J95" r:id="rId113" xr:uid="{FA00176D-5402-4446-B65A-B43007162792}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId113"/>
-  <legacyDrawing r:id="rId114"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>
+  <legacyDrawing r:id="rId115"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710443EC-A5FA-4892-8B96-9D4B9F93DA0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C6E07-63F7-48AF-9845-57DF0CAB02FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44360" yWindow="2250" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40710" yWindow="2940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294938430" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294934942" uniqueCount="227">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -733,6 +733,9 @@
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin2-MBT/Admin2.mbtiles</t>
   </si>
   <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin1-MBT/Admin1.mbtiles</t>
   </si>
   <si>
@@ -743,6 +746,9 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin1-MBT/Admin1.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I97" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD127"/>
+    <sheetView tabSelected="1" topLeftCell="I94" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3961,7 +3967,7 @@
         <v>150</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>212</v>
@@ -4387,7 +4393,9 @@
       <c r="C121" t="s">
         <v>187</v>
       </c>
-      <c r="J121" s="1"/>
+      <c r="J121" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
@@ -4400,7 +4408,7 @@
         <v>187</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
@@ -4467,14 +4475,16 @@
         <v>98</v>
       </c>
       <c r="C127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J128" s="1"/>
+      <c r="J128" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4591,9 +4601,11 @@
     <hyperlink ref="J123" r:id="rId111" xr:uid="{9DF99CEA-FA5A-4A14-8718-DFF4AFC71F72}"/>
     <hyperlink ref="J122" r:id="rId112" xr:uid="{9FD0A0C6-8B1F-4661-B51C-FEB9AE37B405}"/>
     <hyperlink ref="J95" r:id="rId113" xr:uid="{FA00176D-5402-4446-B65A-B43007162792}"/>
+    <hyperlink ref="J121" r:id="rId114" xr:uid="{15DD637F-6103-4E05-84FE-B327117E22C7}"/>
+    <hyperlink ref="J128" r:id="rId115" xr:uid="{159975E2-675C-4863-9CE4-67ADADA55976}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>
-  <legacyDrawing r:id="rId115"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId116"/>
+  <legacyDrawing r:id="rId117"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C6E07-63F7-48AF-9845-57DF0CAB02FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76B21D-FB6A-42DE-9E57-4EC778CBD0A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40710" yWindow="2940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44360" yWindow="2250" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294934942" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294960433" uniqueCount="232">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -745,10 +745,25 @@
     <t>PSE</t>
   </si>
   <si>
-    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin0-MBT/Admin0.mbtiles</t>
-  </si>
-  <si>
-    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin1-MBT/Admin1.mbtiles</t>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin0/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin2/metadata.json</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/2/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I94" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="J81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4477,13 +4492,80 @@
       <c r="C127" t="s">
         <v>224</v>
       </c>
-      <c r="J127" t="s">
+      <c r="I127" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J128" s="1" t="s">
+      <c r="A128" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B128" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" t="s">
+        <v>224</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>226</v>
+      </c>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B129" t="s">
+        <v>98</v>
+      </c>
+      <c r="C129" t="s">
+        <v>224</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B130" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" t="s">
+        <v>228</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" t="s">
+        <v>228</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" t="s">
+        <v>228</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4602,10 +4684,15 @@
     <hyperlink ref="J122" r:id="rId112" xr:uid="{9FD0A0C6-8B1F-4661-B51C-FEB9AE37B405}"/>
     <hyperlink ref="J95" r:id="rId113" xr:uid="{FA00176D-5402-4446-B65A-B43007162792}"/>
     <hyperlink ref="J121" r:id="rId114" xr:uid="{15DD637F-6103-4E05-84FE-B327117E22C7}"/>
-    <hyperlink ref="J128" r:id="rId115" xr:uid="{159975E2-675C-4863-9CE4-67ADADA55976}"/>
+    <hyperlink ref="I129" r:id="rId115" xr:uid="{1D18298C-5748-4B8D-A409-8DF4A2B10270}"/>
+    <hyperlink ref="I128" r:id="rId116" xr:uid="{73EFE52F-67BF-4688-8A3C-95F5BAF89D0E}"/>
+    <hyperlink ref="I127" r:id="rId117" xr:uid="{813F65DE-0FB0-400D-ABBA-AE8427594C11}"/>
+    <hyperlink ref="K131" r:id="rId118" xr:uid="{554C13A0-DEA3-4CD5-AA98-85FE4C2F138E}"/>
+    <hyperlink ref="K132" r:id="rId119" xr:uid="{97969E1D-C98B-470C-9153-4A80D88F2024}"/>
+    <hyperlink ref="K130" r:id="rId120" xr:uid="{A2F4596B-74A2-4551-A3E7-FE1AFFD01F71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId116"/>
-  <legacyDrawing r:id="rId117"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
+  <legacyDrawing r:id="rId122"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76B21D-FB6A-42DE-9E57-4EC778CBD0A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B182A7C8-0A2A-4940-A898-359ACBEB2382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44360" yWindow="2250" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294960433" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294939146" uniqueCount="234">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -764,6 +764,12 @@
   </si>
   <si>
     <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView tabSelected="1" topLeftCell="I87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3964,6 +3970,9 @@
       <c r="I94" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="J94" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="K94" s="1" t="s">
         <v>211</v>
       </c>
@@ -4000,6 +4009,9 @@
       </c>
       <c r="I96" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>213</v>
@@ -4690,9 +4702,11 @@
     <hyperlink ref="K131" r:id="rId118" xr:uid="{554C13A0-DEA3-4CD5-AA98-85FE4C2F138E}"/>
     <hyperlink ref="K132" r:id="rId119" xr:uid="{97969E1D-C98B-470C-9153-4A80D88F2024}"/>
     <hyperlink ref="K130" r:id="rId120" xr:uid="{A2F4596B-74A2-4551-A3E7-FE1AFFD01F71}"/>
+    <hyperlink ref="J94" r:id="rId121" xr:uid="{DC78C57A-75EC-4426-A8F3-BF413DBB42D0}"/>
+    <hyperlink ref="J96" r:id="rId122" xr:uid="{75066307-3E9B-43F3-BA1B-B0E74B5F58E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
-  <legacyDrawing r:id="rId122"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId123"/>
+  <legacyDrawing r:id="rId124"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B182A7C8-0A2A-4940-A898-359ACBEB2382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0169955A-DD21-4E46-8B2C-796AEC761636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44360" yWindow="2250" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294939146" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="239">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -770,6 +770,21 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MYS/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MYS/Admin1-MBT/Admin1.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="G82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4578,6 +4593,48 @@
       </c>
       <c r="K132" s="1" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" t="s">
+        <v>234</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" t="s">
+        <v>236</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B137" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" t="s">
+        <v>236</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4704,9 +4761,12 @@
     <hyperlink ref="K130" r:id="rId120" xr:uid="{A2F4596B-74A2-4551-A3E7-FE1AFFD01F71}"/>
     <hyperlink ref="J94" r:id="rId121" xr:uid="{DC78C57A-75EC-4426-A8F3-BF413DBB42D0}"/>
     <hyperlink ref="J96" r:id="rId122" xr:uid="{75066307-3E9B-43F3-BA1B-B0E74B5F58E6}"/>
+    <hyperlink ref="J133" r:id="rId123" xr:uid="{3D5A927C-F34B-4B4C-BD09-A6537A00D1DC}"/>
+    <hyperlink ref="J136" r:id="rId124" xr:uid="{70B1F973-518F-4BE3-9763-19DD24C304DA}"/>
+    <hyperlink ref="J137" r:id="rId125" xr:uid="{489BF63B-60D5-43B4-87DA-0D38C9D26FE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId123"/>
-  <legacyDrawing r:id="rId124"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId126"/>
+  <legacyDrawing r:id="rId127"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0169955A-DD21-4E46-8B2C-796AEC761636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708FE32-1A07-4473-884A-D633291F35B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40240" yWindow="720" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -785,6 +785,27 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MYS/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin0/metadata.json</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MDV/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MDV/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MDV/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MDV/Admin3-MBT/Admin3.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1171,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+    <sheetView tabSelected="1" topLeftCell="H100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4609,6 +4630,34 @@
         <v>235</v>
       </c>
     </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>234</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" t="s">
+        <v>234</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44312</v>
@@ -4635,6 +4684,44 @@
       </c>
       <c r="J137" s="1" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B139" t="s">
+        <v>98</v>
+      </c>
+      <c r="C139" t="s">
+        <v>241</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" t="s">
+        <v>241</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J141" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J142" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4764,9 +4851,15 @@
     <hyperlink ref="J133" r:id="rId123" xr:uid="{3D5A927C-F34B-4B4C-BD09-A6537A00D1DC}"/>
     <hyperlink ref="J136" r:id="rId124" xr:uid="{70B1F973-518F-4BE3-9763-19DD24C304DA}"/>
     <hyperlink ref="J137" r:id="rId125" xr:uid="{489BF63B-60D5-43B4-87DA-0D38C9D26FE1}"/>
+    <hyperlink ref="I135" r:id="rId126" xr:uid="{A07053FD-E732-4F48-8526-1F98698F081C}"/>
+    <hyperlink ref="I134" r:id="rId127" xr:uid="{D78755E2-4AC2-4FA4-9D8E-527995BF8784}"/>
+    <hyperlink ref="J139" r:id="rId128" xr:uid="{1E96F47D-7775-45F6-8194-88D2DC7B6BE7}"/>
+    <hyperlink ref="J140" r:id="rId129" xr:uid="{D480B3DE-F126-4076-8DA1-D62F44DAF445}"/>
+    <hyperlink ref="J141" r:id="rId130" xr:uid="{F600187F-300D-4D4B-B131-DC4F226C531D}"/>
+    <hyperlink ref="J142" r:id="rId131" xr:uid="{8D93FF6E-6609-4240-BE79-362302BF07F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId126"/>
-  <legacyDrawing r:id="rId127"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId132"/>
+  <legacyDrawing r:id="rId133"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708FE32-1A07-4473-884A-D633291F35B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C8977E-6F46-4562-AE07-378157CEEB3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40240" yWindow="720" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39420" yWindow="2140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="248">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -806,6 +806,12 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MDV/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin1-MBT/Admin1.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1201,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4643,6 +4649,9 @@
       <c r="I134" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="J134" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
@@ -4657,6 +4666,9 @@
       <c r="I135" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="J135" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
@@ -4715,11 +4727,29 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B141" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" t="s">
+        <v>241</v>
+      </c>
       <c r="J141" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B142" t="s">
+        <v>98</v>
+      </c>
+      <c r="C142" t="s">
+        <v>241</v>
+      </c>
       <c r="J142" s="1" t="s">
         <v>245</v>
       </c>
@@ -4857,9 +4887,11 @@
     <hyperlink ref="J140" r:id="rId129" xr:uid="{D480B3DE-F126-4076-8DA1-D62F44DAF445}"/>
     <hyperlink ref="J141" r:id="rId130" xr:uid="{F600187F-300D-4D4B-B131-DC4F226C531D}"/>
     <hyperlink ref="J142" r:id="rId131" xr:uid="{8D93FF6E-6609-4240-BE79-362302BF07F9}"/>
+    <hyperlink ref="J134" r:id="rId132" xr:uid="{7F081491-848B-4AED-8C20-4EAE3C2226FD}"/>
+    <hyperlink ref="J135" r:id="rId133" xr:uid="{187D1FF6-F523-4D3B-931F-3E277957104D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId132"/>
-  <legacyDrawing r:id="rId133"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId134"/>
+  <legacyDrawing r:id="rId135"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C8977E-6F46-4562-AE07-378157CEEB3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C849A8-B8F1-4AE7-AF77-A9C3227F7D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="2140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1030" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -812,6 +812,12 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MYS/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin2/metadata.json</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="I100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4680,6 +4686,9 @@
       <c r="C136" t="s">
         <v>236</v>
       </c>
+      <c r="I136" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="J136" s="1" t="s">
         <v>238</v>
       </c>
@@ -4696,6 +4705,11 @@
       </c>
       <c r="J137" s="1" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J138" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
@@ -4889,9 +4903,11 @@
     <hyperlink ref="J142" r:id="rId131" xr:uid="{8D93FF6E-6609-4240-BE79-362302BF07F9}"/>
     <hyperlink ref="J134" r:id="rId132" xr:uid="{7F081491-848B-4AED-8C20-4EAE3C2226FD}"/>
     <hyperlink ref="J135" r:id="rId133" xr:uid="{187D1FF6-F523-4D3B-931F-3E277957104D}"/>
+    <hyperlink ref="J138" r:id="rId134" xr:uid="{B08774B7-F620-4BF1-AFE8-4CA417D4EA1A}"/>
+    <hyperlink ref="I136" r:id="rId135" xr:uid="{10A13B28-645C-43F2-9350-6CA04D7F3FAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId134"/>
-  <legacyDrawing r:id="rId135"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId136"/>
+  <legacyDrawing r:id="rId137"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C849A8-B8F1-4AE7-AF77-A9C3227F7D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E258A0-06F6-496A-943F-4CA5D1058686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1030" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39430" yWindow="1770" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="253">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -818,6 +818,15 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_NIC/Admin2/metadata.json</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KHM/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin0-MBT/Admin0.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1765,7 +1774,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.kml</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="3"/>
+        <f>$B18&amp;"/"&amp;$C18&amp;"/"&amp;$D18&amp;$H$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.csv</v>
       </c>
     </row>
@@ -4420,6 +4429,9 @@
       <c r="C118" t="s">
         <v>174</v>
       </c>
+      <c r="J118" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="K118" s="1" t="s">
         <v>190</v>
       </c>
@@ -4638,6 +4650,9 @@
       <c r="C133" t="s">
         <v>234</v>
       </c>
+      <c r="I133" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="J133" s="1" t="s">
         <v>235</v>
       </c>
@@ -4653,7 +4668,7 @@
         <v>234</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>247</v>
@@ -4670,7 +4685,7 @@
         <v>234</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>246</v>
@@ -4686,9 +4701,6 @@
       <c r="C136" t="s">
         <v>236</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J136" s="1" t="s">
         <v>238</v>
       </c>
@@ -4708,6 +4720,15 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138" t="s">
+        <v>236</v>
+      </c>
       <c r="J138" s="1" t="s">
         <v>248</v>
       </c>
@@ -4766,6 +4787,20 @@
       </c>
       <c r="J142" s="1" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B143" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" t="s">
+        <v>250</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4895,8 +4930,8 @@
     <hyperlink ref="J133" r:id="rId123" xr:uid="{3D5A927C-F34B-4B4C-BD09-A6537A00D1DC}"/>
     <hyperlink ref="J136" r:id="rId124" xr:uid="{70B1F973-518F-4BE3-9763-19DD24C304DA}"/>
     <hyperlink ref="J137" r:id="rId125" xr:uid="{489BF63B-60D5-43B4-87DA-0D38C9D26FE1}"/>
-    <hyperlink ref="I135" r:id="rId126" xr:uid="{A07053FD-E732-4F48-8526-1F98698F081C}"/>
-    <hyperlink ref="I134" r:id="rId127" xr:uid="{D78755E2-4AC2-4FA4-9D8E-527995BF8784}"/>
+    <hyperlink ref="I134" r:id="rId126" xr:uid="{A07053FD-E732-4F48-8526-1F98698F081C}"/>
+    <hyperlink ref="I133" r:id="rId127" xr:uid="{D78755E2-4AC2-4FA4-9D8E-527995BF8784}"/>
     <hyperlink ref="J139" r:id="rId128" xr:uid="{1E96F47D-7775-45F6-8194-88D2DC7B6BE7}"/>
     <hyperlink ref="J140" r:id="rId129" xr:uid="{D480B3DE-F126-4076-8DA1-D62F44DAF445}"/>
     <hyperlink ref="J141" r:id="rId130" xr:uid="{F600187F-300D-4D4B-B131-DC4F226C531D}"/>
@@ -4904,10 +4939,12 @@
     <hyperlink ref="J134" r:id="rId132" xr:uid="{7F081491-848B-4AED-8C20-4EAE3C2226FD}"/>
     <hyperlink ref="J135" r:id="rId133" xr:uid="{187D1FF6-F523-4D3B-931F-3E277957104D}"/>
     <hyperlink ref="J138" r:id="rId134" xr:uid="{B08774B7-F620-4BF1-AFE8-4CA417D4EA1A}"/>
-    <hyperlink ref="I136" r:id="rId135" xr:uid="{10A13B28-645C-43F2-9350-6CA04D7F3FAA}"/>
+    <hyperlink ref="I135" r:id="rId135" xr:uid="{10A13B28-645C-43F2-9350-6CA04D7F3FAA}"/>
+    <hyperlink ref="J143" r:id="rId136" xr:uid="{6BA94870-1795-4132-A26A-A2A213E401A7}"/>
+    <hyperlink ref="J118" r:id="rId137" xr:uid="{3FD6418A-59A2-4D05-A7EB-B901B342FB6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId136"/>
-  <legacyDrawing r:id="rId137"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId138"/>
+  <legacyDrawing r:id="rId139"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E258A0-06F6-496A-943F-4CA5D1058686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF31F6E-68A6-42FE-9105-210C9E029C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39430" yWindow="1770" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2330" yWindow="2580" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="259">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -827,6 +827,24 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COL/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KHM/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KHM/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView tabSelected="1" topLeftCell="I115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4107,6 +4125,9 @@
       <c r="I98" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="J98" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="K98" s="1" t="s">
         <v>215</v>
       </c>
@@ -4801,6 +4822,43 @@
       </c>
       <c r="J143" s="1" t="s">
         <v>251</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B144" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" t="s">
+        <v>250</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B145" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" t="s">
+        <v>250</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4942,9 +5000,15 @@
     <hyperlink ref="I135" r:id="rId135" xr:uid="{10A13B28-645C-43F2-9350-6CA04D7F3FAA}"/>
     <hyperlink ref="J143" r:id="rId136" xr:uid="{6BA94870-1795-4132-A26A-A2A213E401A7}"/>
     <hyperlink ref="J118" r:id="rId137" xr:uid="{3FD6418A-59A2-4D05-A7EB-B901B342FB6A}"/>
+    <hyperlink ref="J98" r:id="rId138" xr:uid="{26770539-66D6-44FC-9503-2D2AE2154AE9}"/>
+    <hyperlink ref="J144" r:id="rId139" xr:uid="{3293E3FD-AA84-4E3C-A9B2-98937D1BE16B}"/>
+    <hyperlink ref="K143" r:id="rId140" xr:uid="{2E962C8A-18CE-4B3C-828F-FE9AA2273475}"/>
+    <hyperlink ref="K144" r:id="rId141" xr:uid="{F34676E9-097B-459E-9FEC-C7532623DBFC}"/>
+    <hyperlink ref="K145" r:id="rId142" xr:uid="{FF060BDC-822F-4E5D-AA16-4B9904050AD2}"/>
+    <hyperlink ref="J145" r:id="rId143" xr:uid="{77F9D874-BCD2-49CB-8F54-0A9E182FB66E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId138"/>
-  <legacyDrawing r:id="rId139"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId144"/>
+  <legacyDrawing r:id="rId145"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF31F6E-68A6-42FE-9105-210C9E029C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F715B8D-2977-4B85-BD79-0A9B052B5C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2330" yWindow="2580" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="3860" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="262">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -845,6 +846,15 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KHM/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DZA/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SAU/Admin0-MBT/Admin0.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="I110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4621,13 +4631,16 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
-        <v>44305</v>
+        <v>44349</v>
       </c>
       <c r="B130" t="s">
         <v>98</v>
       </c>
       <c r="C130" t="s">
         <v>228</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>229</v>
@@ -4859,6 +4872,20 @@
       </c>
       <c r="K145" s="1" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B146" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146" t="s">
+        <v>260</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5006,9 +5033,11 @@
     <hyperlink ref="K144" r:id="rId141" xr:uid="{F34676E9-097B-459E-9FEC-C7532623DBFC}"/>
     <hyperlink ref="K145" r:id="rId142" xr:uid="{FF060BDC-822F-4E5D-AA16-4B9904050AD2}"/>
     <hyperlink ref="J145" r:id="rId143" xr:uid="{77F9D874-BCD2-49CB-8F54-0A9E182FB66E}"/>
+    <hyperlink ref="J130" r:id="rId144" xr:uid="{6D5ED7A7-6A8E-4D1F-8C21-BB5EB8CF7254}"/>
+    <hyperlink ref="J146" r:id="rId145" xr:uid="{9681BF45-1848-42D9-BFCE-706E6B2FB901}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId144"/>
-  <legacyDrawing r:id="rId145"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId146"/>
+  <legacyDrawing r:id="rId147"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F715B8D-2977-4B85-BD79-0A9B052B5C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5EC60D-EB92-4E33-8AB4-C9229F8B7E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="3860" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="271">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -548,15 +548,6 @@
     <t>MNG</t>
   </si>
   <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MNG/Admin0-MBT/Admin0.mbtiles</t>
   </si>
   <si>
@@ -620,114 +611,18 @@
     <t>Dynamic Vectortiles (ocha-dap/gisrestapi or PGRestAPI)</t>
   </si>
   <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin3/metadata.json</t>
   </si>
   <si>
     <t>VEN</t>
   </si>
   <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/3/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/3/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_IRQ/Admin-MBT/Admin0.mbtiles</t>
   </si>
   <si>
     <t>GHA</t>
   </si>
   <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/3/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/3/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/3/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin3-MBT/Admin3.mbtiles</t>
   </si>
   <si>
@@ -758,15 +653,6 @@
     <t>DZA</t>
   </si>
   <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SYR/Admin0-MBT/Admin0.mbtiles</t>
   </si>
   <si>
@@ -836,15 +722,6 @@
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KHM/Admin1-MBT/Admin1.mbtiles</t>
   </si>
   <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/0/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/1/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
-    <t>http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/2/{z}/{x}/{y}.pbf</t>
-  </si>
-  <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_KHM/Admin2-MBT/Admin2.mbtiles</t>
   </si>
   <si>
@@ -855,6 +732,156 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SAU/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COD/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COD/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COD/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COD/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COD/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_YEM/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/NIC/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/NIC/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/NIC/versions/current/2/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView tabSelected="1" topLeftCell="J111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1293,7 +1320,7 @@
         <v>144</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1775,6 +1802,12 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin0.csv</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -1805,6 +1838,12 @@
         <f>$B18&amp;"/"&amp;$C18&amp;"/"&amp;$D18&amp;$H$1</f>
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin1.csv</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
@@ -1835,6 +1874,9 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.csv</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
@@ -2079,7 +2121,7 @@
         <v>132</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2115,7 +2157,7 @@
         <v>133</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2151,7 +2193,7 @@
         <v>134</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2190,7 +2232,7 @@
         <v>138</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2403,10 +2445,10 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin0.csv</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2439,10 +2481,10 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin1.csv</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2475,10 +2517,10 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin2.csv</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2511,10 +2553,10 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRQ/COD_IRQ_Admin3.csv</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -3699,7 +3741,7 @@
         <v>152</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -3735,7 +3777,7 @@
         <v>151</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -3771,7 +3813,7 @@
         <v>155</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -4056,10 +4098,10 @@
         <v>136</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -4076,10 +4118,10 @@
         <v>150</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -4096,10 +4138,10 @@
         <v>149</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -4113,13 +4155,13 @@
         <v>137</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -4136,10 +4178,10 @@
         <v>140</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -4155,8 +4197,11 @@
       <c r="I99" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="J99" t="s">
+        <v>215</v>
+      </c>
       <c r="K99" s="1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -4170,10 +4215,13 @@
         <v>139</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -4187,10 +4235,10 @@
         <v>139</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -4207,7 +4255,7 @@
         <v>146</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -4224,7 +4272,7 @@
         <v>147</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -4241,7 +4289,7 @@
         <v>148</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -4298,10 +4346,10 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
@@ -4316,10 +4364,10 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
@@ -4334,10 +4382,10 @@
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -4348,13 +4396,13 @@
         <v>98</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
@@ -4365,13 +4413,13 @@
         <v>98</v>
       </c>
       <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="K112" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -4382,13 +4430,13 @@
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -4399,13 +4447,13 @@
         <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -4416,10 +4464,10 @@
         <v>98</v>
       </c>
       <c r="C115" t="s">
+        <v>170</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -4430,10 +4478,10 @@
         <v>98</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
@@ -4444,10 +4492,10 @@
         <v>98</v>
       </c>
       <c r="C117" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
@@ -4458,13 +4506,13 @@
         <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -4475,13 +4523,13 @@
         <v>98</v>
       </c>
       <c r="C119" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -4492,13 +4540,13 @@
         <v>98</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -4509,10 +4557,10 @@
         <v>98</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -4523,10 +4571,10 @@
         <v>98</v>
       </c>
       <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
@@ -4537,10 +4585,10 @@
         <v>98</v>
       </c>
       <c r="C123" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -4551,10 +4599,10 @@
         <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
@@ -4565,10 +4613,10 @@
         <v>98</v>
       </c>
       <c r="C125" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
@@ -4579,10 +4627,10 @@
         <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
@@ -4593,10 +4641,10 @@
         <v>98</v>
       </c>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
@@ -4607,10 +4655,10 @@
         <v>98</v>
       </c>
       <c r="C128" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="J128" s="1"/>
     </row>
@@ -4622,10 +4670,10 @@
         <v>98</v>
       </c>
       <c r="C129" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="J129" s="1"/>
     </row>
@@ -4637,13 +4685,10 @@
         <v>98</v>
       </c>
       <c r="C130" t="s">
-        <v>228</v>
-      </c>
-      <c r="J130" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K130" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -4654,10 +4699,13 @@
         <v>98</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>193</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
@@ -4668,10 +4716,10 @@
         <v>98</v>
       </c>
       <c r="C132" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
@@ -4682,13 +4730,16 @@
         <v>98</v>
       </c>
       <c r="C133" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
@@ -4699,13 +4750,16 @@
         <v>98</v>
       </c>
       <c r="C134" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>247</v>
+        <v>209</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
@@ -4716,13 +4770,16 @@
         <v>98</v>
       </c>
       <c r="C135" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
@@ -4733,10 +4790,10 @@
         <v>98</v>
       </c>
       <c r="C136" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
@@ -4747,10 +4804,10 @@
         <v>98</v>
       </c>
       <c r="C137" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
@@ -4761,10 +4818,10 @@
         <v>98</v>
       </c>
       <c r="C138" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
@@ -4775,10 +4832,10 @@
         <v>98</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
@@ -4789,10 +4846,10 @@
         <v>98</v>
       </c>
       <c r="C140" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
@@ -4803,10 +4860,10 @@
         <v>98</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
@@ -4817,10 +4874,10 @@
         <v>98</v>
       </c>
       <c r="C142" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
@@ -4831,13 +4888,13 @@
         <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
@@ -4848,13 +4905,13 @@
         <v>98</v>
       </c>
       <c r="C144" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
@@ -4865,13 +4922,13 @@
         <v>98</v>
       </c>
       <c r="C145" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
@@ -4882,10 +4939,10 @@
         <v>98</v>
       </c>
       <c r="C146" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4962,43 +5019,43 @@
     <hyperlink ref="J115" r:id="rId70" xr:uid="{FFB1EB30-35D8-40FC-AC28-120E9D4EA50B}"/>
     <hyperlink ref="J119" r:id="rId71" xr:uid="{6E287DD5-4B61-4A5A-A23C-B0061E2B7385}"/>
     <hyperlink ref="J117" r:id="rId72" xr:uid="{18F2C76A-3AB8-4254-BF75-F4E008674394}"/>
-    <hyperlink ref="K108" r:id="rId73" xr:uid="{402CCA51-7F98-47D9-8829-B454DF1B89F7}"/>
-    <hyperlink ref="K109" r:id="rId74" xr:uid="{34F4E5E7-F503-4CA1-A494-6E942959B187}"/>
-    <hyperlink ref="K110" r:id="rId75" xr:uid="{8D267C7F-8E49-47A6-A308-CFF5CBF170C4}"/>
-    <hyperlink ref="K111" r:id="rId76" xr:uid="{3BD53969-2D37-4AF7-BF4D-05FEA5618AC8}"/>
-    <hyperlink ref="K112" r:id="rId77" xr:uid="{AD15FE32-7D55-40A9-A807-6406B928E011}"/>
-    <hyperlink ref="K113" r:id="rId78" xr:uid="{0CA86BB3-FA30-457C-85BC-6C4886A2D471}"/>
-    <hyperlink ref="K114" r:id="rId79" xr:uid="{7628FEFC-BC4F-4A27-8106-AE7DE93FEC84}"/>
-    <hyperlink ref="K119" r:id="rId80" xr:uid="{13FAF3D8-E262-4D69-950F-6EF92DD0DC73}"/>
-    <hyperlink ref="K120" r:id="rId81" xr:uid="{04536EB6-44A4-4E1B-B6FC-2A247BC2AF82}"/>
+    <hyperlink ref="K108" r:id="rId73" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{402CCA51-7F98-47D9-8829-B454DF1B89F7}"/>
+    <hyperlink ref="K109" r:id="rId74" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{34F4E5E7-F503-4CA1-A494-6E942959B187}"/>
+    <hyperlink ref="K110" r:id="rId75" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MNG/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{8D267C7F-8E49-47A6-A308-CFF5CBF170C4}"/>
+    <hyperlink ref="K111" r:id="rId76" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{3BD53969-2D37-4AF7-BF4D-05FEA5618AC8}"/>
+    <hyperlink ref="K112" r:id="rId77" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{AD15FE32-7D55-40A9-A807-6406B928E011}"/>
+    <hyperlink ref="K113" r:id="rId78" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{0CA86BB3-FA30-457C-85BC-6C4886A2D471}"/>
+    <hyperlink ref="K114" r:id="rId79" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KGZ/versions/current/3/{z}/{x}/{y}.pbf" xr:uid="{7628FEFC-BC4F-4A27-8106-AE7DE93FEC84}"/>
+    <hyperlink ref="K119" r:id="rId80" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{13FAF3D8-E262-4D69-950F-6EF92DD0DC73}"/>
+    <hyperlink ref="K120" r:id="rId81" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{04536EB6-44A4-4E1B-B6FC-2A247BC2AF82}"/>
     <hyperlink ref="B101" r:id="rId82" xr:uid="{2EC1E14B-E486-42A0-AF48-8011901A29EA}"/>
     <hyperlink ref="I101" r:id="rId83" xr:uid="{99C2E917-1857-4F83-BD67-59B87C58482D}"/>
-    <hyperlink ref="K118" r:id="rId84" xr:uid="{93138F79-06FD-4F5C-94D6-142702BB72FF}"/>
-    <hyperlink ref="K27" r:id="rId85" xr:uid="{E337C9D7-016E-4D71-BE8D-384A8065FC13}"/>
-    <hyperlink ref="K28" r:id="rId86" xr:uid="{4E72D00A-4777-44EC-9AB7-E22DCDA85AA0}"/>
-    <hyperlink ref="K29" r:id="rId87" xr:uid="{A8C3F93F-2DB0-4D0A-9BD5-DC5F53E5D8CD}"/>
-    <hyperlink ref="K30" r:id="rId88" xr:uid="{426D28A6-A079-4817-8499-108EE733B7CA}"/>
-    <hyperlink ref="K125" r:id="rId89" xr:uid="{46C1E08E-6D9F-48DD-B267-6AD650890F54}"/>
-    <hyperlink ref="K126" r:id="rId90" xr:uid="{41905F37-9E79-4D28-9060-2B1DF1D1A7A6}"/>
-    <hyperlink ref="K124" r:id="rId91" xr:uid="{2ECDCAFC-0BA7-44A4-BC9C-A5412CEFB0B3}"/>
-    <hyperlink ref="K37" r:id="rId92" xr:uid="{773640F8-59E2-4CDC-A289-181E6CB1485A}"/>
-    <hyperlink ref="K38" r:id="rId93" xr:uid="{4FA22D46-F40C-4209-AD0E-2C29DB9E62B9}"/>
-    <hyperlink ref="K39" r:id="rId94" xr:uid="{0E936E58-B2FB-49E6-BAB4-77A8C880F1BD}"/>
-    <hyperlink ref="K40" r:id="rId95" xr:uid="{570A943D-3EDD-483D-A84A-1D06463044DF}"/>
-    <hyperlink ref="K80" r:id="rId96" xr:uid="{D2FDEFCA-1DA7-4F34-9CA9-AF1873AB81E0}"/>
-    <hyperlink ref="K81" r:id="rId97" xr:uid="{31177326-FA16-4819-AA76-2B8CA9E4489B}"/>
-    <hyperlink ref="K82" r:id="rId98" xr:uid="{676BA508-DF52-4E7A-822D-3F987C4CEA17}"/>
-    <hyperlink ref="K102" r:id="rId99" xr:uid="{7E7374A2-8F51-4023-BC0B-89218B35AB29}"/>
-    <hyperlink ref="K103" r:id="rId100" xr:uid="{6622811A-2E06-4F98-A93B-E126E4B41484}"/>
-    <hyperlink ref="K104" r:id="rId101" xr:uid="{B11ED906-3994-4C9C-A14A-7C0157AFF582}"/>
-    <hyperlink ref="K94" r:id="rId102" xr:uid="{9FF1B1BC-9C9D-4E19-B5A8-B5C1F2BA8782}"/>
-    <hyperlink ref="K95" r:id="rId103" xr:uid="{6D89302F-387C-4643-8AB5-158C91B068AB}"/>
-    <hyperlink ref="K96" r:id="rId104" xr:uid="{C3976E67-798E-4846-9730-9214C80D929F}"/>
-    <hyperlink ref="K97" r:id="rId105" xr:uid="{539127CF-D395-499F-9665-8766742FFAB2}"/>
-    <hyperlink ref="K98" r:id="rId106" xr:uid="{3334DDD0-5A3E-4445-9E05-5CC58345D6B7}"/>
-    <hyperlink ref="K99" r:id="rId107" xr:uid="{CCF9E870-A156-414E-A854-6B634357C424}"/>
-    <hyperlink ref="K100" r:id="rId108" xr:uid="{0E3D8422-7852-46C7-80B2-679C00ED4DC5}"/>
-    <hyperlink ref="K101" r:id="rId109" xr:uid="{90900B07-2349-47D8-A137-4A9A168BEF8E}"/>
+    <hyperlink ref="K118" r:id="rId84" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/COL/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{93138F79-06FD-4F5C-94D6-142702BB72FF}"/>
+    <hyperlink ref="K27" r:id="rId85" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{E337C9D7-016E-4D71-BE8D-384A8065FC13}"/>
+    <hyperlink ref="K28" r:id="rId86" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{4E72D00A-4777-44EC-9AB7-E22DCDA85AA0}"/>
+    <hyperlink ref="K29" r:id="rId87" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{A8C3F93F-2DB0-4D0A-9BD5-DC5F53E5D8CD}"/>
+    <hyperlink ref="K30" r:id="rId88" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/3/{z}/{x}/{y}.pbf" xr:uid="{426D28A6-A079-4817-8499-108EE733B7CA}"/>
+    <hyperlink ref="K125" r:id="rId89" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{46C1E08E-6D9F-48DD-B267-6AD650890F54}"/>
+    <hyperlink ref="K126" r:id="rId90" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{41905F37-9E79-4D28-9060-2B1DF1D1A7A6}"/>
+    <hyperlink ref="K124" r:id="rId91" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{2ECDCAFC-0BA7-44A4-BC9C-A5412CEFB0B3}"/>
+    <hyperlink ref="K37" r:id="rId92" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{773640F8-59E2-4CDC-A289-181E6CB1485A}"/>
+    <hyperlink ref="K38" r:id="rId93" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{4FA22D46-F40C-4209-AD0E-2C29DB9E62B9}"/>
+    <hyperlink ref="K39" r:id="rId94" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{0E936E58-B2FB-49E6-BAB4-77A8C880F1BD}"/>
+    <hyperlink ref="K40" r:id="rId95" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/3/{z}/{x}/{y}.pbf" xr:uid="{570A943D-3EDD-483D-A84A-1D06463044DF}"/>
+    <hyperlink ref="K80" r:id="rId96" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{D2FDEFCA-1DA7-4F34-9CA9-AF1873AB81E0}"/>
+    <hyperlink ref="K81" r:id="rId97" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{31177326-FA16-4819-AA76-2B8CA9E4489B}"/>
+    <hyperlink ref="K82" r:id="rId98" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/LBR/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{676BA508-DF52-4E7A-822D-3F987C4CEA17}"/>
+    <hyperlink ref="K102" r:id="rId99" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{7E7374A2-8F51-4023-BC0B-89218B35AB29}"/>
+    <hyperlink ref="K103" r:id="rId100" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{6622811A-2E06-4F98-A93B-E126E4B41484}"/>
+    <hyperlink ref="K104" r:id="rId101" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SOM/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{B11ED906-3994-4C9C-A14A-7C0157AFF582}"/>
+    <hyperlink ref="K94" r:id="rId102" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{9FF1B1BC-9C9D-4E19-B5A8-B5C1F2BA8782}"/>
+    <hyperlink ref="K95" r:id="rId103" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{6D89302F-387C-4643-8AB5-158C91B068AB}"/>
+    <hyperlink ref="K96" r:id="rId104" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{C3976E67-798E-4846-9730-9214C80D929F}"/>
+    <hyperlink ref="K97" r:id="rId105" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SYR/versions/current/3/{z}/{x}/{y}.pbf" xr:uid="{539127CF-D395-499F-9665-8766742FFAB2}"/>
+    <hyperlink ref="K98" r:id="rId106" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{3334DDD0-5A3E-4445-9E05-5CC58345D6B7}"/>
+    <hyperlink ref="K99" r:id="rId107" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{CCF9E870-A156-414E-A854-6B634357C424}"/>
+    <hyperlink ref="K100" r:id="rId108" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{0E3D8422-7852-46C7-80B2-679C00ED4DC5}"/>
+    <hyperlink ref="K101" r:id="rId109" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/YEM/versions/current/3/{z}/{x}/{y}.pbf" xr:uid="{90900B07-2349-47D8-A137-4A9A168BEF8E}"/>
     <hyperlink ref="J97" r:id="rId110" xr:uid="{9F8F9CD0-E481-4585-B5C1-56D66B537054}"/>
     <hyperlink ref="J123" r:id="rId111" xr:uid="{9DF99CEA-FA5A-4A14-8718-DFF4AFC71F72}"/>
     <hyperlink ref="J122" r:id="rId112" xr:uid="{9FD0A0C6-8B1F-4661-B51C-FEB9AE37B405}"/>
@@ -5007,9 +5064,9 @@
     <hyperlink ref="I129" r:id="rId115" xr:uid="{1D18298C-5748-4B8D-A409-8DF4A2B10270}"/>
     <hyperlink ref="I128" r:id="rId116" xr:uid="{73EFE52F-67BF-4688-8A3C-95F5BAF89D0E}"/>
     <hyperlink ref="I127" r:id="rId117" xr:uid="{813F65DE-0FB0-400D-ABBA-AE8427594C11}"/>
-    <hyperlink ref="K131" r:id="rId118" xr:uid="{554C13A0-DEA3-4CD5-AA98-85FE4C2F138E}"/>
-    <hyperlink ref="K132" r:id="rId119" xr:uid="{97969E1D-C98B-470C-9153-4A80D88F2024}"/>
-    <hyperlink ref="K130" r:id="rId120" xr:uid="{A2F4596B-74A2-4551-A3E7-FE1AFFD01F71}"/>
+    <hyperlink ref="K131" r:id="rId118" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{554C13A0-DEA3-4CD5-AA98-85FE4C2F138E}"/>
+    <hyperlink ref="K132" r:id="rId119" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{97969E1D-C98B-470C-9153-4A80D88F2024}"/>
+    <hyperlink ref="K130" r:id="rId120" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{A2F4596B-74A2-4551-A3E7-FE1AFFD01F71}"/>
     <hyperlink ref="J94" r:id="rId121" xr:uid="{DC78C57A-75EC-4426-A8F3-BF413DBB42D0}"/>
     <hyperlink ref="J96" r:id="rId122" xr:uid="{75066307-3E9B-43F3-BA1B-B0E74B5F58E6}"/>
     <hyperlink ref="J133" r:id="rId123" xr:uid="{3D5A927C-F34B-4B4C-BD09-A6537A00D1DC}"/>
@@ -5029,15 +5086,24 @@
     <hyperlink ref="J118" r:id="rId137" xr:uid="{3FD6418A-59A2-4D05-A7EB-B901B342FB6A}"/>
     <hyperlink ref="J98" r:id="rId138" xr:uid="{26770539-66D6-44FC-9503-2D2AE2154AE9}"/>
     <hyperlink ref="J144" r:id="rId139" xr:uid="{3293E3FD-AA84-4E3C-A9B2-98937D1BE16B}"/>
-    <hyperlink ref="K143" r:id="rId140" xr:uid="{2E962C8A-18CE-4B3C-828F-FE9AA2273475}"/>
-    <hyperlink ref="K144" r:id="rId141" xr:uid="{F34676E9-097B-459E-9FEC-C7532623DBFC}"/>
-    <hyperlink ref="K145" r:id="rId142" xr:uid="{FF060BDC-822F-4E5D-AA16-4B9904050AD2}"/>
+    <hyperlink ref="K143" r:id="rId140" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{2E962C8A-18CE-4B3C-828F-FE9AA2273475}"/>
+    <hyperlink ref="K144" r:id="rId141" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{F34676E9-097B-459E-9FEC-C7532623DBFC}"/>
+    <hyperlink ref="K145" r:id="rId142" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{FF060BDC-822F-4E5D-AA16-4B9904050AD2}"/>
     <hyperlink ref="J145" r:id="rId143" xr:uid="{77F9D874-BCD2-49CB-8F54-0A9E182FB66E}"/>
-    <hyperlink ref="J130" r:id="rId144" xr:uid="{6D5ED7A7-6A8E-4D1F-8C21-BB5EB8CF7254}"/>
+    <hyperlink ref="J131" r:id="rId144" xr:uid="{6D5ED7A7-6A8E-4D1F-8C21-BB5EB8CF7254}"/>
     <hyperlink ref="J146" r:id="rId145" xr:uid="{9681BF45-1848-42D9-BFCE-706E6B2FB901}"/>
+    <hyperlink ref="K17" r:id="rId146" xr:uid="{B75C7242-642D-47AC-A4ED-EDEF7AC1AE21}"/>
+    <hyperlink ref="K18" r:id="rId147" xr:uid="{D9C052D1-969F-4965-A776-362144A9A7EA}"/>
+    <hyperlink ref="K19" r:id="rId148" xr:uid="{D781FC18-82A0-40EE-88CF-8BDAFE359D3E}"/>
+    <hyperlink ref="J17" r:id="rId149" xr:uid="{7537EE23-4C61-4571-941C-3731658B1BA7}"/>
+    <hyperlink ref="J18" r:id="rId150" xr:uid="{372BB3E0-E07E-4961-9EE6-9868B794E285}"/>
+    <hyperlink ref="J100" r:id="rId151" xr:uid="{2261F0C3-678C-42AE-B307-81D491337945}"/>
+    <hyperlink ref="K134" r:id="rId152" xr:uid="{B6964586-A914-40B5-878B-6530BC25DB48}"/>
+    <hyperlink ref="K135" r:id="rId153" xr:uid="{CCA159A9-92A4-4AA0-AC7A-70352B2C47B1}"/>
+    <hyperlink ref="K133" r:id="rId154" xr:uid="{C3979E1D-98F9-4789-A6A1-222E8B260C0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId146"/>
-  <legacyDrawing r:id="rId147"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId155"/>
+  <legacyDrawing r:id="rId156"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5EC60D-EB92-4E33-8AB4-C9229F8B7E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B0641-A511-453E-980F-0F9AAB57A49F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7910" yWindow="3220" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="272">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -882,6 +881,9 @@
   </si>
   <si>
     <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/NIC/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COD/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K142" sqref="K142"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,6 +1875,9 @@
       <c r="H19" t="str">
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/COD/COD_COD_Admin2.csv</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>223</v>
@@ -5101,9 +5106,10 @@
     <hyperlink ref="K134" r:id="rId152" xr:uid="{B6964586-A914-40B5-878B-6530BC25DB48}"/>
     <hyperlink ref="K135" r:id="rId153" xr:uid="{CCA159A9-92A4-4AA0-AC7A-70352B2C47B1}"/>
     <hyperlink ref="K133" r:id="rId154" xr:uid="{C3979E1D-98F9-4789-A6A1-222E8B260C0E}"/>
+    <hyperlink ref="J19" r:id="rId155" xr:uid="{D5B8DF00-AC4E-41FF-93A4-174AA9DF5457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId155"/>
-  <legacyDrawing r:id="rId156"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId156"/>
+  <legacyDrawing r:id="rId157"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B0641-A511-453E-980F-0F9AAB57A49F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0B40D-1A11-47A5-B9DC-C442C064CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7910" yWindow="3220" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="3560" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="293">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -884,6 +884,69 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_COD/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SAU/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SAU/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DZA/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DZA/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PSE/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/HND/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/HND/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/HND/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SWZ/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SWZ/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SWZ/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SWZ/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SWZ/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SWZ/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SAU/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MDV/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MDV/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MDV/versions/current/2/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="J118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4474,6 +4537,9 @@
       <c r="J115" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="K115" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
@@ -4488,6 +4554,9 @@
       <c r="J116" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="K116" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
@@ -4502,6 +4571,9 @@
       <c r="J117" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="K117" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
@@ -4651,6 +4723,9 @@
       <c r="I127" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="J127" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
@@ -4665,7 +4740,9 @@
       <c r="I128" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J128" s="1"/>
+      <c r="J128" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
@@ -4680,7 +4757,9 @@
       <c r="I129" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J129" s="1"/>
+      <c r="J129" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
@@ -4692,6 +4771,9 @@
       <c r="C130" t="s">
         <v>193</v>
       </c>
+      <c r="J130" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K130" s="1" t="s">
         <v>259</v>
       </c>
@@ -4723,6 +4805,9 @@
       <c r="C132" t="s">
         <v>193</v>
       </c>
+      <c r="J132" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="K132" s="1" t="s">
         <v>261</v>
       </c>
@@ -4842,6 +4927,9 @@
       <c r="J139" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="K139" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
@@ -4856,6 +4944,9 @@
       <c r="J140" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="K140" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
@@ -4870,6 +4961,9 @@
       <c r="J141" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="K141" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
@@ -4884,6 +4978,9 @@
       <c r="J142" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="K142" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
@@ -4948,6 +5045,82 @@
       </c>
       <c r="J146" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B147" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" t="s">
+        <v>219</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B149" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" t="s">
+        <v>282</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" t="s">
+        <v>282</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" t="s">
+        <v>282</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5107,9 +5280,30 @@
     <hyperlink ref="K135" r:id="rId153" xr:uid="{CCA159A9-92A4-4AA0-AC7A-70352B2C47B1}"/>
     <hyperlink ref="K133" r:id="rId154" xr:uid="{C3979E1D-98F9-4789-A6A1-222E8B260C0E}"/>
     <hyperlink ref="J19" r:id="rId155" xr:uid="{D5B8DF00-AC4E-41FF-93A4-174AA9DF5457}"/>
+    <hyperlink ref="K146" r:id="rId156" xr:uid="{D1F6C12A-2733-4CDC-9707-92316F497E71}"/>
+    <hyperlink ref="K147" r:id="rId157" xr:uid="{B1B4DFC4-F8C1-4444-AC23-8274EEE21643}"/>
+    <hyperlink ref="J132" r:id="rId158" xr:uid="{1444B823-90EE-4303-85DF-B83F02B1DAAD}"/>
+    <hyperlink ref="J130" r:id="rId159" xr:uid="{23182ECF-5FA5-4419-82B0-BD05802331A6}"/>
+    <hyperlink ref="J128" r:id="rId160" xr:uid="{624571EC-8123-4BA6-83F9-226E04B3FEF4}"/>
+    <hyperlink ref="J129" r:id="rId161" xr:uid="{536F4E08-DDF1-4B3C-8B9B-B525D83256A8}"/>
+    <hyperlink ref="J127" r:id="rId162" xr:uid="{E4EA2D87-15B1-42BE-B546-EA42A6977355}"/>
+    <hyperlink ref="K116" r:id="rId163" xr:uid="{DB472A38-40B5-4A8D-B03B-D862D0D3E2C3}"/>
+    <hyperlink ref="K117" r:id="rId164" xr:uid="{06797A31-2B17-4415-9723-8C7451EFDF88}"/>
+    <hyperlink ref="K115" r:id="rId165" xr:uid="{4FFD8753-2ECA-4C9E-AA44-BEF86B92EC7D}"/>
+    <hyperlink ref="K149" r:id="rId166" xr:uid="{8172FE28-3269-488C-AAE9-502DA9A34FC7}"/>
+    <hyperlink ref="K150" r:id="rId167" xr:uid="{DB50B69C-1DD5-417E-A15D-7294D6A60384}"/>
+    <hyperlink ref="K151" r:id="rId168" xr:uid="{005BEA66-4018-4EB0-A43F-90D7A087A5E9}"/>
+    <hyperlink ref="J149" r:id="rId169" xr:uid="{BCEDA174-7DA4-41AA-9F0D-1A9F85F2BB3D}"/>
+    <hyperlink ref="J150" r:id="rId170" xr:uid="{B1CEB8BF-8AD5-47B5-B659-4488571EE226}"/>
+    <hyperlink ref="J151" r:id="rId171" xr:uid="{C49FAB50-8E38-4870-9B95-F550338A5197}"/>
+    <hyperlink ref="J147" r:id="rId172" xr:uid="{A5AD2B62-5B05-46E8-979B-831D710B480B}"/>
+    <hyperlink ref="K139" r:id="rId173" xr:uid="{D7FA955C-11C5-4A92-AEF8-E8161294E40A}"/>
+    <hyperlink ref="K140" r:id="rId174" xr:uid="{C942B84E-F564-41C2-8590-9ECFC9170F3C}"/>
+    <hyperlink ref="K141" r:id="rId175" xr:uid="{C726868D-76C6-4090-8634-CE76A90E2050}"/>
+    <hyperlink ref="K142" r:id="rId176" xr:uid="{DC2110B6-98FB-4248-ABB0-66BF9A399AF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId156"/>
-  <legacyDrawing r:id="rId157"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId177"/>
+  <legacyDrawing r:id="rId178"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0B40D-1A11-47A5-B9DC-C442C064CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D759F76-B600-42EB-B871-79EF5AEBC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="3560" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="303">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -947,6 +947,36 @@
   </si>
   <si>
     <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MDV/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GHA/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GHA/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SLV/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SLV/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SLV/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SLV/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SLV/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SLV/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GHA/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+      <selection activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4678,6 +4708,9 @@
       <c r="C124" t="s">
         <v>183</v>
       </c>
+      <c r="J124" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K124" s="1" t="s">
         <v>256</v>
       </c>
@@ -4692,6 +4725,9 @@
       <c r="C125" t="s">
         <v>183</v>
       </c>
+      <c r="J125" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="K125" s="1" t="s">
         <v>257</v>
       </c>
@@ -4706,6 +4742,9 @@
       <c r="C126" t="s">
         <v>183</v>
       </c>
+      <c r="J126" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="K126" s="1" t="s">
         <v>258</v>
       </c>
@@ -5121,6 +5160,57 @@
       </c>
       <c r="K151" s="1" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B152" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152" t="s">
+        <v>295</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C153" t="s">
+        <v>295</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" t="s">
+        <v>295</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5301,9 +5391,18 @@
     <hyperlink ref="K140" r:id="rId174" xr:uid="{C942B84E-F564-41C2-8590-9ECFC9170F3C}"/>
     <hyperlink ref="K141" r:id="rId175" xr:uid="{C726868D-76C6-4090-8634-CE76A90E2050}"/>
     <hyperlink ref="K142" r:id="rId176" xr:uid="{DC2110B6-98FB-4248-ABB0-66BF9A399AF3}"/>
+    <hyperlink ref="J125" r:id="rId177" xr:uid="{D026C85C-5F20-4124-9E92-F8AF33230CE2}"/>
+    <hyperlink ref="J124" r:id="rId178" xr:uid="{F7EB3B3F-3753-4EDA-BF19-0FEEAF16DD6C}"/>
+    <hyperlink ref="J152" r:id="rId179" xr:uid="{0DB80B05-1485-4453-B4FD-95CDF14BAB40}"/>
+    <hyperlink ref="J153" r:id="rId180" xr:uid="{8B6ACBEC-3331-4761-9464-A988F4854416}"/>
+    <hyperlink ref="J154" r:id="rId181" xr:uid="{FA49792B-0CB8-4AD6-999F-17368A479E78}"/>
+    <hyperlink ref="K152" r:id="rId182" xr:uid="{07D2F21F-8FE4-47BA-948D-5C9FE5202CD1}"/>
+    <hyperlink ref="K153" r:id="rId183" xr:uid="{E86548D3-433B-49EB-93E6-5BFB4D6A3806}"/>
+    <hyperlink ref="K154" r:id="rId184" xr:uid="{B3376FC1-EC1A-489E-9405-CA926EC1A7CB}"/>
+    <hyperlink ref="J126" r:id="rId185" xr:uid="{F28E3EB8-39FE-448C-B46C-718A1A672592}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId177"/>
-  <legacyDrawing r:id="rId178"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId186"/>
+  <legacyDrawing r:id="rId187"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D759F76-B600-42EB-B871-79EF5AEBC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AC13C-47B6-42FD-9C72-DCE2DE87AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="3560" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8590" yWindow="3900" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="311">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -977,6 +977,30 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GHA/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/TLS/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/TLS/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/TLS/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_TLS/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_TLS/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_TLS/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_TLS/Admin3-MBT/Admin3.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J126" sqref="J126"/>
+    <sheetView tabSelected="1" topLeftCell="J131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5211,6 +5235,74 @@
       </c>
       <c r="K154" s="1" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B155" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" t="s">
+        <v>303</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" t="s">
+        <v>303</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B157" t="s">
+        <v>98</v>
+      </c>
+      <c r="C157" t="s">
+        <v>303</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B158" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" t="s">
+        <v>303</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5400,9 +5492,17 @@
     <hyperlink ref="K153" r:id="rId183" xr:uid="{E86548D3-433B-49EB-93E6-5BFB4D6A3806}"/>
     <hyperlink ref="K154" r:id="rId184" xr:uid="{B3376FC1-EC1A-489E-9405-CA926EC1A7CB}"/>
     <hyperlink ref="J126" r:id="rId185" xr:uid="{F28E3EB8-39FE-448C-B46C-718A1A672592}"/>
+    <hyperlink ref="K155" r:id="rId186" xr:uid="{3C97D69F-DC60-42C9-B95A-6396E9970D05}"/>
+    <hyperlink ref="K156" r:id="rId187" xr:uid="{5E5EB37F-1134-49F2-BE0A-4DED80104A41}"/>
+    <hyperlink ref="K157" r:id="rId188" xr:uid="{7E50CB05-C5EF-42CE-9BFE-EF3148E8B05E}"/>
+    <hyperlink ref="K158" r:id="rId189" xr:uid="{9D804933-7111-4A53-9CB7-457EE736C4BD}"/>
+    <hyperlink ref="J155" r:id="rId190" xr:uid="{C486CB56-149F-4895-867A-BD478B0D7C6C}"/>
+    <hyperlink ref="J156" r:id="rId191" xr:uid="{36556C04-474E-4CCE-939B-1E43366EB41B}"/>
+    <hyperlink ref="J157" r:id="rId192" xr:uid="{48791F54-3519-4904-AE5D-433DD27D12E5}"/>
+    <hyperlink ref="J158" r:id="rId193" xr:uid="{9B9CD70E-80BB-476F-AFD2-67FC32A932E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId186"/>
-  <legacyDrawing r:id="rId187"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId194"/>
+  <legacyDrawing r:id="rId195"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AC13C-47B6-42FD-9C72-DCE2DE87AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9A5CA8-F571-4F5A-AEAD-2BED2B25E52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8590" yWindow="3900" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5770" yWindow="2320" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="327">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1001,6 +1001,54 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_TLS/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DOM/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DOM/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DOM/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DOM/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_DOM/Admin4-MBT/Admin4.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DOM/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DOM/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DOM/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DOM/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DOM/versions/current/4/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ESH/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_ESH/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ESH/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ESH/versions/current/1/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J158" sqref="J158"/>
+    <sheetView tabSelected="1" topLeftCell="J144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5303,6 +5351,125 @@
       </c>
       <c r="K158" s="1" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B159" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" t="s">
+        <v>311</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B160" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" t="s">
+        <v>311</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B161" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161" t="s">
+        <v>311</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B162" t="s">
+        <v>98</v>
+      </c>
+      <c r="C162" t="s">
+        <v>311</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" t="s">
+        <v>311</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B164" t="s">
+        <v>98</v>
+      </c>
+      <c r="C164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" t="s">
+        <v>322</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5500,9 +5667,23 @@
     <hyperlink ref="J156" r:id="rId191" xr:uid="{36556C04-474E-4CCE-939B-1E43366EB41B}"/>
     <hyperlink ref="J157" r:id="rId192" xr:uid="{48791F54-3519-4904-AE5D-433DD27D12E5}"/>
     <hyperlink ref="J158" r:id="rId193" xr:uid="{9B9CD70E-80BB-476F-AFD2-67FC32A932E0}"/>
+    <hyperlink ref="J160" r:id="rId194" xr:uid="{94FCC304-15F3-4E16-9CD5-465475563F7E}"/>
+    <hyperlink ref="J161" r:id="rId195" xr:uid="{90728D09-99AE-4A50-AB36-A9BB6A0F4F11}"/>
+    <hyperlink ref="J162" r:id="rId196" xr:uid="{BF9C4EF5-F11A-4C92-B7E6-3EF224161BD2}"/>
+    <hyperlink ref="J163" r:id="rId197" xr:uid="{83CF3136-91E7-48D6-B690-2746123A9ED6}"/>
+    <hyperlink ref="J159" r:id="rId198" xr:uid="{BD15C1AE-77E1-4AD3-ACA7-612E5C32F06C}"/>
+    <hyperlink ref="K159" r:id="rId199" xr:uid="{D488DC49-F5DC-442A-8593-346F499ACEF2}"/>
+    <hyperlink ref="K160" r:id="rId200" xr:uid="{9EF6FA4F-A75F-49C3-A183-532767B23414}"/>
+    <hyperlink ref="K161" r:id="rId201" xr:uid="{5ED10FB1-B613-4794-9525-4D46A19FDE2E}"/>
+    <hyperlink ref="K162" r:id="rId202" xr:uid="{CEBF9F17-CDDA-4FB1-A6E0-3D41CD392E1A}"/>
+    <hyperlink ref="K163" r:id="rId203" xr:uid="{0B7D4628-7FC8-497B-BAF6-EA45C3884E84}"/>
+    <hyperlink ref="J165" r:id="rId204" xr:uid="{142A3686-DCB0-45C1-B6CF-464B6BF67926}"/>
+    <hyperlink ref="J164" r:id="rId205" xr:uid="{B1C28D25-AB30-46D3-BD21-055C6DF9F088}"/>
+    <hyperlink ref="K164" r:id="rId206" xr:uid="{698ECC8D-3635-4A3D-8D8A-3ED883759BEA}"/>
+    <hyperlink ref="K165" r:id="rId207" xr:uid="{3D5CD299-FC1E-4767-BE3E-50D691B3E811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId194"/>
-  <legacyDrawing r:id="rId195"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId208"/>
+  <legacyDrawing r:id="rId209"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9A5CA8-F571-4F5A-AEAD-2BED2B25E52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E4151-9A3F-47D3-854B-BD9B4EDFC70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5770" yWindow="2320" windowWidth="25600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5770" yWindow="2320" windowWidth="25430" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="334">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1049,6 +1049,27 @@
   </si>
   <si>
     <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ESH/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GNB/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GNB/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GNB/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GNB/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GNB/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GNB/versions/current/2/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1435,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K170" sqref="K170"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5179,8 +5200,20 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>44362</v>
+      </c>
       <c r="B148" t="s">
         <v>98</v>
+      </c>
+      <c r="C148" t="s">
+        <v>282</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
@@ -5194,10 +5227,10 @@
         <v>282</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
@@ -5211,27 +5244,27 @@
         <v>282</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
-        <v>44362</v>
+        <v>44368</v>
       </c>
       <c r="B151" t="s">
         <v>98</v>
       </c>
       <c r="C151" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
@@ -5245,10 +5278,10 @@
         <v>295</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
@@ -5262,27 +5295,27 @@
         <v>295</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
-        <v>44368</v>
+        <v>44376</v>
       </c>
       <c r="B154" t="s">
         <v>98</v>
       </c>
       <c r="C154" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
@@ -5296,10 +5329,10 @@
         <v>303</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
@@ -5313,10 +5346,10 @@
         <v>303</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
@@ -5330,7 +5363,7 @@
         <v>303</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>306</v>
@@ -5338,19 +5371,19 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
-        <v>44376</v>
+        <v>44384</v>
       </c>
       <c r="B158" t="s">
         <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
@@ -5364,10 +5397,10 @@
         <v>311</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -5381,10 +5414,10 @@
         <v>311</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
@@ -5398,10 +5431,10 @@
         <v>311</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -5415,10 +5448,10 @@
         <v>311</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
@@ -5429,13 +5462,13 @@
         <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
@@ -5449,27 +5482,61 @@
         <v>322</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="B165" t="s">
         <v>98</v>
       </c>
       <c r="C165" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B166" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" t="s">
+        <v>327</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" t="s">
+        <v>327</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5639,12 +5706,12 @@
     <hyperlink ref="K116" r:id="rId163" xr:uid="{DB472A38-40B5-4A8D-B03B-D862D0D3E2C3}"/>
     <hyperlink ref="K117" r:id="rId164" xr:uid="{06797A31-2B17-4415-9723-8C7451EFDF88}"/>
     <hyperlink ref="K115" r:id="rId165" xr:uid="{4FFD8753-2ECA-4C9E-AA44-BEF86B92EC7D}"/>
-    <hyperlink ref="K149" r:id="rId166" xr:uid="{8172FE28-3269-488C-AAE9-502DA9A34FC7}"/>
-    <hyperlink ref="K150" r:id="rId167" xr:uid="{DB50B69C-1DD5-417E-A15D-7294D6A60384}"/>
-    <hyperlink ref="K151" r:id="rId168" xr:uid="{005BEA66-4018-4EB0-A43F-90D7A087A5E9}"/>
-    <hyperlink ref="J149" r:id="rId169" xr:uid="{BCEDA174-7DA4-41AA-9F0D-1A9F85F2BB3D}"/>
-    <hyperlink ref="J150" r:id="rId170" xr:uid="{B1CEB8BF-8AD5-47B5-B659-4488571EE226}"/>
-    <hyperlink ref="J151" r:id="rId171" xr:uid="{C49FAB50-8E38-4870-9B95-F550338A5197}"/>
+    <hyperlink ref="K148" r:id="rId166" xr:uid="{8172FE28-3269-488C-AAE9-502DA9A34FC7}"/>
+    <hyperlink ref="K149" r:id="rId167" xr:uid="{DB50B69C-1DD5-417E-A15D-7294D6A60384}"/>
+    <hyperlink ref="K150" r:id="rId168" xr:uid="{005BEA66-4018-4EB0-A43F-90D7A087A5E9}"/>
+    <hyperlink ref="J148" r:id="rId169" xr:uid="{BCEDA174-7DA4-41AA-9F0D-1A9F85F2BB3D}"/>
+    <hyperlink ref="J149" r:id="rId170" xr:uid="{B1CEB8BF-8AD5-47B5-B659-4488571EE226}"/>
+    <hyperlink ref="J150" r:id="rId171" xr:uid="{C49FAB50-8E38-4870-9B95-F550338A5197}"/>
     <hyperlink ref="J147" r:id="rId172" xr:uid="{A5AD2B62-5B05-46E8-979B-831D710B480B}"/>
     <hyperlink ref="K139" r:id="rId173" xr:uid="{D7FA955C-11C5-4A92-AEF8-E8161294E40A}"/>
     <hyperlink ref="K140" r:id="rId174" xr:uid="{C942B84E-F564-41C2-8590-9ECFC9170F3C}"/>
@@ -5652,38 +5719,44 @@
     <hyperlink ref="K142" r:id="rId176" xr:uid="{DC2110B6-98FB-4248-ABB0-66BF9A399AF3}"/>
     <hyperlink ref="J125" r:id="rId177" xr:uid="{D026C85C-5F20-4124-9E92-F8AF33230CE2}"/>
     <hyperlink ref="J124" r:id="rId178" xr:uid="{F7EB3B3F-3753-4EDA-BF19-0FEEAF16DD6C}"/>
-    <hyperlink ref="J152" r:id="rId179" xr:uid="{0DB80B05-1485-4453-B4FD-95CDF14BAB40}"/>
-    <hyperlink ref="J153" r:id="rId180" xr:uid="{8B6ACBEC-3331-4761-9464-A988F4854416}"/>
-    <hyperlink ref="J154" r:id="rId181" xr:uid="{FA49792B-0CB8-4AD6-999F-17368A479E78}"/>
-    <hyperlink ref="K152" r:id="rId182" xr:uid="{07D2F21F-8FE4-47BA-948D-5C9FE5202CD1}"/>
-    <hyperlink ref="K153" r:id="rId183" xr:uid="{E86548D3-433B-49EB-93E6-5BFB4D6A3806}"/>
-    <hyperlink ref="K154" r:id="rId184" xr:uid="{B3376FC1-EC1A-489E-9405-CA926EC1A7CB}"/>
+    <hyperlink ref="J151" r:id="rId179" xr:uid="{0DB80B05-1485-4453-B4FD-95CDF14BAB40}"/>
+    <hyperlink ref="J152" r:id="rId180" xr:uid="{8B6ACBEC-3331-4761-9464-A988F4854416}"/>
+    <hyperlink ref="J153" r:id="rId181" xr:uid="{FA49792B-0CB8-4AD6-999F-17368A479E78}"/>
+    <hyperlink ref="K151" r:id="rId182" xr:uid="{07D2F21F-8FE4-47BA-948D-5C9FE5202CD1}"/>
+    <hyperlink ref="K152" r:id="rId183" xr:uid="{E86548D3-433B-49EB-93E6-5BFB4D6A3806}"/>
+    <hyperlink ref="K153" r:id="rId184" xr:uid="{B3376FC1-EC1A-489E-9405-CA926EC1A7CB}"/>
     <hyperlink ref="J126" r:id="rId185" xr:uid="{F28E3EB8-39FE-448C-B46C-718A1A672592}"/>
-    <hyperlink ref="K155" r:id="rId186" xr:uid="{3C97D69F-DC60-42C9-B95A-6396E9970D05}"/>
-    <hyperlink ref="K156" r:id="rId187" xr:uid="{5E5EB37F-1134-49F2-BE0A-4DED80104A41}"/>
-    <hyperlink ref="K157" r:id="rId188" xr:uid="{7E50CB05-C5EF-42CE-9BFE-EF3148E8B05E}"/>
-    <hyperlink ref="K158" r:id="rId189" xr:uid="{9D804933-7111-4A53-9CB7-457EE736C4BD}"/>
-    <hyperlink ref="J155" r:id="rId190" xr:uid="{C486CB56-149F-4895-867A-BD478B0D7C6C}"/>
-    <hyperlink ref="J156" r:id="rId191" xr:uid="{36556C04-474E-4CCE-939B-1E43366EB41B}"/>
-    <hyperlink ref="J157" r:id="rId192" xr:uid="{48791F54-3519-4904-AE5D-433DD27D12E5}"/>
-    <hyperlink ref="J158" r:id="rId193" xr:uid="{9B9CD70E-80BB-476F-AFD2-67FC32A932E0}"/>
-    <hyperlink ref="J160" r:id="rId194" xr:uid="{94FCC304-15F3-4E16-9CD5-465475563F7E}"/>
-    <hyperlink ref="J161" r:id="rId195" xr:uid="{90728D09-99AE-4A50-AB36-A9BB6A0F4F11}"/>
-    <hyperlink ref="J162" r:id="rId196" xr:uid="{BF9C4EF5-F11A-4C92-B7E6-3EF224161BD2}"/>
-    <hyperlink ref="J163" r:id="rId197" xr:uid="{83CF3136-91E7-48D6-B690-2746123A9ED6}"/>
-    <hyperlink ref="J159" r:id="rId198" xr:uid="{BD15C1AE-77E1-4AD3-ACA7-612E5C32F06C}"/>
-    <hyperlink ref="K159" r:id="rId199" xr:uid="{D488DC49-F5DC-442A-8593-346F499ACEF2}"/>
-    <hyperlink ref="K160" r:id="rId200" xr:uid="{9EF6FA4F-A75F-49C3-A183-532767B23414}"/>
-    <hyperlink ref="K161" r:id="rId201" xr:uid="{5ED10FB1-B613-4794-9525-4D46A19FDE2E}"/>
-    <hyperlink ref="K162" r:id="rId202" xr:uid="{CEBF9F17-CDDA-4FB1-A6E0-3D41CD392E1A}"/>
-    <hyperlink ref="K163" r:id="rId203" xr:uid="{0B7D4628-7FC8-497B-BAF6-EA45C3884E84}"/>
-    <hyperlink ref="J165" r:id="rId204" xr:uid="{142A3686-DCB0-45C1-B6CF-464B6BF67926}"/>
-    <hyperlink ref="J164" r:id="rId205" xr:uid="{B1C28D25-AB30-46D3-BD21-055C6DF9F088}"/>
-    <hyperlink ref="K164" r:id="rId206" xr:uid="{698ECC8D-3635-4A3D-8D8A-3ED883759BEA}"/>
-    <hyperlink ref="K165" r:id="rId207" xr:uid="{3D5CD299-FC1E-4767-BE3E-50D691B3E811}"/>
+    <hyperlink ref="K154" r:id="rId186" xr:uid="{3C97D69F-DC60-42C9-B95A-6396E9970D05}"/>
+    <hyperlink ref="K155" r:id="rId187" xr:uid="{5E5EB37F-1134-49F2-BE0A-4DED80104A41}"/>
+    <hyperlink ref="K156" r:id="rId188" xr:uid="{7E50CB05-C5EF-42CE-9BFE-EF3148E8B05E}"/>
+    <hyperlink ref="K157" r:id="rId189" xr:uid="{9D804933-7111-4A53-9CB7-457EE736C4BD}"/>
+    <hyperlink ref="J154" r:id="rId190" xr:uid="{C486CB56-149F-4895-867A-BD478B0D7C6C}"/>
+    <hyperlink ref="J155" r:id="rId191" xr:uid="{36556C04-474E-4CCE-939B-1E43366EB41B}"/>
+    <hyperlink ref="J156" r:id="rId192" xr:uid="{48791F54-3519-4904-AE5D-433DD27D12E5}"/>
+    <hyperlink ref="J157" r:id="rId193" xr:uid="{9B9CD70E-80BB-476F-AFD2-67FC32A932E0}"/>
+    <hyperlink ref="J159" r:id="rId194" xr:uid="{94FCC304-15F3-4E16-9CD5-465475563F7E}"/>
+    <hyperlink ref="J160" r:id="rId195" xr:uid="{90728D09-99AE-4A50-AB36-A9BB6A0F4F11}"/>
+    <hyperlink ref="J161" r:id="rId196" xr:uid="{BF9C4EF5-F11A-4C92-B7E6-3EF224161BD2}"/>
+    <hyperlink ref="J162" r:id="rId197" xr:uid="{83CF3136-91E7-48D6-B690-2746123A9ED6}"/>
+    <hyperlink ref="J158" r:id="rId198" xr:uid="{BD15C1AE-77E1-4AD3-ACA7-612E5C32F06C}"/>
+    <hyperlink ref="K158" r:id="rId199" xr:uid="{D488DC49-F5DC-442A-8593-346F499ACEF2}"/>
+    <hyperlink ref="K159" r:id="rId200" xr:uid="{9EF6FA4F-A75F-49C3-A183-532767B23414}"/>
+    <hyperlink ref="K160" r:id="rId201" xr:uid="{5ED10FB1-B613-4794-9525-4D46A19FDE2E}"/>
+    <hyperlink ref="K161" r:id="rId202" xr:uid="{CEBF9F17-CDDA-4FB1-A6E0-3D41CD392E1A}"/>
+    <hyperlink ref="K162" r:id="rId203" xr:uid="{0B7D4628-7FC8-497B-BAF6-EA45C3884E84}"/>
+    <hyperlink ref="J164" r:id="rId204" xr:uid="{142A3686-DCB0-45C1-B6CF-464B6BF67926}"/>
+    <hyperlink ref="J163" r:id="rId205" xr:uid="{B1C28D25-AB30-46D3-BD21-055C6DF9F088}"/>
+    <hyperlink ref="K163" r:id="rId206" xr:uid="{698ECC8D-3635-4A3D-8D8A-3ED883759BEA}"/>
+    <hyperlink ref="K164" r:id="rId207" xr:uid="{3D5CD299-FC1E-4767-BE3E-50D691B3E811}"/>
+    <hyperlink ref="J166" r:id="rId208" xr:uid="{6ED23914-EC7E-4FB3-8181-D9199EC57A93}"/>
+    <hyperlink ref="J167" r:id="rId209" xr:uid="{9EFA15A3-BF94-44F1-8D40-9D523D332C7F}"/>
+    <hyperlink ref="J165" r:id="rId210" xr:uid="{16656C14-DF8C-40C4-AB85-C9E186D03F08}"/>
+    <hyperlink ref="K165" r:id="rId211" xr:uid="{2929D4D6-62A1-44AB-9499-7ABBBE6E8B0F}"/>
+    <hyperlink ref="K166" r:id="rId212" xr:uid="{8EEB9DA9-84A3-4BF5-B9C3-FA0CF4AA55F1}"/>
+    <hyperlink ref="K167" r:id="rId213" xr:uid="{8B776124-FFAF-4D99-92F0-0C79E08506F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId208"/>
-  <legacyDrawing r:id="rId209"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId214"/>
+  <legacyDrawing r:id="rId215"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E4151-9A3F-47D3-854B-BD9B4EDFC70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE037A-11A8-4105-8002-996CB2A2C0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5770" yWindow="2320" windowWidth="25430" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="341">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1070,6 +1070,27 @@
   </si>
   <si>
     <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GNB/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GNQ/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GNQ/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GNQ/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GNQ/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GNQ/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GNQ/Admin0-MBT/Admin0.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1456,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:XFD148"/>
+    <sheetView tabSelected="1" topLeftCell="H124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5537,6 +5558,57 @@
       </c>
       <c r="K167" s="1" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C168" t="s">
+        <v>334</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B169" t="s">
+        <v>98</v>
+      </c>
+      <c r="C169" t="s">
+        <v>334</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" t="s">
+        <v>334</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5754,9 +5826,15 @@
     <hyperlink ref="K165" r:id="rId211" xr:uid="{2929D4D6-62A1-44AB-9499-7ABBBE6E8B0F}"/>
     <hyperlink ref="K166" r:id="rId212" xr:uid="{8EEB9DA9-84A3-4BF5-B9C3-FA0CF4AA55F1}"/>
     <hyperlink ref="K167" r:id="rId213" xr:uid="{8B776124-FFAF-4D99-92F0-0C79E08506F2}"/>
+    <hyperlink ref="K168" r:id="rId214" xr:uid="{A1D0AC6D-BD80-4909-9605-B62DC8A44768}"/>
+    <hyperlink ref="K169" r:id="rId215" xr:uid="{4570B364-DF97-45CB-8B3F-40CCA37D9523}"/>
+    <hyperlink ref="K170" r:id="rId216" xr:uid="{8DC90AD0-7D8E-4D93-AD00-2808055CE524}"/>
+    <hyperlink ref="J169" r:id="rId217" xr:uid="{12207FC4-4FBA-43D2-A00B-9433428B9FB4}"/>
+    <hyperlink ref="J170" r:id="rId218" xr:uid="{487F77DB-6E80-4DC3-97D8-EA5B0EEB91CF}"/>
+    <hyperlink ref="J168" r:id="rId219" xr:uid="{6F8E5602-B188-42B7-88AE-A8246A2A0CE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId214"/>
-  <legacyDrawing r:id="rId215"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId220"/>
+  <legacyDrawing r:id="rId221"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE037A-11A8-4105-8002-996CB2A2C0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E41D1A-E6CB-469F-8336-D35824EEC456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="345">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1091,6 +1091,18 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_GNQ/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/OMN/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/OMN/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/OMN/versions/current/2/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1477,27 +1489,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" topLeftCell="J155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K184" sqref="K184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="45.1796875" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="73.453125" customWidth="1"/>
-    <col min="6" max="6" width="75.26953125" customWidth="1"/>
-    <col min="7" max="7" width="91.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" customWidth="1"/>
+    <col min="6" max="6" width="75.28515625" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
-    <col min="9" max="9" width="115.81640625" customWidth="1"/>
-    <col min="10" max="10" width="90.08984375" customWidth="1"/>
-    <col min="11" max="11" width="99.08984375" customWidth="1"/>
+    <col min="9" max="9" width="115.85546875" customWidth="1"/>
+    <col min="10" max="10" width="90.140625" customWidth="1"/>
+    <col min="11" max="11" width="99.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>143</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43727</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43727</v>
       </c>
@@ -1592,7 +1604,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43727</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43728</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43753</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43753</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43753</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43753</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43753</v>
       </c>
@@ -1802,7 +1814,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43753</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43753</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43753</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43753</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43753</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43753</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43753</v>
       </c>
@@ -2018,7 +2030,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43753</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43753</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43753</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43753</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43753</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43753</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43753</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43753</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43753</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43753</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43753</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43753</v>
       </c>
@@ -2447,7 +2459,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43753</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43753</v>
       </c>
@@ -2507,7 +2519,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43753</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43753</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43753</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43753</v>
       </c>
@@ -2627,7 +2639,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43753</v>
       </c>
@@ -2663,7 +2675,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43753</v>
       </c>
@@ -2699,7 +2711,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43753</v>
       </c>
@@ -2735,7 +2747,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43753</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43753</v>
       </c>
@@ -2801,7 +2813,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43753</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43753</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43753</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43753</v>
       </c>
@@ -2921,7 +2933,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.csv</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43753</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.csv</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43753</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43753</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin3.csv</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43753</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43753</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin1.csv</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43753</v>
       </c>
@@ -3104,7 +3116,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin2.csv</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43753</v>
       </c>
@@ -3134,7 +3146,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin3.csv</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43753</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin0.csv</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43753</v>
       </c>
@@ -3194,7 +3206,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin1.csv</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43753</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin2.csv</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43753</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin0.csv</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43753</v>
       </c>
@@ -3284,7 +3296,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin1.csv</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43753</v>
       </c>
@@ -3314,7 +3326,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin2.csv</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43753</v>
       </c>
@@ -3344,7 +3356,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin3.csv</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43753</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin0.csv</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43753</v>
       </c>
@@ -3404,7 +3416,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin1.csv</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43753</v>
       </c>
@@ -3434,7 +3446,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin2.csv</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43753</v>
       </c>
@@ -3464,7 +3476,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43753</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43753</v>
       </c>
@@ -3524,7 +3536,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43753</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.csv</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43805</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43805</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.csv</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43805</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.csv</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43805</v>
       </c>
@@ -3674,7 +3686,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.csv</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43805</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.csv</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43805</v>
       </c>
@@ -3734,7 +3746,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.csv</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43805</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.csv</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43805</v>
       </c>
@@ -3790,7 +3802,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.kml</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43805</v>
       </c>
@@ -3816,7 +3828,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.kml</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43805</v>
       </c>
@@ -3842,7 +3854,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.kml</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43805</v>
       </c>
@@ -3868,7 +3880,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.kml</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43805</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.kml</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43805</v>
       </c>
@@ -3920,7 +3932,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.kml</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43805</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43805</v>
       </c>
@@ -3992,7 +4004,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43805</v>
       </c>
@@ -4028,7 +4040,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43901</v>
       </c>
@@ -4058,7 +4070,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43901</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43901</v>
       </c>
@@ -4118,7 +4130,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43901</v>
       </c>
@@ -4148,7 +4160,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43980</v>
       </c>
@@ -4174,7 +4186,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43980</v>
       </c>
@@ -4200,7 +4212,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43980</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43980</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43955</v>
       </c>
@@ -4268,7 +4280,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43955</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43955</v>
       </c>
@@ -4296,7 +4308,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44225</v>
       </c>
@@ -4316,7 +4328,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44266</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44266</v>
       </c>
@@ -4356,7 +4368,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44252</v>
       </c>
@@ -4376,7 +4388,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44252</v>
       </c>
@@ -4396,7 +4408,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44252</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44252</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44298</v>
       </c>
@@ -4453,7 +4465,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44252</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44252</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44252</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44270</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44270</v>
       </c>
@@ -4532,7 +4544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44277</v>
       </c>
@@ -4546,7 +4558,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44263</v>
       </c>
@@ -4564,7 +4576,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44263</v>
       </c>
@@ -4582,7 +4594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44263</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44279</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44279</v>
       </c>
@@ -4634,7 +4646,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44279</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44279</v>
       </c>
@@ -4668,7 +4680,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44286</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44286</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44286</v>
       </c>
@@ -4736,7 +4748,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44286</v>
       </c>
@@ -4753,7 +4765,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44286</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44298</v>
       </c>
@@ -4784,7 +4796,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44298</v>
       </c>
@@ -4798,7 +4810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44298</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44298</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44298</v>
       </c>
@@ -4846,7 +4858,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44298</v>
       </c>
@@ -4863,7 +4875,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44301</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44305</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44305</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44349</v>
       </c>
@@ -4931,7 +4943,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44305</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44305</v>
       </c>
@@ -4965,7 +4977,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44312</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44317</v>
       </c>
@@ -5005,7 +5017,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44317</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44312</v>
       </c>
@@ -5039,7 +5051,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44312</v>
       </c>
@@ -5053,7 +5065,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44319</v>
       </c>
@@ -5067,7 +5079,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44319</v>
       </c>
@@ -5084,7 +5096,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44319</v>
       </c>
@@ -5101,7 +5113,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44320</v>
       </c>
@@ -5118,7 +5130,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44320</v>
       </c>
@@ -5135,7 +5147,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44320</v>
       </c>
@@ -5152,7 +5164,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44342</v>
       </c>
@@ -5169,7 +5181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44342</v>
       </c>
@@ -5186,7 +5198,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44349</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44358</v>
       </c>
@@ -5220,7 +5232,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44362</v>
       </c>
@@ -5237,7 +5249,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44362</v>
       </c>
@@ -5254,7 +5266,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44362</v>
       </c>
@@ -5271,7 +5283,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44368</v>
       </c>
@@ -5288,7 +5300,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44368</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44368</v>
       </c>
@@ -5322,7 +5334,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44376</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44376</v>
       </c>
@@ -5356,7 +5368,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44376</v>
       </c>
@@ -5373,7 +5385,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44376</v>
       </c>
@@ -5390,7 +5402,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44384</v>
       </c>
@@ -5407,7 +5419,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44384</v>
       </c>
@@ -5424,7 +5436,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44384</v>
       </c>
@@ -5441,7 +5453,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44384</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44384</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44384</v>
       </c>
@@ -5492,7 +5504,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44384</v>
       </c>
@@ -5509,7 +5521,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44386</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44386</v>
       </c>
@@ -5543,7 +5555,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44386</v>
       </c>
@@ -5560,7 +5572,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44396</v>
       </c>
@@ -5577,7 +5589,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44396</v>
       </c>
@@ -5594,7 +5606,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>44396</v>
       </c>
@@ -5609,6 +5621,48 @@
       </c>
       <c r="K170" s="1" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" t="s">
+        <v>341</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B172" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" t="s">
+        <v>341</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B173" t="s">
+        <v>98</v>
+      </c>
+      <c r="C173" t="s">
+        <v>341</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5828,13 +5882,16 @@
     <hyperlink ref="K167" r:id="rId213" xr:uid="{8B776124-FFAF-4D99-92F0-0C79E08506F2}"/>
     <hyperlink ref="K168" r:id="rId214" xr:uid="{A1D0AC6D-BD80-4909-9605-B62DC8A44768}"/>
     <hyperlink ref="K169" r:id="rId215" xr:uid="{4570B364-DF97-45CB-8B3F-40CCA37D9523}"/>
-    <hyperlink ref="K170" r:id="rId216" xr:uid="{8DC90AD0-7D8E-4D93-AD00-2808055CE524}"/>
-    <hyperlink ref="J169" r:id="rId217" xr:uid="{12207FC4-4FBA-43D2-A00B-9433428B9FB4}"/>
-    <hyperlink ref="J170" r:id="rId218" xr:uid="{487F77DB-6E80-4DC3-97D8-EA5B0EEB91CF}"/>
-    <hyperlink ref="J168" r:id="rId219" xr:uid="{6F8E5602-B188-42B7-88AE-A8246A2A0CE4}"/>
+    <hyperlink ref="J169" r:id="rId216" xr:uid="{12207FC4-4FBA-43D2-A00B-9433428B9FB4}"/>
+    <hyperlink ref="J170" r:id="rId217" xr:uid="{487F77DB-6E80-4DC3-97D8-EA5B0EEB91CF}"/>
+    <hyperlink ref="J168" r:id="rId218" xr:uid="{6F8E5602-B188-42B7-88AE-A8246A2A0CE4}"/>
+    <hyperlink ref="K172" r:id="rId219" xr:uid="{B619FEC2-A33A-4DAC-9AD9-8A9284ECE967}"/>
+    <hyperlink ref="K170" r:id="rId220" xr:uid="{8DC90AD0-7D8E-4D93-AD00-2808055CE524}"/>
+    <hyperlink ref="K173" r:id="rId221" xr:uid="{EAB6B430-C101-4249-ACFB-5B0A10A58622}"/>
+    <hyperlink ref="K171" r:id="rId222" xr:uid="{EE303FC4-D1F1-4093-A616-7D2289EE4D05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId220"/>
-  <legacyDrawing r:id="rId221"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId223"/>
+  <legacyDrawing r:id="rId224"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E41D1A-E6CB-469F-8336-D35824EEC456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E71BD9-36EE-4900-A978-936197F5475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="352">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1103,6 +1103,27 @@
   </si>
   <si>
     <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/OMN/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/HTI/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/HTI/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/HTI/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/HTI/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HTI/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HTI/Admin0-MBT/Admin0.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K184" sqref="K184"/>
+    <sheetView tabSelected="1" topLeftCell="J158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,6 +5685,66 @@
       <c r="K173" s="1" t="s">
         <v>344</v>
       </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B174" t="s">
+        <v>98</v>
+      </c>
+      <c r="C174" t="s">
+        <v>345</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B175" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" t="s">
+        <v>345</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B176" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" t="s">
+        <v>345</v>
+      </c>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K177" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K179" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5889,9 +5970,15 @@
     <hyperlink ref="K170" r:id="rId220" xr:uid="{8DC90AD0-7D8E-4D93-AD00-2808055CE524}"/>
     <hyperlink ref="K173" r:id="rId221" xr:uid="{EAB6B430-C101-4249-ACFB-5B0A10A58622}"/>
     <hyperlink ref="K171" r:id="rId222" xr:uid="{EE303FC4-D1F1-4093-A616-7D2289EE4D05}"/>
+    <hyperlink ref="K175" r:id="rId223" xr:uid="{B4F1B04B-05A7-4025-AA39-F7CBD28F7B1A}"/>
+    <hyperlink ref="K176" r:id="rId224" xr:uid="{D2963F44-A6C6-48CA-AD9D-0E982A00D6D5}"/>
+    <hyperlink ref="K174" r:id="rId225" xr:uid="{A7EEDD94-8623-43B8-8884-B38A1980215D}"/>
+    <hyperlink ref="K177" r:id="rId226" xr:uid="{92E01109-7720-4190-A0B4-3693ACEA4229}"/>
+    <hyperlink ref="J175" r:id="rId227" xr:uid="{C0BA3246-0DDA-4583-9167-2DDA4292AE30}"/>
+    <hyperlink ref="J174" r:id="rId228" xr:uid="{D41E2E9C-1607-4FC0-BDE5-97E02F0FEB40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId223"/>
-  <legacyDrawing r:id="rId224"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId229"/>
+  <legacyDrawing r:id="rId230"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E71BD9-36EE-4900-A978-936197F5475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D796D6-9ABD-4CEB-BBEE-13DFDC514B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="354">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1124,6 +1124,12 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HTI/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HTI/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HTI/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1519,7 @@
   <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,20 +5736,25 @@
       <c r="C176" t="s">
         <v>345</v>
       </c>
-      <c r="J176" s="1"/>
+      <c r="J176" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="K176" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J177" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="K177" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K179" s="1"/>
     </row>
   </sheetData>
@@ -5976,9 +5987,11 @@
     <hyperlink ref="K177" r:id="rId226" xr:uid="{92E01109-7720-4190-A0B4-3693ACEA4229}"/>
     <hyperlink ref="J175" r:id="rId227" xr:uid="{C0BA3246-0DDA-4583-9167-2DDA4292AE30}"/>
     <hyperlink ref="J174" r:id="rId228" xr:uid="{D41E2E9C-1607-4FC0-BDE5-97E02F0FEB40}"/>
+    <hyperlink ref="J177" r:id="rId229" xr:uid="{EE51B9CA-A871-43F6-B644-A9B1765FBE4E}"/>
+    <hyperlink ref="J176" r:id="rId230" xr:uid="{F641E863-4248-4FD1-B618-316D9B9C9D25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId229"/>
-  <legacyDrawing r:id="rId230"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId231"/>
+  <legacyDrawing r:id="rId232"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D796D6-9ABD-4CEB-BBEE-13DFDC514B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BCD8A5-2931-4784-A689-56D93C96B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="357">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1130,6 +1130,15 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_HTI/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_OMN/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_OMN/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_OMN/Admin0-MBT/Admin0.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1528,7 @@
   <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J181" sqref="J181"/>
+      <selection activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,6 +5669,9 @@
       <c r="C171" t="s">
         <v>341</v>
       </c>
+      <c r="J171" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="K171" s="1" t="s">
         <v>342</v>
       </c>
@@ -5674,6 +5686,9 @@
       <c r="C172" t="s">
         <v>341</v>
       </c>
+      <c r="J172" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="K172" s="1" t="s">
         <v>343</v>
       </c>
@@ -5687,6 +5702,9 @@
       </c>
       <c r="C173" t="s">
         <v>341</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>344</v>
@@ -5989,9 +6007,12 @@
     <hyperlink ref="J174" r:id="rId228" xr:uid="{D41E2E9C-1607-4FC0-BDE5-97E02F0FEB40}"/>
     <hyperlink ref="J177" r:id="rId229" xr:uid="{EE51B9CA-A871-43F6-B644-A9B1765FBE4E}"/>
     <hyperlink ref="J176" r:id="rId230" xr:uid="{F641E863-4248-4FD1-B618-316D9B9C9D25}"/>
+    <hyperlink ref="J172" r:id="rId231" xr:uid="{7279AA85-5467-457D-9F13-7A795FD74FF5}"/>
+    <hyperlink ref="J173" r:id="rId232" xr:uid="{6077138B-76D1-4A10-8E1A-FE9F883707EF}"/>
+    <hyperlink ref="J171" r:id="rId233" xr:uid="{6B1FDC29-BD6D-4FF6-A35E-6132E93BEFEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId231"/>
-  <legacyDrawing r:id="rId232"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId234"/>
+  <legacyDrawing r:id="rId235"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BCD8A5-2931-4784-A689-56D93C96B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B629C5-BBFF-4787-8BB7-3BD53856C828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="368">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1139,6 +1139,39 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_OMN/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/PSE/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/PSE/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/PSE/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MYS/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MYS/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/MYS/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_VEN/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/VEN/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/VEN/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/VEN/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/VEN/versions/current/0/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L172" sqref="L172"/>
+    <sheetView tabSelected="1" topLeftCell="J116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,6 +4864,9 @@
       <c r="J121" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="K121" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4845,6 +4881,9 @@
       <c r="J122" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="K122" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -4859,6 +4898,9 @@
       <c r="J123" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="K123" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -4868,13 +4910,13 @@
         <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>256</v>
+        <v>363</v>
+      </c>
+      <c r="K124" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -4888,10 +4930,10 @@
         <v>183</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -4905,32 +4947,32 @@
         <v>183</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>44301</v>
+        <v>44298</v>
       </c>
       <c r="B127" t="s">
         <v>98</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>278</v>
+        <v>302</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="B128" t="s">
         <v>98</v>
@@ -4939,10 +4981,13 @@
         <v>189</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -4956,32 +5001,38 @@
         <v>189</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>44349</v>
+        <v>44305</v>
       </c>
       <c r="B130" t="s">
         <v>98</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>259</v>
+        <v>359</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>44305</v>
+        <v>44349</v>
       </c>
       <c r="B131" t="s">
         <v>98</v>
@@ -4990,10 +5041,10 @@
         <v>193</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5007,35 +5058,32 @@
         <v>193</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="B133" t="s">
         <v>98</v>
       </c>
       <c r="C133" t="s">
-        <v>196</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>44317</v>
+        <v>44312</v>
       </c>
       <c r="B134" t="s">
         <v>98</v>
@@ -5044,13 +5092,13 @@
         <v>196</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5064,27 +5112,33 @@
         <v>196</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>44312</v>
+        <v>44317</v>
       </c>
       <c r="B136" t="s">
         <v>98</v>
       </c>
       <c r="C136" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5098,12 +5152,15 @@
         <v>198</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>44319</v>
+        <v>44312</v>
       </c>
       <c r="B138" t="s">
         <v>98</v>
@@ -5112,7 +5169,10 @@
         <v>198</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5123,13 +5183,13 @@
         <v>98</v>
       </c>
       <c r="C139" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5143,15 +5203,15 @@
         <v>203</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B141" t="s">
         <v>98</v>
@@ -5160,10 +5220,10 @@
         <v>203</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5177,10 +5237,10 @@
         <v>203</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5191,18 +5251,18 @@
         <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>44342</v>
+        <v>44320</v>
       </c>
       <c r="B144" t="s">
         <v>98</v>
@@ -5211,10 +5271,10 @@
         <v>212</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5228,32 +5288,32 @@
         <v>212</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>44349</v>
+        <v>44342</v>
       </c>
       <c r="B146" t="s">
         <v>98</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>44358</v>
+        <v>44349</v>
       </c>
       <c r="B147" t="s">
         <v>98</v>
@@ -5262,27 +5322,27 @@
         <v>219</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>44362</v>
+        <v>44358</v>
       </c>
       <c r="B148" t="s">
         <v>98</v>
       </c>
       <c r="C148" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5296,10 +5356,10 @@
         <v>282</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -5313,27 +5373,27 @@
         <v>282</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>44368</v>
+        <v>44362</v>
       </c>
       <c r="B151" t="s">
         <v>98</v>
       </c>
       <c r="C151" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -5347,10 +5407,10 @@
         <v>295</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -5364,27 +5424,27 @@
         <v>295</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>44376</v>
+        <v>44368</v>
       </c>
       <c r="B154" t="s">
         <v>98</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -5398,10 +5458,10 @@
         <v>303</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -5415,10 +5475,10 @@
         <v>303</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -5432,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>306</v>
@@ -5440,19 +5500,19 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>44384</v>
+        <v>44376</v>
       </c>
       <c r="B158" t="s">
         <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -5466,10 +5526,10 @@
         <v>311</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -5483,10 +5543,10 @@
         <v>311</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -5500,10 +5560,10 @@
         <v>311</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -5517,10 +5577,10 @@
         <v>311</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -5531,13 +5591,13 @@
         <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -5551,27 +5611,27 @@
         <v>322</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="B165" t="s">
         <v>98</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -5585,10 +5645,10 @@
         <v>327</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -5602,27 +5662,27 @@
         <v>327</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>44396</v>
+        <v>44386</v>
       </c>
       <c r="B168" t="s">
         <v>98</v>
       </c>
       <c r="C168" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -5636,10 +5696,10 @@
         <v>334</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -5653,27 +5713,27 @@
         <v>334</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>44421</v>
+        <v>44396</v>
       </c>
       <c r="B171" t="s">
         <v>98</v>
       </c>
       <c r="C171" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -5687,10 +5747,10 @@
         <v>341</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -5704,27 +5764,27 @@
         <v>341</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>44424</v>
+        <v>44421</v>
       </c>
       <c r="B174" t="s">
         <v>98</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -5738,10 +5798,10 @@
         <v>345</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -5755,25 +5815,42 @@
         <v>345</v>
       </c>
       <c r="J176" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" t="s">
+        <v>345</v>
+      </c>
+      <c r="J177" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K176" s="1" t="s">
+      <c r="K177" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J177" s="1" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J178" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K177" s="1" t="s">
+      <c r="K178" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="178" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K178" s="1"/>
-    </row>
-    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K180" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5865,9 +5942,9 @@
     <hyperlink ref="K28" r:id="rId86" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{4E72D00A-4777-44EC-9AB7-E22DCDA85AA0}"/>
     <hyperlink ref="K29" r:id="rId87" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{A8C3F93F-2DB0-4D0A-9BD5-DC5F53E5D8CD}"/>
     <hyperlink ref="K30" r:id="rId88" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/ETH/versions/current/3/{z}/{x}/{y}.pbf" xr:uid="{426D28A6-A079-4817-8499-108EE733B7CA}"/>
-    <hyperlink ref="K125" r:id="rId89" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{46C1E08E-6D9F-48DD-B267-6AD650890F54}"/>
-    <hyperlink ref="K126" r:id="rId90" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{41905F37-9E79-4D28-9060-2B1DF1D1A7A6}"/>
-    <hyperlink ref="K124" r:id="rId91" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{2ECDCAFC-0BA7-44A4-BC9C-A5412CEFB0B3}"/>
+    <hyperlink ref="K126" r:id="rId89" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{46C1E08E-6D9F-48DD-B267-6AD650890F54}"/>
+    <hyperlink ref="K127" r:id="rId90" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{41905F37-9E79-4D28-9060-2B1DF1D1A7A6}"/>
+    <hyperlink ref="K125" r:id="rId91" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/GHA/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{2ECDCAFC-0BA7-44A4-BC9C-A5412CEFB0B3}"/>
     <hyperlink ref="K37" r:id="rId92" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{773640F8-59E2-4CDC-A289-181E6CB1485A}"/>
     <hyperlink ref="K38" r:id="rId93" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{4FA22D46-F40C-4209-AD0E-2C29DB9E62B9}"/>
     <hyperlink ref="K39" r:id="rId94" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/IRQ/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{0E936E58-B2FB-49E6-BAB4-77A8C880F1BD}"/>
@@ -5891,128 +5968,138 @@
     <hyperlink ref="J122" r:id="rId112" xr:uid="{9FD0A0C6-8B1F-4661-B51C-FEB9AE37B405}"/>
     <hyperlink ref="J95" r:id="rId113" xr:uid="{FA00176D-5402-4446-B65A-B43007162792}"/>
     <hyperlink ref="J121" r:id="rId114" xr:uid="{15DD637F-6103-4E05-84FE-B327117E22C7}"/>
-    <hyperlink ref="I129" r:id="rId115" xr:uid="{1D18298C-5748-4B8D-A409-8DF4A2B10270}"/>
-    <hyperlink ref="I128" r:id="rId116" xr:uid="{73EFE52F-67BF-4688-8A3C-95F5BAF89D0E}"/>
-    <hyperlink ref="I127" r:id="rId117" xr:uid="{813F65DE-0FB0-400D-ABBA-AE8427594C11}"/>
-    <hyperlink ref="K131" r:id="rId118" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{554C13A0-DEA3-4CD5-AA98-85FE4C2F138E}"/>
-    <hyperlink ref="K132" r:id="rId119" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{97969E1D-C98B-470C-9153-4A80D88F2024}"/>
-    <hyperlink ref="K130" r:id="rId120" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{A2F4596B-74A2-4551-A3E7-FE1AFFD01F71}"/>
+    <hyperlink ref="I130" r:id="rId115" xr:uid="{1D18298C-5748-4B8D-A409-8DF4A2B10270}"/>
+    <hyperlink ref="I129" r:id="rId116" xr:uid="{73EFE52F-67BF-4688-8A3C-95F5BAF89D0E}"/>
+    <hyperlink ref="I128" r:id="rId117" xr:uid="{813F65DE-0FB0-400D-ABBA-AE8427594C11}"/>
+    <hyperlink ref="K132" r:id="rId118" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{554C13A0-DEA3-4CD5-AA98-85FE4C2F138E}"/>
+    <hyperlink ref="K133" r:id="rId119" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{97969E1D-C98B-470C-9153-4A80D88F2024}"/>
+    <hyperlink ref="K131" r:id="rId120" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/DZA/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{A2F4596B-74A2-4551-A3E7-FE1AFFD01F71}"/>
     <hyperlink ref="J94" r:id="rId121" xr:uid="{DC78C57A-75EC-4426-A8F3-BF413DBB42D0}"/>
     <hyperlink ref="J96" r:id="rId122" xr:uid="{75066307-3E9B-43F3-BA1B-B0E74B5F58E6}"/>
-    <hyperlink ref="J133" r:id="rId123" xr:uid="{3D5A927C-F34B-4B4C-BD09-A6537A00D1DC}"/>
-    <hyperlink ref="J136" r:id="rId124" xr:uid="{70B1F973-518F-4BE3-9763-19DD24C304DA}"/>
-    <hyperlink ref="J137" r:id="rId125" xr:uid="{489BF63B-60D5-43B4-87DA-0D38C9D26FE1}"/>
-    <hyperlink ref="I134" r:id="rId126" xr:uid="{A07053FD-E732-4F48-8526-1F98698F081C}"/>
-    <hyperlink ref="I133" r:id="rId127" xr:uid="{D78755E2-4AC2-4FA4-9D8E-527995BF8784}"/>
-    <hyperlink ref="J139" r:id="rId128" xr:uid="{1E96F47D-7775-45F6-8194-88D2DC7B6BE7}"/>
-    <hyperlink ref="J140" r:id="rId129" xr:uid="{D480B3DE-F126-4076-8DA1-D62F44DAF445}"/>
-    <hyperlink ref="J141" r:id="rId130" xr:uid="{F600187F-300D-4D4B-B131-DC4F226C531D}"/>
-    <hyperlink ref="J142" r:id="rId131" xr:uid="{8D93FF6E-6609-4240-BE79-362302BF07F9}"/>
-    <hyperlink ref="J134" r:id="rId132" xr:uid="{7F081491-848B-4AED-8C20-4EAE3C2226FD}"/>
-    <hyperlink ref="J135" r:id="rId133" xr:uid="{187D1FF6-F523-4D3B-931F-3E277957104D}"/>
-    <hyperlink ref="J138" r:id="rId134" xr:uid="{B08774B7-F620-4BF1-AFE8-4CA417D4EA1A}"/>
-    <hyperlink ref="I135" r:id="rId135" xr:uid="{10A13B28-645C-43F2-9350-6CA04D7F3FAA}"/>
-    <hyperlink ref="J143" r:id="rId136" xr:uid="{6BA94870-1795-4132-A26A-A2A213E401A7}"/>
+    <hyperlink ref="J134" r:id="rId123" xr:uid="{3D5A927C-F34B-4B4C-BD09-A6537A00D1DC}"/>
+    <hyperlink ref="J137" r:id="rId124" xr:uid="{70B1F973-518F-4BE3-9763-19DD24C304DA}"/>
+    <hyperlink ref="J138" r:id="rId125" xr:uid="{489BF63B-60D5-43B4-87DA-0D38C9D26FE1}"/>
+    <hyperlink ref="I135" r:id="rId126" xr:uid="{A07053FD-E732-4F48-8526-1F98698F081C}"/>
+    <hyperlink ref="I134" r:id="rId127" xr:uid="{D78755E2-4AC2-4FA4-9D8E-527995BF8784}"/>
+    <hyperlink ref="J140" r:id="rId128" xr:uid="{1E96F47D-7775-45F6-8194-88D2DC7B6BE7}"/>
+    <hyperlink ref="J141" r:id="rId129" xr:uid="{D480B3DE-F126-4076-8DA1-D62F44DAF445}"/>
+    <hyperlink ref="J142" r:id="rId130" xr:uid="{F600187F-300D-4D4B-B131-DC4F226C531D}"/>
+    <hyperlink ref="J143" r:id="rId131" xr:uid="{8D93FF6E-6609-4240-BE79-362302BF07F9}"/>
+    <hyperlink ref="J135" r:id="rId132" xr:uid="{7F081491-848B-4AED-8C20-4EAE3C2226FD}"/>
+    <hyperlink ref="J136" r:id="rId133" xr:uid="{187D1FF6-F523-4D3B-931F-3E277957104D}"/>
+    <hyperlink ref="J139" r:id="rId134" xr:uid="{B08774B7-F620-4BF1-AFE8-4CA417D4EA1A}"/>
+    <hyperlink ref="I136" r:id="rId135" xr:uid="{10A13B28-645C-43F2-9350-6CA04D7F3FAA}"/>
+    <hyperlink ref="J144" r:id="rId136" xr:uid="{6BA94870-1795-4132-A26A-A2A213E401A7}"/>
     <hyperlink ref="J118" r:id="rId137" xr:uid="{3FD6418A-59A2-4D05-A7EB-B901B342FB6A}"/>
     <hyperlink ref="J98" r:id="rId138" xr:uid="{26770539-66D6-44FC-9503-2D2AE2154AE9}"/>
-    <hyperlink ref="J144" r:id="rId139" xr:uid="{3293E3FD-AA84-4E3C-A9B2-98937D1BE16B}"/>
-    <hyperlink ref="K143" r:id="rId140" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{2E962C8A-18CE-4B3C-828F-FE9AA2273475}"/>
-    <hyperlink ref="K144" r:id="rId141" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{F34676E9-097B-459E-9FEC-C7532623DBFC}"/>
-    <hyperlink ref="K145" r:id="rId142" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{FF060BDC-822F-4E5D-AA16-4B9904050AD2}"/>
-    <hyperlink ref="J145" r:id="rId143" xr:uid="{77F9D874-BCD2-49CB-8F54-0A9E182FB66E}"/>
-    <hyperlink ref="J131" r:id="rId144" xr:uid="{6D5ED7A7-6A8E-4D1F-8C21-BB5EB8CF7254}"/>
-    <hyperlink ref="J146" r:id="rId145" xr:uid="{9681BF45-1848-42D9-BFCE-706E6B2FB901}"/>
+    <hyperlink ref="J145" r:id="rId139" xr:uid="{3293E3FD-AA84-4E3C-A9B2-98937D1BE16B}"/>
+    <hyperlink ref="K144" r:id="rId140" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/0/{z}/{x}/{y}.pbf" xr:uid="{2E962C8A-18CE-4B3C-828F-FE9AA2273475}"/>
+    <hyperlink ref="K145" r:id="rId141" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/1/{z}/{x}/{y}.pbf" xr:uid="{F34676E9-097B-459E-9FEC-C7532623DBFC}"/>
+    <hyperlink ref="K146" r:id="rId142" display="http://beta.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/KHM/versions/current/2/{z}/{x}/{y}.pbf" xr:uid="{FF060BDC-822F-4E5D-AA16-4B9904050AD2}"/>
+    <hyperlink ref="J146" r:id="rId143" xr:uid="{77F9D874-BCD2-49CB-8F54-0A9E182FB66E}"/>
+    <hyperlink ref="J132" r:id="rId144" xr:uid="{6D5ED7A7-6A8E-4D1F-8C21-BB5EB8CF7254}"/>
+    <hyperlink ref="J147" r:id="rId145" xr:uid="{9681BF45-1848-42D9-BFCE-706E6B2FB901}"/>
     <hyperlink ref="K17" r:id="rId146" xr:uid="{B75C7242-642D-47AC-A4ED-EDEF7AC1AE21}"/>
     <hyperlink ref="K18" r:id="rId147" xr:uid="{D9C052D1-969F-4965-A776-362144A9A7EA}"/>
     <hyperlink ref="K19" r:id="rId148" xr:uid="{D781FC18-82A0-40EE-88CF-8BDAFE359D3E}"/>
     <hyperlink ref="J17" r:id="rId149" xr:uid="{7537EE23-4C61-4571-941C-3731658B1BA7}"/>
     <hyperlink ref="J18" r:id="rId150" xr:uid="{372BB3E0-E07E-4961-9EE6-9868B794E285}"/>
     <hyperlink ref="J100" r:id="rId151" xr:uid="{2261F0C3-678C-42AE-B307-81D491337945}"/>
-    <hyperlink ref="K134" r:id="rId152" xr:uid="{B6964586-A914-40B5-878B-6530BC25DB48}"/>
-    <hyperlink ref="K135" r:id="rId153" xr:uid="{CCA159A9-92A4-4AA0-AC7A-70352B2C47B1}"/>
-    <hyperlink ref="K133" r:id="rId154" xr:uid="{C3979E1D-98F9-4789-A6A1-222E8B260C0E}"/>
+    <hyperlink ref="K135" r:id="rId152" xr:uid="{B6964586-A914-40B5-878B-6530BC25DB48}"/>
+    <hyperlink ref="K136" r:id="rId153" xr:uid="{CCA159A9-92A4-4AA0-AC7A-70352B2C47B1}"/>
+    <hyperlink ref="K134" r:id="rId154" xr:uid="{C3979E1D-98F9-4789-A6A1-222E8B260C0E}"/>
     <hyperlink ref="J19" r:id="rId155" xr:uid="{D5B8DF00-AC4E-41FF-93A4-174AA9DF5457}"/>
-    <hyperlink ref="K146" r:id="rId156" xr:uid="{D1F6C12A-2733-4CDC-9707-92316F497E71}"/>
-    <hyperlink ref="K147" r:id="rId157" xr:uid="{B1B4DFC4-F8C1-4444-AC23-8274EEE21643}"/>
-    <hyperlink ref="J132" r:id="rId158" xr:uid="{1444B823-90EE-4303-85DF-B83F02B1DAAD}"/>
-    <hyperlink ref="J130" r:id="rId159" xr:uid="{23182ECF-5FA5-4419-82B0-BD05802331A6}"/>
-    <hyperlink ref="J128" r:id="rId160" xr:uid="{624571EC-8123-4BA6-83F9-226E04B3FEF4}"/>
-    <hyperlink ref="J129" r:id="rId161" xr:uid="{536F4E08-DDF1-4B3C-8B9B-B525D83256A8}"/>
-    <hyperlink ref="J127" r:id="rId162" xr:uid="{E4EA2D87-15B1-42BE-B546-EA42A6977355}"/>
+    <hyperlink ref="K147" r:id="rId156" xr:uid="{D1F6C12A-2733-4CDC-9707-92316F497E71}"/>
+    <hyperlink ref="K148" r:id="rId157" xr:uid="{B1B4DFC4-F8C1-4444-AC23-8274EEE21643}"/>
+    <hyperlink ref="J133" r:id="rId158" xr:uid="{1444B823-90EE-4303-85DF-B83F02B1DAAD}"/>
+    <hyperlink ref="J131" r:id="rId159" xr:uid="{23182ECF-5FA5-4419-82B0-BD05802331A6}"/>
+    <hyperlink ref="J129" r:id="rId160" xr:uid="{624571EC-8123-4BA6-83F9-226E04B3FEF4}"/>
+    <hyperlink ref="J130" r:id="rId161" xr:uid="{536F4E08-DDF1-4B3C-8B9B-B525D83256A8}"/>
+    <hyperlink ref="J128" r:id="rId162" xr:uid="{E4EA2D87-15B1-42BE-B546-EA42A6977355}"/>
     <hyperlink ref="K116" r:id="rId163" xr:uid="{DB472A38-40B5-4A8D-B03B-D862D0D3E2C3}"/>
     <hyperlink ref="K117" r:id="rId164" xr:uid="{06797A31-2B17-4415-9723-8C7451EFDF88}"/>
     <hyperlink ref="K115" r:id="rId165" xr:uid="{4FFD8753-2ECA-4C9E-AA44-BEF86B92EC7D}"/>
-    <hyperlink ref="K148" r:id="rId166" xr:uid="{8172FE28-3269-488C-AAE9-502DA9A34FC7}"/>
-    <hyperlink ref="K149" r:id="rId167" xr:uid="{DB50B69C-1DD5-417E-A15D-7294D6A60384}"/>
-    <hyperlink ref="K150" r:id="rId168" xr:uid="{005BEA66-4018-4EB0-A43F-90D7A087A5E9}"/>
-    <hyperlink ref="J148" r:id="rId169" xr:uid="{BCEDA174-7DA4-41AA-9F0D-1A9F85F2BB3D}"/>
-    <hyperlink ref="J149" r:id="rId170" xr:uid="{B1CEB8BF-8AD5-47B5-B659-4488571EE226}"/>
-    <hyperlink ref="J150" r:id="rId171" xr:uid="{C49FAB50-8E38-4870-9B95-F550338A5197}"/>
-    <hyperlink ref="J147" r:id="rId172" xr:uid="{A5AD2B62-5B05-46E8-979B-831D710B480B}"/>
-    <hyperlink ref="K139" r:id="rId173" xr:uid="{D7FA955C-11C5-4A92-AEF8-E8161294E40A}"/>
-    <hyperlink ref="K140" r:id="rId174" xr:uid="{C942B84E-F564-41C2-8590-9ECFC9170F3C}"/>
-    <hyperlink ref="K141" r:id="rId175" xr:uid="{C726868D-76C6-4090-8634-CE76A90E2050}"/>
-    <hyperlink ref="K142" r:id="rId176" xr:uid="{DC2110B6-98FB-4248-ABB0-66BF9A399AF3}"/>
-    <hyperlink ref="J125" r:id="rId177" xr:uid="{D026C85C-5F20-4124-9E92-F8AF33230CE2}"/>
-    <hyperlink ref="J124" r:id="rId178" xr:uid="{F7EB3B3F-3753-4EDA-BF19-0FEEAF16DD6C}"/>
-    <hyperlink ref="J151" r:id="rId179" xr:uid="{0DB80B05-1485-4453-B4FD-95CDF14BAB40}"/>
-    <hyperlink ref="J152" r:id="rId180" xr:uid="{8B6ACBEC-3331-4761-9464-A988F4854416}"/>
-    <hyperlink ref="J153" r:id="rId181" xr:uid="{FA49792B-0CB8-4AD6-999F-17368A479E78}"/>
-    <hyperlink ref="K151" r:id="rId182" xr:uid="{07D2F21F-8FE4-47BA-948D-5C9FE5202CD1}"/>
-    <hyperlink ref="K152" r:id="rId183" xr:uid="{E86548D3-433B-49EB-93E6-5BFB4D6A3806}"/>
-    <hyperlink ref="K153" r:id="rId184" xr:uid="{B3376FC1-EC1A-489E-9405-CA926EC1A7CB}"/>
-    <hyperlink ref="J126" r:id="rId185" xr:uid="{F28E3EB8-39FE-448C-B46C-718A1A672592}"/>
-    <hyperlink ref="K154" r:id="rId186" xr:uid="{3C97D69F-DC60-42C9-B95A-6396E9970D05}"/>
-    <hyperlink ref="K155" r:id="rId187" xr:uid="{5E5EB37F-1134-49F2-BE0A-4DED80104A41}"/>
-    <hyperlink ref="K156" r:id="rId188" xr:uid="{7E50CB05-C5EF-42CE-9BFE-EF3148E8B05E}"/>
-    <hyperlink ref="K157" r:id="rId189" xr:uid="{9D804933-7111-4A53-9CB7-457EE736C4BD}"/>
-    <hyperlink ref="J154" r:id="rId190" xr:uid="{C486CB56-149F-4895-867A-BD478B0D7C6C}"/>
-    <hyperlink ref="J155" r:id="rId191" xr:uid="{36556C04-474E-4CCE-939B-1E43366EB41B}"/>
-    <hyperlink ref="J156" r:id="rId192" xr:uid="{48791F54-3519-4904-AE5D-433DD27D12E5}"/>
-    <hyperlink ref="J157" r:id="rId193" xr:uid="{9B9CD70E-80BB-476F-AFD2-67FC32A932E0}"/>
-    <hyperlink ref="J159" r:id="rId194" xr:uid="{94FCC304-15F3-4E16-9CD5-465475563F7E}"/>
-    <hyperlink ref="J160" r:id="rId195" xr:uid="{90728D09-99AE-4A50-AB36-A9BB6A0F4F11}"/>
-    <hyperlink ref="J161" r:id="rId196" xr:uid="{BF9C4EF5-F11A-4C92-B7E6-3EF224161BD2}"/>
-    <hyperlink ref="J162" r:id="rId197" xr:uid="{83CF3136-91E7-48D6-B690-2746123A9ED6}"/>
-    <hyperlink ref="J158" r:id="rId198" xr:uid="{BD15C1AE-77E1-4AD3-ACA7-612E5C32F06C}"/>
-    <hyperlink ref="K158" r:id="rId199" xr:uid="{D488DC49-F5DC-442A-8593-346F499ACEF2}"/>
-    <hyperlink ref="K159" r:id="rId200" xr:uid="{9EF6FA4F-A75F-49C3-A183-532767B23414}"/>
-    <hyperlink ref="K160" r:id="rId201" xr:uid="{5ED10FB1-B613-4794-9525-4D46A19FDE2E}"/>
-    <hyperlink ref="K161" r:id="rId202" xr:uid="{CEBF9F17-CDDA-4FB1-A6E0-3D41CD392E1A}"/>
-    <hyperlink ref="K162" r:id="rId203" xr:uid="{0B7D4628-7FC8-497B-BAF6-EA45C3884E84}"/>
-    <hyperlink ref="J164" r:id="rId204" xr:uid="{142A3686-DCB0-45C1-B6CF-464B6BF67926}"/>
-    <hyperlink ref="J163" r:id="rId205" xr:uid="{B1C28D25-AB30-46D3-BD21-055C6DF9F088}"/>
-    <hyperlink ref="K163" r:id="rId206" xr:uid="{698ECC8D-3635-4A3D-8D8A-3ED883759BEA}"/>
-    <hyperlink ref="K164" r:id="rId207" xr:uid="{3D5CD299-FC1E-4767-BE3E-50D691B3E811}"/>
-    <hyperlink ref="J166" r:id="rId208" xr:uid="{6ED23914-EC7E-4FB3-8181-D9199EC57A93}"/>
-    <hyperlink ref="J167" r:id="rId209" xr:uid="{9EFA15A3-BF94-44F1-8D40-9D523D332C7F}"/>
-    <hyperlink ref="J165" r:id="rId210" xr:uid="{16656C14-DF8C-40C4-AB85-C9E186D03F08}"/>
-    <hyperlink ref="K165" r:id="rId211" xr:uid="{2929D4D6-62A1-44AB-9499-7ABBBE6E8B0F}"/>
-    <hyperlink ref="K166" r:id="rId212" xr:uid="{8EEB9DA9-84A3-4BF5-B9C3-FA0CF4AA55F1}"/>
-    <hyperlink ref="K167" r:id="rId213" xr:uid="{8B776124-FFAF-4D99-92F0-0C79E08506F2}"/>
-    <hyperlink ref="K168" r:id="rId214" xr:uid="{A1D0AC6D-BD80-4909-9605-B62DC8A44768}"/>
-    <hyperlink ref="K169" r:id="rId215" xr:uid="{4570B364-DF97-45CB-8B3F-40CCA37D9523}"/>
-    <hyperlink ref="J169" r:id="rId216" xr:uid="{12207FC4-4FBA-43D2-A00B-9433428B9FB4}"/>
-    <hyperlink ref="J170" r:id="rId217" xr:uid="{487F77DB-6E80-4DC3-97D8-EA5B0EEB91CF}"/>
-    <hyperlink ref="J168" r:id="rId218" xr:uid="{6F8E5602-B188-42B7-88AE-A8246A2A0CE4}"/>
-    <hyperlink ref="K172" r:id="rId219" xr:uid="{B619FEC2-A33A-4DAC-9AD9-8A9284ECE967}"/>
-    <hyperlink ref="K170" r:id="rId220" xr:uid="{8DC90AD0-7D8E-4D93-AD00-2808055CE524}"/>
-    <hyperlink ref="K173" r:id="rId221" xr:uid="{EAB6B430-C101-4249-ACFB-5B0A10A58622}"/>
-    <hyperlink ref="K171" r:id="rId222" xr:uid="{EE303FC4-D1F1-4093-A616-7D2289EE4D05}"/>
-    <hyperlink ref="K175" r:id="rId223" xr:uid="{B4F1B04B-05A7-4025-AA39-F7CBD28F7B1A}"/>
-    <hyperlink ref="K176" r:id="rId224" xr:uid="{D2963F44-A6C6-48CA-AD9D-0E982A00D6D5}"/>
-    <hyperlink ref="K174" r:id="rId225" xr:uid="{A7EEDD94-8623-43B8-8884-B38A1980215D}"/>
-    <hyperlink ref="K177" r:id="rId226" xr:uid="{92E01109-7720-4190-A0B4-3693ACEA4229}"/>
-    <hyperlink ref="J175" r:id="rId227" xr:uid="{C0BA3246-0DDA-4583-9167-2DDA4292AE30}"/>
-    <hyperlink ref="J174" r:id="rId228" xr:uid="{D41E2E9C-1607-4FC0-BDE5-97E02F0FEB40}"/>
-    <hyperlink ref="J177" r:id="rId229" xr:uid="{EE51B9CA-A871-43F6-B644-A9B1765FBE4E}"/>
-    <hyperlink ref="J176" r:id="rId230" xr:uid="{F641E863-4248-4FD1-B618-316D9B9C9D25}"/>
-    <hyperlink ref="J172" r:id="rId231" xr:uid="{7279AA85-5467-457D-9F13-7A795FD74FF5}"/>
-    <hyperlink ref="J173" r:id="rId232" xr:uid="{6077138B-76D1-4A10-8E1A-FE9F883707EF}"/>
-    <hyperlink ref="J171" r:id="rId233" xr:uid="{6B1FDC29-BD6D-4FF6-A35E-6132E93BEFEF}"/>
+    <hyperlink ref="K149" r:id="rId166" xr:uid="{8172FE28-3269-488C-AAE9-502DA9A34FC7}"/>
+    <hyperlink ref="K150" r:id="rId167" xr:uid="{DB50B69C-1DD5-417E-A15D-7294D6A60384}"/>
+    <hyperlink ref="K151" r:id="rId168" xr:uid="{005BEA66-4018-4EB0-A43F-90D7A087A5E9}"/>
+    <hyperlink ref="J149" r:id="rId169" xr:uid="{BCEDA174-7DA4-41AA-9F0D-1A9F85F2BB3D}"/>
+    <hyperlink ref="J150" r:id="rId170" xr:uid="{B1CEB8BF-8AD5-47B5-B659-4488571EE226}"/>
+    <hyperlink ref="J151" r:id="rId171" xr:uid="{C49FAB50-8E38-4870-9B95-F550338A5197}"/>
+    <hyperlink ref="J148" r:id="rId172" xr:uid="{A5AD2B62-5B05-46E8-979B-831D710B480B}"/>
+    <hyperlink ref="K140" r:id="rId173" xr:uid="{D7FA955C-11C5-4A92-AEF8-E8161294E40A}"/>
+    <hyperlink ref="K141" r:id="rId174" xr:uid="{C942B84E-F564-41C2-8590-9ECFC9170F3C}"/>
+    <hyperlink ref="K142" r:id="rId175" xr:uid="{C726868D-76C6-4090-8634-CE76A90E2050}"/>
+    <hyperlink ref="K143" r:id="rId176" xr:uid="{DC2110B6-98FB-4248-ABB0-66BF9A399AF3}"/>
+    <hyperlink ref="J126" r:id="rId177" xr:uid="{D026C85C-5F20-4124-9E92-F8AF33230CE2}"/>
+    <hyperlink ref="J125" r:id="rId178" xr:uid="{F7EB3B3F-3753-4EDA-BF19-0FEEAF16DD6C}"/>
+    <hyperlink ref="J152" r:id="rId179" xr:uid="{0DB80B05-1485-4453-B4FD-95CDF14BAB40}"/>
+    <hyperlink ref="J153" r:id="rId180" xr:uid="{8B6ACBEC-3331-4761-9464-A988F4854416}"/>
+    <hyperlink ref="J154" r:id="rId181" xr:uid="{FA49792B-0CB8-4AD6-999F-17368A479E78}"/>
+    <hyperlink ref="K152" r:id="rId182" xr:uid="{07D2F21F-8FE4-47BA-948D-5C9FE5202CD1}"/>
+    <hyperlink ref="K153" r:id="rId183" xr:uid="{E86548D3-433B-49EB-93E6-5BFB4D6A3806}"/>
+    <hyperlink ref="K154" r:id="rId184" xr:uid="{B3376FC1-EC1A-489E-9405-CA926EC1A7CB}"/>
+    <hyperlink ref="J127" r:id="rId185" xr:uid="{F28E3EB8-39FE-448C-B46C-718A1A672592}"/>
+    <hyperlink ref="K155" r:id="rId186" xr:uid="{3C97D69F-DC60-42C9-B95A-6396E9970D05}"/>
+    <hyperlink ref="K156" r:id="rId187" xr:uid="{5E5EB37F-1134-49F2-BE0A-4DED80104A41}"/>
+    <hyperlink ref="K157" r:id="rId188" xr:uid="{7E50CB05-C5EF-42CE-9BFE-EF3148E8B05E}"/>
+    <hyperlink ref="K158" r:id="rId189" xr:uid="{9D804933-7111-4A53-9CB7-457EE736C4BD}"/>
+    <hyperlink ref="J155" r:id="rId190" xr:uid="{C486CB56-149F-4895-867A-BD478B0D7C6C}"/>
+    <hyperlink ref="J156" r:id="rId191" xr:uid="{36556C04-474E-4CCE-939B-1E43366EB41B}"/>
+    <hyperlink ref="J157" r:id="rId192" xr:uid="{48791F54-3519-4904-AE5D-433DD27D12E5}"/>
+    <hyperlink ref="J158" r:id="rId193" xr:uid="{9B9CD70E-80BB-476F-AFD2-67FC32A932E0}"/>
+    <hyperlink ref="J160" r:id="rId194" xr:uid="{94FCC304-15F3-4E16-9CD5-465475563F7E}"/>
+    <hyperlink ref="J161" r:id="rId195" xr:uid="{90728D09-99AE-4A50-AB36-A9BB6A0F4F11}"/>
+    <hyperlink ref="J162" r:id="rId196" xr:uid="{BF9C4EF5-F11A-4C92-B7E6-3EF224161BD2}"/>
+    <hyperlink ref="J163" r:id="rId197" xr:uid="{83CF3136-91E7-48D6-B690-2746123A9ED6}"/>
+    <hyperlink ref="J159" r:id="rId198" xr:uid="{BD15C1AE-77E1-4AD3-ACA7-612E5C32F06C}"/>
+    <hyperlink ref="K159" r:id="rId199" xr:uid="{D488DC49-F5DC-442A-8593-346F499ACEF2}"/>
+    <hyperlink ref="K160" r:id="rId200" xr:uid="{9EF6FA4F-A75F-49C3-A183-532767B23414}"/>
+    <hyperlink ref="K161" r:id="rId201" xr:uid="{5ED10FB1-B613-4794-9525-4D46A19FDE2E}"/>
+    <hyperlink ref="K162" r:id="rId202" xr:uid="{CEBF9F17-CDDA-4FB1-A6E0-3D41CD392E1A}"/>
+    <hyperlink ref="K163" r:id="rId203" xr:uid="{0B7D4628-7FC8-497B-BAF6-EA45C3884E84}"/>
+    <hyperlink ref="J165" r:id="rId204" xr:uid="{142A3686-DCB0-45C1-B6CF-464B6BF67926}"/>
+    <hyperlink ref="J164" r:id="rId205" xr:uid="{B1C28D25-AB30-46D3-BD21-055C6DF9F088}"/>
+    <hyperlink ref="K164" r:id="rId206" xr:uid="{698ECC8D-3635-4A3D-8D8A-3ED883759BEA}"/>
+    <hyperlink ref="K165" r:id="rId207" xr:uid="{3D5CD299-FC1E-4767-BE3E-50D691B3E811}"/>
+    <hyperlink ref="J167" r:id="rId208" xr:uid="{6ED23914-EC7E-4FB3-8181-D9199EC57A93}"/>
+    <hyperlink ref="J168" r:id="rId209" xr:uid="{9EFA15A3-BF94-44F1-8D40-9D523D332C7F}"/>
+    <hyperlink ref="J166" r:id="rId210" xr:uid="{16656C14-DF8C-40C4-AB85-C9E186D03F08}"/>
+    <hyperlink ref="K166" r:id="rId211" xr:uid="{2929D4D6-62A1-44AB-9499-7ABBBE6E8B0F}"/>
+    <hyperlink ref="K167" r:id="rId212" xr:uid="{8EEB9DA9-84A3-4BF5-B9C3-FA0CF4AA55F1}"/>
+    <hyperlink ref="K168" r:id="rId213" xr:uid="{8B776124-FFAF-4D99-92F0-0C79E08506F2}"/>
+    <hyperlink ref="K169" r:id="rId214" xr:uid="{A1D0AC6D-BD80-4909-9605-B62DC8A44768}"/>
+    <hyperlink ref="K170" r:id="rId215" xr:uid="{4570B364-DF97-45CB-8B3F-40CCA37D9523}"/>
+    <hyperlink ref="J170" r:id="rId216" xr:uid="{12207FC4-4FBA-43D2-A00B-9433428B9FB4}"/>
+    <hyperlink ref="J171" r:id="rId217" xr:uid="{487F77DB-6E80-4DC3-97D8-EA5B0EEB91CF}"/>
+    <hyperlink ref="J169" r:id="rId218" xr:uid="{6F8E5602-B188-42B7-88AE-A8246A2A0CE4}"/>
+    <hyperlink ref="K173" r:id="rId219" xr:uid="{B619FEC2-A33A-4DAC-9AD9-8A9284ECE967}"/>
+    <hyperlink ref="K171" r:id="rId220" xr:uid="{8DC90AD0-7D8E-4D93-AD00-2808055CE524}"/>
+    <hyperlink ref="K174" r:id="rId221" xr:uid="{EAB6B430-C101-4249-ACFB-5B0A10A58622}"/>
+    <hyperlink ref="K172" r:id="rId222" xr:uid="{EE303FC4-D1F1-4093-A616-7D2289EE4D05}"/>
+    <hyperlink ref="K176" r:id="rId223" xr:uid="{B4F1B04B-05A7-4025-AA39-F7CBD28F7B1A}"/>
+    <hyperlink ref="K177" r:id="rId224" xr:uid="{D2963F44-A6C6-48CA-AD9D-0E982A00D6D5}"/>
+    <hyperlink ref="K175" r:id="rId225" xr:uid="{A7EEDD94-8623-43B8-8884-B38A1980215D}"/>
+    <hyperlink ref="K178" r:id="rId226" xr:uid="{92E01109-7720-4190-A0B4-3693ACEA4229}"/>
+    <hyperlink ref="J176" r:id="rId227" xr:uid="{C0BA3246-0DDA-4583-9167-2DDA4292AE30}"/>
+    <hyperlink ref="J175" r:id="rId228" xr:uid="{D41E2E9C-1607-4FC0-BDE5-97E02F0FEB40}"/>
+    <hyperlink ref="J178" r:id="rId229" xr:uid="{EE51B9CA-A871-43F6-B644-A9B1765FBE4E}"/>
+    <hyperlink ref="J177" r:id="rId230" xr:uid="{F641E863-4248-4FD1-B618-316D9B9C9D25}"/>
+    <hyperlink ref="J173" r:id="rId231" xr:uid="{7279AA85-5467-457D-9F13-7A795FD74FF5}"/>
+    <hyperlink ref="J174" r:id="rId232" xr:uid="{6077138B-76D1-4A10-8E1A-FE9F883707EF}"/>
+    <hyperlink ref="J172" r:id="rId233" xr:uid="{6B1FDC29-BD6D-4FF6-A35E-6132E93BEFEF}"/>
+    <hyperlink ref="K129" r:id="rId234" xr:uid="{37F30B8E-19F6-4002-9B09-35E722DF3B03}"/>
+    <hyperlink ref="K130" r:id="rId235" xr:uid="{097EB63C-7F80-4E3D-9237-6FFC52CDC757}"/>
+    <hyperlink ref="K128" r:id="rId236" xr:uid="{BFE4427E-C724-4A4A-8051-E72A40B30006}"/>
+    <hyperlink ref="K138" r:id="rId237" xr:uid="{D47246D1-2816-461F-81B0-65AFB18866DB}"/>
+    <hyperlink ref="K139" r:id="rId238" xr:uid="{714119C1-BF98-4DC8-9B76-635A6B902F72}"/>
+    <hyperlink ref="K137" r:id="rId239" xr:uid="{08A3987D-3941-4E54-902D-0736E041C222}"/>
+    <hyperlink ref="J124" r:id="rId240" xr:uid="{970132FB-D84E-45A8-A81F-795CA51255FC}"/>
+    <hyperlink ref="K122" r:id="rId241" xr:uid="{3BE3F71F-C6B4-482D-81C7-365ED3712832}"/>
+    <hyperlink ref="K123" r:id="rId242" xr:uid="{25C9D285-50EA-4DA4-B22B-61278227EAF2}"/>
+    <hyperlink ref="K121" r:id="rId243" xr:uid="{8BBDD365-AC7E-4011-A8A5-79CE3B536223}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId234"/>
-  <legacyDrawing r:id="rId235"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId244"/>
+  <legacyDrawing r:id="rId245"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B629C5-BBFF-4787-8BB7-3BD53856C828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF401ADB-A12F-4097-882B-D626BAD271DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anita Russo:</t>
         </r>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="377">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1172,6 +1172,33 @@
   </si>
   <si>
     <t>http://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/VEN/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SSD/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SSD/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SSD/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SSD/Admin0-MBT/Admin0.mbtiles</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SSD/versions/current/0/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SSD/versions/current/1/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SSD/versions/current/2/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SSD/versions/current/3/{z}/{x}/{y}.pbf</t>
   </si>
 </sst>
 </file>
@@ -1198,14 +1225,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1558,10 +1585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K180"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="J159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L162" sqref="L162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,6 +5867,15 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B178" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" t="s">
+        <v>368</v>
+      </c>
       <c r="J178" s="1" t="s">
         <v>352</v>
       </c>
@@ -5847,10 +5884,72 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K179" s="1"/>
+      <c r="A179" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C179" t="s">
+        <v>368</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K180" s="1"/>
+      <c r="A180" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" t="s">
+        <v>368</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B181" t="s">
+        <v>98</v>
+      </c>
+      <c r="C181" t="s">
+        <v>368</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B182" t="s">
+        <v>98</v>
+      </c>
+      <c r="C182" t="s">
+        <v>368</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6097,9 +6196,17 @@
     <hyperlink ref="K122" r:id="rId241" xr:uid="{3BE3F71F-C6B4-482D-81C7-365ED3712832}"/>
     <hyperlink ref="K123" r:id="rId242" xr:uid="{25C9D285-50EA-4DA4-B22B-61278227EAF2}"/>
     <hyperlink ref="K121" r:id="rId243" xr:uid="{8BBDD365-AC7E-4011-A8A5-79CE3B536223}"/>
+    <hyperlink ref="J180" r:id="rId244" xr:uid="{23125A41-BBC7-49E7-9FC3-568A660B080D}"/>
+    <hyperlink ref="J179" r:id="rId245" xr:uid="{00C6CCFC-C02D-4ACF-9D49-BF2DE9FFCC38}"/>
+    <hyperlink ref="J182" r:id="rId246" xr:uid="{B1A96D21-A757-470F-A653-985391695866}"/>
+    <hyperlink ref="J181" r:id="rId247" xr:uid="{154B22B0-DF98-4605-8497-4D1899BC7B25}"/>
+    <hyperlink ref="K180" r:id="rId248" xr:uid="{5933F3D0-8439-4A1C-9156-28F3900A0183}"/>
+    <hyperlink ref="K181" r:id="rId249" xr:uid="{31F7B83A-65B8-413B-A7EB-950C9BAA3CDA}"/>
+    <hyperlink ref="K179" r:id="rId250" xr:uid="{CBD7BB55-AAC5-4033-A27B-20133DB4AB8E}"/>
+    <hyperlink ref="K182" r:id="rId251" xr:uid="{5E68109D-FBDB-4D09-AA70-CB992E128167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId244"/>
-  <legacyDrawing r:id="rId245"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId252"/>
+  <legacyDrawing r:id="rId253"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF401ADB-A12F-4097-882B-D626BAD271DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9B09C-4C0E-44E5-AD76-B8A3EB087546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="380">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1199,6 +1199,15 @@
   </si>
   <si>
     <t>https://apps.itos.uga.edu/CODV2API/api/v1/Themes/cod-ab/locations/SSD/versions/current/3/{z}/{x}/{y}.pbf</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PAN/Admin1-MBT/Admin1.mbtiles</t>
+  </si>
+  <si>
+    <t>Pan admin 0 pending</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +1595,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L162" sqref="L162"/>
+    <sheetView tabSelected="1" topLeftCell="J160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5949,6 +5958,34 @@
       </c>
       <c r="K182" s="1" t="s">
         <v>376</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B183" t="s">
+        <v>98</v>
+      </c>
+      <c r="C183" t="s">
+        <v>377</v>
+      </c>
+      <c r="J183" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B184" t="s">
+        <v>98</v>
+      </c>
+      <c r="C184" t="s">
+        <v>377</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6204,9 +6241,10 @@
     <hyperlink ref="K181" r:id="rId249" xr:uid="{31F7B83A-65B8-413B-A7EB-950C9BAA3CDA}"/>
     <hyperlink ref="K179" r:id="rId250" xr:uid="{CBD7BB55-AAC5-4033-A27B-20133DB4AB8E}"/>
     <hyperlink ref="K182" r:id="rId251" xr:uid="{5E68109D-FBDB-4D09-AA70-CB992E128167}"/>
+    <hyperlink ref="J184" r:id="rId252" xr:uid="{C6594F0E-E201-4A5B-90A3-7E25A7F1AA70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId252"/>
-  <legacyDrawing r:id="rId253"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId253"/>
+  <legacyDrawing r:id="rId254"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9B09C-4C0E-44E5-AD76-B8A3EB087546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9201CBC-5450-4467-B1CC-0A23DEC2B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39940" yWindow="2230" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="381">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>Pan admin 0 pending</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PAN/Admin3-MBT/Admin3.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1595,27 +1598,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+    <sheetView tabSelected="1" topLeftCell="I160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" customWidth="1"/>
-    <col min="6" max="6" width="75.28515625" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="5" max="5" width="73.453125" customWidth="1"/>
+    <col min="6" max="6" width="75.26953125" customWidth="1"/>
+    <col min="7" max="7" width="91.54296875" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
-    <col min="9" max="9" width="115.85546875" customWidth="1"/>
-    <col min="10" max="10" width="90.140625" customWidth="1"/>
-    <col min="11" max="11" width="99.140625" customWidth="1"/>
+    <col min="9" max="9" width="115.81640625" customWidth="1"/>
+    <col min="10" max="10" width="90.1796875" customWidth="1"/>
+    <col min="11" max="11" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>143</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43727</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43727</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43727</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43728</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43753</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43753</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43753</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43753</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43753</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43753</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43753</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43753</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43753</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43753</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43753</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43753</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43753</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43753</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43753</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43753</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43753</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43753</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43753</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43753</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43753</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43753</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43753</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43753</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43753</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43753</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin1.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43753</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin2.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43753</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin0.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43753</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin1.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43753</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/IRN/COD_IRN_Admin2.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43753</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43753</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43753</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43753</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43753</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43753</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43753</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43753</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43753</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin0.csv</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43753</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin1.csv</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43753</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin2.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43753</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MLI/COD_MLI_Admin3.csv</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43753</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43753</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin1.csv</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43753</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin2.csv</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43753</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NGA/COD_NGA_Admin3.csv</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43753</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin0.csv</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43753</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin1.csv</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43753</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/NPL/COD_NPL_Admin2.csv</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43753</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin0.csv</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43753</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin1.csv</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43753</v>
       </c>
@@ -3432,7 +3435,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin2.csv</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43753</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PNG/COD_PNG_Admin3.csv</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43753</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin0.csv</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43753</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin1.csv</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43753</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/PRK/COD_PRK_Admin2.csv</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43753</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>43753</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43753</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43753</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.csv</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43805</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin0.csv</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43805</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin1.csv</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43805</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/TGO/COD_TGO_Admin2.csv</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43805</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin0.csv</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>43805</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin1.csv</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43805</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin2.csv</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43805</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/THA/COD_THA_Admin3.csv</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43805</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin0.kml</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43805</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin1.kml</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43805</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GEO/COD_GEO_Admin2.kml</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43805</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin0.kml</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43805</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin1.kml</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43805</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LAO/COD_LAO_Admin2.kml</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43805</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43805</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43805</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43901</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin0.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43901</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin1.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43901</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin2.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43901</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/LKA/COD_LKA_Admin3.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43980</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43980</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43980</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43980</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43955</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43955</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43955</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44225</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>44266</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44266</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44252</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44252</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44252</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44252</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44298</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44252</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44252</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44252</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44270</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44270</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44277</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44263</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44263</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44263</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44279</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44279</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44279</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>44279</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44286</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44286</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44286</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>44286</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44286</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>44298</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44298</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>44298</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>44298</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>44298</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>44298</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>44298</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44301</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44305</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44305</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44349</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44305</v>
       </c>
@@ -5101,7 +5104,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44305</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44312</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44317</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44317</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44312</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44312</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44319</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44319</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44319</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44320</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44320</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44320</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44342</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44342</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>44349</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>44358</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>44362</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>44362</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44362</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44368</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44368</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44368</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44376</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44376</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44376</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44376</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44384</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44384</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44384</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44384</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44384</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44384</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44384</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44386</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44386</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44386</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44396</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44396</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>44396</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>44421</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44421</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>44421</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>44424</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44424</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>44424</v>
       </c>
@@ -5875,7 +5878,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>44435</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>44435</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>44435</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>44435</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>44435</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>44498</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>44498</v>
       </c>
@@ -5986,6 +5989,28 @@
       </c>
       <c r="J184" s="1" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>98</v>
+      </c>
+      <c r="C185" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B186" t="s">
+        <v>98</v>
+      </c>
+      <c r="C186" t="s">
+        <v>377</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -6242,9 +6267,10 @@
     <hyperlink ref="K179" r:id="rId250" xr:uid="{CBD7BB55-AAC5-4033-A27B-20133DB4AB8E}"/>
     <hyperlink ref="K182" r:id="rId251" xr:uid="{5E68109D-FBDB-4D09-AA70-CB992E128167}"/>
     <hyperlink ref="J184" r:id="rId252" xr:uid="{C6594F0E-E201-4A5B-90A3-7E25A7F1AA70}"/>
+    <hyperlink ref="J186" r:id="rId253" xr:uid="{80CF3240-D100-4965-B5CE-61A078D2A557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId253"/>
-  <legacyDrawing r:id="rId254"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId254"/>
+  <legacyDrawing r:id="rId255"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9201CBC-5450-4467-B1CC-0A23DEC2B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7D2FE-D7C8-4770-B845-7C13FDA0B864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39940" yWindow="2230" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="382">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1211,6 +1211,9 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PAN/Admin3-MBT/Admin3.mbtiles</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PAN/Admin2-MBT/Admin2.mbtiles</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1603,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+    <sheetView tabSelected="1" topLeftCell="I148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5992,11 +5995,17 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185" s="2">
+        <v>44519</v>
+      </c>
       <c r="B185" t="s">
         <v>98</v>
       </c>
       <c r="C185" t="s">
         <v>377</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
@@ -6268,9 +6277,10 @@
     <hyperlink ref="K182" r:id="rId251" xr:uid="{5E68109D-FBDB-4D09-AA70-CB992E128167}"/>
     <hyperlink ref="J184" r:id="rId252" xr:uid="{C6594F0E-E201-4A5B-90A3-7E25A7F1AA70}"/>
     <hyperlink ref="J186" r:id="rId253" xr:uid="{80CF3240-D100-4965-B5CE-61A078D2A557}"/>
+    <hyperlink ref="J185" r:id="rId254" xr:uid="{779E128E-608D-4345-90F6-93014ADC19EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId254"/>
-  <legacyDrawing r:id="rId255"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId255"/>
+  <legacyDrawing r:id="rId256"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7D2FE-D7C8-4770-B845-7C13FDA0B864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC9CBA-CDF1-4A47-AE19-5C0DDCE3EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="2230" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="1740" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="388">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1214,6 +1214,24 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_PAN/Admin2-MBT/Admin2.mbtiles</t>
+  </si>
+  <si>
+    <t>updated January 2022</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MEX/Central/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MEX/North/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MEX/South/Admin1/metadata.json</t>
   </si>
 </sst>
 </file>
@@ -1601,10 +1619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J185" sqref="J185"/>
+    <sheetView tabSelected="1" topLeftCell="H130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1621,7 +1639,7 @@
     <col min="11" max="11" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>143</v>
       </c>
@@ -1655,8 +1673,11 @@
       <c r="K1" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43727</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin0.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43727</v>
       </c>
@@ -1716,7 +1737,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin1.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43727</v>
       </c>
@@ -1746,7 +1767,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin2.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43728</v>
       </c>
@@ -1776,7 +1797,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/MOZ/COD_MOZ_Admin3.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43753</v>
       </c>
@@ -1806,7 +1827,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin0.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43753</v>
       </c>
@@ -1836,7 +1857,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin1.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43753</v>
       </c>
@@ -1866,7 +1887,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BEN/COD_BEN_Admin2.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43753</v>
       </c>
@@ -1896,7 +1917,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43753</v>
       </c>
@@ -1926,7 +1947,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin1.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43753</v>
       </c>
@@ -1956,7 +1977,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin2.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43753</v>
       </c>
@@ -1986,7 +2007,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/BOL/COD_BOL_Admin3.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43753</v>
       </c>
@@ -2016,7 +2037,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin0.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43753</v>
       </c>
@@ -2046,7 +2067,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43753</v>
       </c>
@@ -2076,7 +2097,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43753</v>
       </c>
@@ -2106,7 +2127,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/CMR/COD_CMR_Admin3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43753</v>
       </c>
@@ -2142,7 +2163,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43753</v>
       </c>
@@ -2178,7 +2199,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43753</v>
       </c>
@@ -2214,7 +2235,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43753</v>
       </c>
@@ -2244,7 +2265,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin0.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43753</v>
       </c>
@@ -2274,7 +2295,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43753</v>
       </c>
@@ -2304,7 +2325,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/COG/COD_COG_Admin2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43753</v>
       </c>
@@ -2334,7 +2355,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin0.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43753</v>
       </c>
@@ -2364,7 +2385,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43753</v>
       </c>
@@ -2394,7 +2415,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43753</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/ECU/COD_ECU_Admin3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43753</v>
       </c>
@@ -2459,8 +2480,11 @@
       <c r="K27" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43753</v>
       </c>
@@ -2495,8 +2519,11 @@
       <c r="K28" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
@@ -2531,8 +2558,11 @@
       <c r="K29" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43753</v>
       </c>
@@ -2570,8 +2600,11 @@
       <c r="K30" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43753</v>
       </c>
@@ -2601,7 +2634,7 @@
         <v>https://itos-humanitarian.s3.amazonaws.com/GTM/COD_GTM_Admin0.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43753</v>
       </c>
@@ -6020,6 +6053,48 @@
       </c>
       <c r="J186" s="1" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B187" t="s">
+        <v>98</v>
+      </c>
+      <c r="C187" t="s">
+        <v>384</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B188" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" t="s">
+        <v>384</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B189" t="s">
+        <v>98</v>
+      </c>
+      <c r="C189" t="s">
+        <v>384</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6278,9 +6353,12 @@
     <hyperlink ref="J184" r:id="rId252" xr:uid="{C6594F0E-E201-4A5B-90A3-7E25A7F1AA70}"/>
     <hyperlink ref="J186" r:id="rId253" xr:uid="{80CF3240-D100-4965-B5CE-61A078D2A557}"/>
     <hyperlink ref="J185" r:id="rId254" xr:uid="{779E128E-608D-4345-90F6-93014ADC19EA}"/>
+    <hyperlink ref="I188" r:id="rId255" xr:uid="{3F68F38C-08A5-4223-8900-A7D3A0906360}"/>
+    <hyperlink ref="I187" r:id="rId256" xr:uid="{0254502D-92AA-4BC4-A4CE-FA0D60EF7F41}"/>
+    <hyperlink ref="I189" r:id="rId257" xr:uid="{4AFD224D-B35E-486E-A9F3-29F156533453}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId255"/>
-  <legacyDrawing r:id="rId256"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId258"/>
+  <legacyDrawing r:id="rId259"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC9CBA-CDF1-4A47-AE19-5C0DDCE3EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173891B-99B3-4355-A51D-CF1EDB68CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1740" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="2150" windowWidth="28800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="391">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1232,6 +1232,15 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_MEX/South/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SEN/Admin1/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SEN/Admin2/metadata.json</t>
+  </si>
+  <si>
+    <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SEN/Admin3/metadata.json</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1630,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+    <sheetView tabSelected="1" topLeftCell="H55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3650,6 +3659,9 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin1.csv</v>
       </c>
+      <c r="I64" s="1" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
@@ -3680,6 +3692,9 @@
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin2.csv</v>
       </c>
+      <c r="I65" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
@@ -3709,6 +3724,9 @@
       <c r="H66" t="str">
         <f t="shared" si="3"/>
         <v>https://itos-humanitarian.s3.amazonaws.com/SEN/COD_SEN_Admin3.csv</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -6356,9 +6374,12 @@
     <hyperlink ref="I188" r:id="rId255" xr:uid="{3F68F38C-08A5-4223-8900-A7D3A0906360}"/>
     <hyperlink ref="I187" r:id="rId256" xr:uid="{0254502D-92AA-4BC4-A4CE-FA0D60EF7F41}"/>
     <hyperlink ref="I189" r:id="rId257" xr:uid="{4AFD224D-B35E-486E-A9F3-29F156533453}"/>
+    <hyperlink ref="I64" r:id="rId258" xr:uid="{5C160E81-E1EA-4EDB-A8EF-B7BF28774016}"/>
+    <hyperlink ref="I65" r:id="rId259" xr:uid="{73C7EB6C-71AE-40DF-8E01-B67F534D2E1B}"/>
+    <hyperlink ref="I66" r:id="rId260" xr:uid="{EB425AC1-51D5-4CA8-B78F-BE067B53A39B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId258"/>
-  <legacyDrawing r:id="rId259"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId261"/>
+  <legacyDrawing r:id="rId262"/>
 </worksheet>
 </file>
--- a/Data/AWSDeploymentURLlist.xlsx
+++ b/Data/AWSDeploymentURLlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173891B-99B3-4355-A51D-CF1EDB68CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C19338-009F-499F-854C-F9DC78B9C2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="2150" windowWidth="28800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3410" yWindow="3890" windowWidth="28800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="395">
   <si>
     <t>Base URL for AWS</t>
   </si>
@@ -1241,6 +1241,18 @@
   </si>
   <si>
     <t>https://itos-humanitarian.s3.amazonaws.com/v1/VectorTile/COD_SEN/Admin3/metadata.json</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>https://s3.wasabisys.com/</t>
+  </si>
+  <si>
+    <t>https://s3.wasabisys.com/itos-humanitarian/v1/VectorTile/COD_KWT/Admin0/metadata.json</t>
+  </si>
+  <si>
+    <t>https://s3.wasabisys.com/itos-humanitarian/v1/VectorTile/COD_KWT/Admin1/metadata.json</t>
   </si>
 </sst>
 </file>
@@ -1628,10 +1640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="H157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J191" sqref="J191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6113,6 +6125,34 @@
       </c>
       <c r="I189" s="1" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B190" t="s">
+        <v>392</v>
+      </c>
+      <c r="C190" t="s">
+        <v>391</v>
+      </c>
+      <c r="I190" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B191" t="s">
+        <v>392</v>
+      </c>
+      <c r="C191" t="s">
+        <v>391</v>
+      </c>
+      <c r="I191" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
